--- a/UpperLevel/GMHO_Upper_Defs.xlsx
+++ b/UpperLevel/GMHO_Upper_Defs.xlsx
@@ -1,112 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bgehrk/development/mental-health-ontology/UpperLevel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF10D93F-5272-CD48-93D5-1B4DB9F763FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Informal definition</t>
-  </si>
-  <si>
-    <t>Logical definition</t>
-  </si>
-  <si>
-    <t>Definition source</t>
-  </si>
-  <si>
-    <t>Parent</t>
-  </si>
-  <si>
-    <t>BFO entity</t>
-  </si>
-  <si>
-    <t>Sub-ontology</t>
-  </si>
-  <si>
-    <t>REL 'has process part'</t>
-  </si>
-  <si>
-    <t>REL 'realises'</t>
-  </si>
-  <si>
-    <t>Curator note</t>
-  </si>
-  <si>
-    <t>Synonyms</t>
-  </si>
-  <si>
-    <t>Cross reference</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Examples</t>
-  </si>
-  <si>
-    <t>Curator</t>
-  </si>
-  <si>
-    <t>Curation status</t>
-  </si>
-  <si>
-    <t>To be reviewed by</t>
-  </si>
-  <si>
-    <t>Reviewer query</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffffff"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -121,23 +55,83 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -425,76 +419,598 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Definition</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Informal definition</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Logical definition</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Definition source</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Parent</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>BFO entity</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Sub-ontology</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>REL 'has process part'</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>REL 'realises'</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Curator note</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Synonyms</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Examples</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Curator</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Curation status</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>To be reviewed by</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Reviewer query</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000242</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">intervention dose
+</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>An intervention attribute that is its amount.</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr"/>
+      <c r="E2" s="2" t="inlineStr"/>
+      <c r="F2" s="2" t="inlineStr"/>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>intervention attribute</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr"/>
+      <c r="I2" s="2" t="inlineStr"/>
+      <c r="J2" s="2" t="inlineStr"/>
+      <c r="K2" s="2" t="inlineStr"/>
+      <c r="L2" s="2" t="inlineStr"/>
+      <c r="M2" s="2" t="inlineStr"/>
+      <c r="N2" s="2" t="inlineStr"/>
+      <c r="O2" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">"Intervention dose can capture the intensity of any intervention, including social, psychological and pharmacological interventions.
+Intervention dose refers to the intensity or amount of an intervention, which is about the content of an intervention. In contrast, an intervention's schedule of delivery is about the temporal aspects of the intervention. There is some overlap between the entities ""intervention dose"" and ""intervention schedule of delivery"". For example, a more frequent intervention schedule with specific doses would suggest a higher overall dose of the intervention. However, ""intervention dose"" can capture concepts that are not directly relevant to the temporal organisation of the intervention, such as overall number of intervention strategies and drug dose."
+</t>
+        </is>
+      </c>
+      <c r="P2" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">drug dose and number of intervention techniques (e.g., action plans, social support)
+</t>
+        </is>
+      </c>
+      <c r="Q2" s="2" t="inlineStr"/>
+      <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S2" s="2" t="inlineStr"/>
+      <c r="T2" s="2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000243</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>intervention mechanism of action</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>A process that is causally active in the relationship between an intervention scenario and its intervention outcome.</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr"/>
+      <c r="E3" s="2" t="inlineStr"/>
+      <c r="F3" s="2" t="inlineStr"/>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr"/>
+      <c r="I3" s="2" t="inlineStr"/>
+      <c r="J3" s="2" t="inlineStr"/>
+      <c r="K3" s="2" t="inlineStr"/>
+      <c r="L3" s="2" t="inlineStr"/>
+      <c r="M3" s="2" t="inlineStr"/>
+      <c r="N3" s="2" t="inlineStr"/>
+      <c r="O3" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">For a construct to be a mechanism of action, it has to be causally active in bringing about the influence of the intervention on its outcome. Different interventions have different mechanisms and so the subclasses of "intervention mechanism of action" are possible mechanisms of  interventions. The ontology itself does not make causal inferences for specific mechanisms of action. These inferences can be done at the annotation level, namely when there is empirical evidence to support statements about the relationships between constructs.
+</t>
+        </is>
+      </c>
+      <c r="P3" s="2" t="inlineStr"/>
+      <c r="Q3" s="2" t="inlineStr"/>
+      <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S3" s="2" t="inlineStr"/>
+      <c r="T3" s="2" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000244</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">intervention mode of delivery
+</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">An intervention attribute that is the physical or informational medium through which an intervention is provided.
+</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr"/>
+      <c r="E4" s="2" t="inlineStr"/>
+      <c r="F4" s="2" t="inlineStr"/>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>intervention attribute</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr"/>
+      <c r="I4" s="2" t="inlineStr"/>
+      <c r="J4" s="2" t="inlineStr"/>
+      <c r="K4" s="2" t="inlineStr"/>
+      <c r="L4" s="2" t="inlineStr"/>
+      <c r="M4" s="2" t="inlineStr"/>
+      <c r="N4" s="2" t="inlineStr"/>
+      <c r="O4" s="2" t="inlineStr"/>
+      <c r="P4" s="2" t="inlineStr"/>
+      <c r="Q4" s="2" t="inlineStr"/>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr"/>
+      <c r="T4" s="2" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000245</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">intervention schedule of delivery
+</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">An intervention attribute that involves its temporal organisation.
+</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr"/>
+      <c r="E5" s="2" t="inlineStr"/>
+      <c r="F5" s="2" t="inlineStr"/>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>intervention attribute</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr"/>
+      <c r="I5" s="2" t="inlineStr"/>
+      <c r="J5" s="2" t="inlineStr"/>
+      <c r="K5" s="2" t="inlineStr"/>
+      <c r="L5" s="2" t="inlineStr"/>
+      <c r="M5" s="2" t="inlineStr"/>
+      <c r="N5" s="2" t="inlineStr"/>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">"Temporal organisation includes different temporal dimensions, such as timing, frequency, duration and the sequence of activities.
+Intervention dose refers to the intensity or amount of an intervention, which is about the content of an intervention. In contrast, an intervention's schedule of delivery is about the temporal aspects of the intervention. There is some overlap between the entities ""intervention dose"" and ""intervention schedule of delivery"". For example, a more frequent intervention schedule with specific doses would suggest a higher overall dose of the intervention. However, ""intervention dose"" can capture concepts that are not directly relevant to the temporal organisation of the intervention, such as overall number of intervention strategies and drug dose."
+</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr"/>
+      <c r="Q5" s="2" t="inlineStr"/>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr"/>
+      <c r="T5" s="2" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000246</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">intervention source
+</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A role played by a person, population or organisation that provides an intervention.
+</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr"/>
+      <c r="E6" s="2" t="inlineStr"/>
+      <c r="F6" s="2" t="inlineStr"/>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr"/>
+      <c r="I6" s="2" t="inlineStr"/>
+      <c r="J6" s="2" t="inlineStr"/>
+      <c r="K6" s="2" t="inlineStr"/>
+      <c r="L6" s="2" t="inlineStr"/>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">intervention provider
+</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr"/>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The entity “intervention source” has been defined to include a person, population or organisation, as these sources can be legally accountable for an intervention. A computer program or machine cannot be held accountable in the same way. Therefore, the organisation or people that provide the computer program or machine would be considered the intervention source, where relevant. When an intervention is delivered via a computer program (e.g., an app), this can be captured in the ontology through the relevant subclasses of "intervention mode of delivery".
+</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr"/>
+      <c r="Q6" s="2" t="inlineStr"/>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr"/>
+      <c r="T6" s="2" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000247</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>intervention technique</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>A planned process that is the smallest part of an intervention that is observable, replicable and on its own has the potential to influence an intervention outcome.</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr"/>
+      <c r="E7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="inlineStr"/>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>planned process</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr"/>
+      <c r="I7" s="2" t="inlineStr"/>
+      <c r="J7" s="2" t="inlineStr"/>
+      <c r="K7" s="2" t="inlineStr"/>
+      <c r="L7" s="2" t="inlineStr"/>
+      <c r="M7" s="2" t="inlineStr"/>
+      <c r="N7" s="2" t="inlineStr"/>
+      <c r="O7" s="2" t="inlineStr"/>
+      <c r="P7" s="2" t="inlineStr"/>
+      <c r="Q7" s="2" t="inlineStr"/>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr"/>
+      <c r="T7" s="2" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000248</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">mental health intervention
+</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>An intervention that has the aim of influencing some aspect of mental health.</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr"/>
+      <c r="E8" s="2" t="inlineStr"/>
+      <c r="F8" s="2" t="inlineStr"/>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>intervention</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr"/>
+      <c r="I8" s="2" t="inlineStr"/>
+      <c r="J8" s="2" t="inlineStr"/>
+      <c r="K8" s="2" t="inlineStr"/>
+      <c r="L8" s="2" t="inlineStr"/>
+      <c r="M8" s="2" t="inlineStr"/>
+      <c r="N8" s="2" t="inlineStr"/>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The "mental health intervention scenario" entity captures a "mental health intervention" within a specific context, level of engagement and outcomes. Mental health interventions (represented as "mental health intervention") could be delivered in different contexts and/or have different outcomes at different times. For example, we could deliver the same intervention ("mental health intervention") two years after its previous delivery or in a different context ("mental health intervention scenario"), and this could lead to different outcomes. 
+</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr"/>
+      <c r="Q8" s="2" t="inlineStr"/>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr"/>
+      <c r="T8" s="2" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000249</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">mental health intervention content
+</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>An intervention content that is part of a mental health intervention.</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>Any intervention content delivered in the context of a mental health intervention.</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr"/>
+      <c r="F9" s="2" t="inlineStr"/>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>intervention content</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr"/>
+      <c r="I9" s="2" t="inlineStr"/>
+      <c r="J9" s="2" t="inlineStr"/>
+      <c r="K9" s="2" t="inlineStr"/>
+      <c r="L9" s="2" t="inlineStr"/>
+      <c r="M9" s="2" t="inlineStr"/>
+      <c r="N9" s="2" t="inlineStr"/>
+      <c r="O9" s="2" t="inlineStr"/>
+      <c r="P9" s="2" t="inlineStr"/>
+      <c r="Q9" s="2" t="inlineStr"/>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr"/>
+      <c r="T9" s="2" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000250</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>mental health intervention scenario</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>A planned process in which a mental health intervention is applied in a given context, including intervention engagement and outcome.</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr"/>
+      <c r="E10" s="2" t="inlineStr"/>
+      <c r="F10" s="2" t="inlineStr"/>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>planned process</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr"/>
+      <c r="I10" s="2" t="inlineStr"/>
+      <c r="J10" s="2" t="inlineStr"/>
+      <c r="K10" s="2" t="inlineStr"/>
+      <c r="L10" s="2" t="inlineStr"/>
+      <c r="M10" s="2" t="inlineStr"/>
+      <c r="N10" s="2" t="inlineStr"/>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The "mental health intervention scenario" entity captures a "mental health intervention" within a specific context, level of engagement and outcomes. Mental health interventions (represented as "mental health intervention") could be delivered in different contexts and/or have different outcomes at different times. For example, we could deliver the same intervention ("mental health intervention") two years after its previous delivery or in a different context ("mental health intervention scenario"), and this could lead to different outcomes. </t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr"/>
+      <c r="Q10" s="2" t="inlineStr"/>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr"/>
+      <c r="T10" s="2" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000251</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>population history</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>A history that is of a population.</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr"/>
+      <c r="E11" s="2" t="inlineStr"/>
+      <c r="F11" s="2" t="inlineStr"/>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>history</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr"/>
+      <c r="I11" s="2" t="inlineStr"/>
+      <c r="J11" s="2" t="inlineStr"/>
+      <c r="K11" s="2" t="inlineStr"/>
+      <c r="L11" s="2" t="inlineStr"/>
+      <c r="M11" s="2" t="inlineStr"/>
+      <c r="N11" s="2" t="inlineStr"/>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>is an aggregate of personal history; experiences can be captured as 'personal history part'.</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr"/>
+      <c r="Q11" s="2" t="inlineStr"/>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr"/>
+      <c r="T11" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/UpperLevel/GMHO_Upper_Defs.xlsx
+++ b/UpperLevel/GMHO_Upper_Defs.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -537,26 +537,30 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000242</t>
+          <t>GMHO:0000252</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">intervention dose
-</t>
+          <t>context of experience</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>An intervention attribute that is its amount.</t>
+          <t>An aggregate of entities that are not dependent on the event but may influence the effect of the event on the person.</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="inlineStr"/>
-      <c r="F2" s="2" t="inlineStr"/>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BCIO:005000
+</t>
+        </is>
+      </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>intervention attribute</t>
+          <t>object aggregate</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr"/>
@@ -566,19 +570,8 @@
       <c r="L2" s="2" t="inlineStr"/>
       <c r="M2" s="2" t="inlineStr"/>
       <c r="N2" s="2" t="inlineStr"/>
-      <c r="O2" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">"Intervention dose can capture the intensity of any intervention, including social, psychological and pharmacological interventions.
-Intervention dose refers to the intensity or amount of an intervention, which is about the content of an intervention. In contrast, an intervention's schedule of delivery is about the temporal aspects of the intervention. There is some overlap between the entities ""intervention dose"" and ""intervention schedule of delivery"". For example, a more frequent intervention schedule with specific doses would suggest a higher overall dose of the intervention. However, ""intervention dose"" can capture concepts that are not directly relevant to the temporal organisation of the intervention, such as overall number of intervention strategies and drug dose."
-</t>
-        </is>
-      </c>
-      <c r="P2" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">drug dose and number of intervention techniques (e.g., action plans, social support)
-</t>
-        </is>
-      </c>
+      <c r="O2" s="2" t="inlineStr"/>
+      <c r="P2" s="2" t="inlineStr"/>
       <c r="Q2" s="2" t="inlineStr"/>
       <c r="R2" s="2" t="inlineStr">
         <is>
@@ -591,25 +584,31 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000243</t>
+          <t>GMHO:0000253</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>intervention mechanism of action</t>
+          <t xml:space="preserve">intervention context
+</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>A process that is causally active in the relationship between an intervention scenario and its intervention outcome.</t>
+          <t>An aggregate of entities that are not dependent on the intervention but may influence the effect of an intervention on its outcome.</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="inlineStr"/>
-      <c r="F3" s="2" t="inlineStr"/>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BCIO:005000
+</t>
+        </is>
+      </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>object aggregate</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr"/>
@@ -619,12 +618,7 @@
       <c r="L3" s="2" t="inlineStr"/>
       <c r="M3" s="2" t="inlineStr"/>
       <c r="N3" s="2" t="inlineStr"/>
-      <c r="O3" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">For a construct to be a mechanism of action, it has to be causally active in bringing about the influence of the intervention on its outcome. Different interventions have different mechanisms and so the subclasses of "intervention mechanism of action" are possible mechanisms of  interventions. The ontology itself does not make causal inferences for specific mechanisms of action. These inferences can be done at the annotation level, namely when there is empirical evidence to support statements about the relationships between constructs.
-</t>
-        </is>
-      </c>
+      <c r="O3" s="2" t="inlineStr"/>
       <c r="P3" s="2" t="inlineStr"/>
       <c r="Q3" s="2" t="inlineStr"/>
       <c r="R3" s="2" t="inlineStr">
@@ -638,216 +632,226 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000244</t>
+          <t>GMHO:0000242</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">intervention mode of delivery
+          <t xml:space="preserve">intervention dose
 </t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An intervention attribute that is the physical or informational medium through which an intervention is provided.
-</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr"/>
-      <c r="E4" s="2" t="inlineStr"/>
-      <c r="F4" s="2" t="inlineStr"/>
+          <t>An intervention attribute that is its amount.</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n"/>
+      <c r="E4" s="2" t="n"/>
+      <c r="F4" s="2" t="n"/>
       <c r="G4" s="2" t="inlineStr">
         <is>
           <t>intervention attribute</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr"/>
-      <c r="I4" s="2" t="inlineStr"/>
-      <c r="J4" s="2" t="inlineStr"/>
-      <c r="K4" s="2" t="inlineStr"/>
-      <c r="L4" s="2" t="inlineStr"/>
-      <c r="M4" s="2" t="inlineStr"/>
-      <c r="N4" s="2" t="inlineStr"/>
-      <c r="O4" s="2" t="inlineStr"/>
-      <c r="P4" s="2" t="inlineStr"/>
-      <c r="Q4" s="2" t="inlineStr"/>
+      <c r="H4" s="2" t="n"/>
+      <c r="I4" s="2" t="n"/>
+      <c r="J4" s="2" t="n"/>
+      <c r="K4" s="2" t="n"/>
+      <c r="L4" s="2" t="n"/>
+      <c r="M4" s="2" t="n"/>
+      <c r="N4" s="2" t="n"/>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">"Intervention dose can capture the intensity of any intervention, including social, psychological and pharmacological interventions.
+Intervention dose refers to the intensity or amount of an intervention, which is about the content of an intervention. In contrast, an intervention's schedule of delivery is about the temporal aspects of the intervention. There is some overlap between the entities ""intervention dose"" and ""intervention schedule of delivery"". For example, a more frequent intervention schedule with specific doses would suggest a higher overall dose of the intervention. However, ""intervention dose"" can capture concepts that are not directly relevant to the temporal organisation of the intervention, such as overall number of intervention strategies and drug dose."
+</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">drug dose and number of intervention techniques (e.g., action plans, social support)
+</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="n"/>
       <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="S4" s="2" t="inlineStr"/>
-      <c r="T4" s="2" t="inlineStr"/>
+      <c r="S4" s="2" t="n"/>
+      <c r="T4" s="2" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
+          <t>GMHO:0000243</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>intervention mechanism of action</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>A process that is causally active in the relationship between an intervention scenario and its intervention outcome.</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n"/>
+      <c r="E5" s="2" t="n"/>
+      <c r="F5" s="2" t="n"/>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="n"/>
+      <c r="I5" s="2" t="n"/>
+      <c r="J5" s="2" t="n"/>
+      <c r="K5" s="2" t="n"/>
+      <c r="L5" s="2" t="n"/>
+      <c r="M5" s="2" t="n"/>
+      <c r="N5" s="2" t="n"/>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">For a construct to be a mechanism of action, it has to be causally active in bringing about the influence of the intervention on its outcome. Different interventions have different mechanisms and so the subclasses of "intervention mechanism of action" are possible mechanisms of  interventions. The ontology itself does not make causal inferences for specific mechanisms of action. These inferences can be done at the annotation level, namely when there is empirical evidence to support statements about the relationships between constructs.
+</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="n"/>
+      <c r="Q5" s="2" t="n"/>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="n"/>
+      <c r="T5" s="2" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000244</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">intervention mode of delivery
+</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">An intervention attribute that is the physical or informational medium through which an intervention is provided.
+</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n"/>
+      <c r="E6" s="2" t="n"/>
+      <c r="F6" s="2" t="n"/>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>intervention attribute</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="n"/>
+      <c r="I6" s="2" t="n"/>
+      <c r="J6" s="2" t="n"/>
+      <c r="K6" s="2" t="n"/>
+      <c r="L6" s="2" t="n"/>
+      <c r="M6" s="2" t="n"/>
+      <c r="N6" s="2" t="n"/>
+      <c r="O6" s="2" t="n"/>
+      <c r="P6" s="2" t="n"/>
+      <c r="Q6" s="2" t="n"/>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="n"/>
+      <c r="T6" s="2" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
           <t>GMHO:0000245</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">intervention schedule of delivery
 </t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C7" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">An intervention attribute that involves its temporal organisation.
 </t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr"/>
-      <c r="E5" s="2" t="inlineStr"/>
-      <c r="F5" s="2" t="inlineStr"/>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="D7" s="2" t="n"/>
+      <c r="E7" s="2" t="n"/>
+      <c r="F7" s="2" t="n"/>
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>intervention attribute</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr"/>
-      <c r="I5" s="2" t="inlineStr"/>
-      <c r="J5" s="2" t="inlineStr"/>
-      <c r="K5" s="2" t="inlineStr"/>
-      <c r="L5" s="2" t="inlineStr"/>
-      <c r="M5" s="2" t="inlineStr"/>
-      <c r="N5" s="2" t="inlineStr"/>
-      <c r="O5" s="2" t="inlineStr">
+      <c r="H7" s="2" t="n"/>
+      <c r="I7" s="2" t="n"/>
+      <c r="J7" s="2" t="n"/>
+      <c r="K7" s="2" t="n"/>
+      <c r="L7" s="2" t="n"/>
+      <c r="M7" s="2" t="n"/>
+      <c r="N7" s="2" t="n"/>
+      <c r="O7" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">"Temporal organisation includes different temporal dimensions, such as timing, frequency, duration and the sequence of activities.
 Intervention dose refers to the intensity or amount of an intervention, which is about the content of an intervention. In contrast, an intervention's schedule of delivery is about the temporal aspects of the intervention. There is some overlap between the entities ""intervention dose"" and ""intervention schedule of delivery"". For example, a more frequent intervention schedule with specific doses would suggest a higher overall dose of the intervention. However, ""intervention dose"" can capture concepts that are not directly relevant to the temporal organisation of the intervention, such as overall number of intervention strategies and drug dose."
 </t>
         </is>
       </c>
-      <c r="P5" s="2" t="inlineStr"/>
-      <c r="Q5" s="2" t="inlineStr"/>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S5" s="2" t="inlineStr"/>
-      <c r="T5" s="2" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000246</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">intervention source
-</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A role played by a person, population or organisation that provides an intervention.
-</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr"/>
-      <c r="E6" s="2" t="inlineStr"/>
-      <c r="F6" s="2" t="inlineStr"/>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>role</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr"/>
-      <c r="I6" s="2" t="inlineStr"/>
-      <c r="J6" s="2" t="inlineStr"/>
-      <c r="K6" s="2" t="inlineStr"/>
-      <c r="L6" s="2" t="inlineStr"/>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">intervention provider
-</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr"/>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The entity “intervention source” has been defined to include a person, population or organisation, as these sources can be legally accountable for an intervention. A computer program or machine cannot be held accountable in the same way. Therefore, the organisation or people that provide the computer program or machine would be considered the intervention source, where relevant. When an intervention is delivered via a computer program (e.g., an app), this can be captured in the ontology through the relevant subclasses of "intervention mode of delivery".
-</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr"/>
-      <c r="Q6" s="2" t="inlineStr"/>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S6" s="2" t="inlineStr"/>
-      <c r="T6" s="2" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000247</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>intervention technique</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>A planned process that is the smallest part of an intervention that is observable, replicable and on its own has the potential to influence an intervention outcome.</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr"/>
-      <c r="E7" s="2" t="inlineStr"/>
-      <c r="F7" s="2" t="inlineStr"/>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>planned process</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr"/>
-      <c r="I7" s="2" t="inlineStr"/>
-      <c r="J7" s="2" t="inlineStr"/>
-      <c r="K7" s="2" t="inlineStr"/>
-      <c r="L7" s="2" t="inlineStr"/>
-      <c r="M7" s="2" t="inlineStr"/>
-      <c r="N7" s="2" t="inlineStr"/>
-      <c r="O7" s="2" t="inlineStr"/>
-      <c r="P7" s="2" t="inlineStr"/>
-      <c r="Q7" s="2" t="inlineStr"/>
+      <c r="P7" s="2" t="n"/>
+      <c r="Q7" s="2" t="n"/>
       <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="S7" s="2" t="inlineStr"/>
-      <c r="T7" s="2" t="inlineStr"/>
+      <c r="S7" s="2" t="n"/>
+      <c r="T7" s="2" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000248</t>
+          <t>GMHO:0000169</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">mental health intervention
+          <t xml:space="preserve">intervention setting
 </t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>An intervention that has the aim of influencing some aspect of mental health.</t>
+          <t>An aggregate of entities that form the environment in which an intervention is provided.</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr"/>
       <c r="E8" s="2" t="inlineStr"/>
-      <c r="F8" s="2" t="inlineStr"/>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BCIO:005000
+</t>
+        </is>
+      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>intervention</t>
+          <t>object aggregate</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr"/>
@@ -857,12 +861,7 @@
       <c r="L8" s="2" t="inlineStr"/>
       <c r="M8" s="2" t="inlineStr"/>
       <c r="N8" s="2" t="inlineStr"/>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The "mental health intervention scenario" entity captures a "mental health intervention" within a specific context, level of engagement and outcomes. Mental health interventions (represented as "mental health intervention") could be delivered in different contexts and/or have different outcomes at different times. For example, we could deliver the same intervention ("mental health intervention") two years after its previous delivery or in a different context ("mental health intervention scenario"), and this could lead to different outcomes. 
-</t>
-        </is>
-      </c>
+      <c r="O8" s="2" t="inlineStr"/>
       <c r="P8" s="2" t="inlineStr"/>
       <c r="Q8" s="2" t="inlineStr"/>
       <c r="R8" s="2" t="inlineStr">
@@ -876,118 +875,126 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000249</t>
+          <t>GMHO:0000246</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">mental health intervention content
+          <t xml:space="preserve">intervention source
 </t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>An intervention content that is part of a mental health intervention.</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>Any intervention content delivered in the context of a mental health intervention.</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr"/>
-      <c r="F9" s="2" t="inlineStr"/>
+          <t xml:space="preserve">A role played by a person, population or organisation that provides an intervention.
+</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n"/>
+      <c r="E9" s="2" t="n"/>
+      <c r="F9" s="2" t="n"/>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>intervention content</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr"/>
-      <c r="I9" s="2" t="inlineStr"/>
-      <c r="J9" s="2" t="inlineStr"/>
-      <c r="K9" s="2" t="inlineStr"/>
-      <c r="L9" s="2" t="inlineStr"/>
-      <c r="M9" s="2" t="inlineStr"/>
-      <c r="N9" s="2" t="inlineStr"/>
-      <c r="O9" s="2" t="inlineStr"/>
-      <c r="P9" s="2" t="inlineStr"/>
-      <c r="Q9" s="2" t="inlineStr"/>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="n"/>
+      <c r="I9" s="2" t="n"/>
+      <c r="J9" s="2" t="n"/>
+      <c r="K9" s="2" t="n"/>
+      <c r="L9" s="2" t="n"/>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">intervention provider
+</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="n"/>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The entity “intervention source” has been defined to include a person, population or organisation, as these sources can be legally accountable for an intervention. A computer program or machine cannot be held accountable in the same way. Therefore, the organisation or people that provide the computer program or machine would be considered the intervention source, where relevant. When an intervention is delivered via a computer program (e.g., an app), this can be captured in the ontology through the relevant subclasses of "intervention mode of delivery".
+</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="n"/>
+      <c r="Q9" s="2" t="n"/>
       <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="S9" s="2" t="inlineStr"/>
-      <c r="T9" s="2" t="inlineStr"/>
+      <c r="S9" s="2" t="n"/>
+      <c r="T9" s="2" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000250</t>
+          <t>GMHO:0000247</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>mental health intervention scenario</t>
+          <t>intervention technique</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>A planned process in which a mental health intervention is applied in a given context, including intervention engagement and outcome.</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr"/>
-      <c r="E10" s="2" t="inlineStr"/>
-      <c r="F10" s="2" t="inlineStr"/>
+          <t>A planned process that is the smallest part of an intervention that is observable, replicable and on its own has the potential to influence an intervention outcome.</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n"/>
+      <c r="E10" s="2" t="n"/>
+      <c r="F10" s="2" t="n"/>
       <c r="G10" s="2" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr"/>
-      <c r="I10" s="2" t="inlineStr"/>
-      <c r="J10" s="2" t="inlineStr"/>
-      <c r="K10" s="2" t="inlineStr"/>
-      <c r="L10" s="2" t="inlineStr"/>
-      <c r="M10" s="2" t="inlineStr"/>
-      <c r="N10" s="2" t="inlineStr"/>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The "mental health intervention scenario" entity captures a "mental health intervention" within a specific context, level of engagement and outcomes. Mental health interventions (represented as "mental health intervention") could be delivered in different contexts and/or have different outcomes at different times. For example, we could deliver the same intervention ("mental health intervention") two years after its previous delivery or in a different context ("mental health intervention scenario"), and this could lead to different outcomes. </t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr"/>
-      <c r="Q10" s="2" t="inlineStr"/>
+      <c r="H10" s="2" t="n"/>
+      <c r="I10" s="2" t="n"/>
+      <c r="J10" s="2" t="n"/>
+      <c r="K10" s="2" t="n"/>
+      <c r="L10" s="2" t="n"/>
+      <c r="M10" s="2" t="n"/>
+      <c r="N10" s="2" t="n"/>
+      <c r="O10" s="2" t="n"/>
+      <c r="P10" s="2" t="n"/>
+      <c r="Q10" s="2" t="n"/>
       <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="S10" s="2" t="inlineStr"/>
-      <c r="T10" s="2" t="inlineStr"/>
+      <c r="S10" s="2" t="n"/>
+      <c r="T10" s="2" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000251</t>
+          <t>GMHO:0000254</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>population history</t>
+          <t>intervention temporal context</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>A history that is of a population.</t>
+          <t>The aggregate of processes taking place at the same time as an intervention.</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr"/>
       <c r="E11" s="2" t="inlineStr"/>
-      <c r="F11" s="2" t="inlineStr"/>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BCIO:047000
+</t>
+        </is>
+      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>history</t>
+          <t>process</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr"/>
@@ -997,11 +1004,7 @@
       <c r="L11" s="2" t="inlineStr"/>
       <c r="M11" s="2" t="inlineStr"/>
       <c r="N11" s="2" t="inlineStr"/>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>is an aggregate of personal history; experiences can be captured as 'personal history part'.</t>
-        </is>
-      </c>
+      <c r="O11" s="2" t="inlineStr"/>
       <c r="P11" s="2" t="inlineStr"/>
       <c r="Q11" s="2" t="inlineStr"/>
       <c r="R11" s="2" t="inlineStr">
@@ -1011,6 +1014,193 @@
       </c>
       <c r="S11" s="2" t="inlineStr"/>
       <c r="T11" s="2" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000248</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">mental health intervention
+</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>An intervention that has the aim of influencing some aspect of mental health.</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n"/>
+      <c r="E12" s="2" t="n"/>
+      <c r="F12" s="2" t="n"/>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>intervention</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="n"/>
+      <c r="I12" s="2" t="n"/>
+      <c r="J12" s="2" t="n"/>
+      <c r="K12" s="2" t="n"/>
+      <c r="L12" s="2" t="n"/>
+      <c r="M12" s="2" t="n"/>
+      <c r="N12" s="2" t="n"/>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The "mental health intervention scenario" entity captures a "mental health intervention" within a specific context, level of engagement and outcomes. Mental health interventions (represented as "mental health intervention") could be delivered in different contexts and/or have different outcomes at different times. For example, we could deliver the same intervention ("mental health intervention") two years after its previous delivery or in a different context ("mental health intervention scenario"), and this could lead to different outcomes. 
+</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="n"/>
+      <c r="Q12" s="2" t="n"/>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="n"/>
+      <c r="T12" s="2" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000249</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">mental health intervention content
+</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>An intervention content that is part of a mental health intervention.</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>Any intervention content delivered in the context of a mental health intervention.</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="n"/>
+      <c r="F13" s="2" t="n"/>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>intervention content</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="n"/>
+      <c r="I13" s="2" t="n"/>
+      <c r="J13" s="2" t="n"/>
+      <c r="K13" s="2" t="n"/>
+      <c r="L13" s="2" t="n"/>
+      <c r="M13" s="2" t="n"/>
+      <c r="N13" s="2" t="n"/>
+      <c r="O13" s="2" t="n"/>
+      <c r="P13" s="2" t="n"/>
+      <c r="Q13" s="2" t="n"/>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="n"/>
+      <c r="T13" s="2" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000250</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>mental health intervention scenario</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>A planned process in which a mental health intervention is applied in a given context, including intervention engagement and outcome.</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n"/>
+      <c r="E14" s="2" t="n"/>
+      <c r="F14" s="2" t="n"/>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>planned process</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="n"/>
+      <c r="I14" s="2" t="n"/>
+      <c r="J14" s="2" t="n"/>
+      <c r="K14" s="2" t="n"/>
+      <c r="L14" s="2" t="n"/>
+      <c r="M14" s="2" t="n"/>
+      <c r="N14" s="2" t="n"/>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The "mental health intervention scenario" entity captures a "mental health intervention" within a specific context, level of engagement and outcomes. Mental health interventions (represented as "mental health intervention") could be delivered in different contexts and/or have different outcomes at different times. For example, we could deliver the same intervention ("mental health intervention") two years after its previous delivery or in a different context ("mental health intervention scenario"), and this could lead to different outcomes. </t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="n"/>
+      <c r="Q14" s="2" t="n"/>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="n"/>
+      <c r="T14" s="2" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000251</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>population history</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>A history that is of a population.</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n"/>
+      <c r="E15" s="2" t="n"/>
+      <c r="F15" s="2" t="n"/>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>history</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="n"/>
+      <c r="I15" s="2" t="n"/>
+      <c r="J15" s="2" t="n"/>
+      <c r="K15" s="2" t="n"/>
+      <c r="L15" s="2" t="n"/>
+      <c r="M15" s="2" t="n"/>
+      <c r="N15" s="2" t="n"/>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>is an aggregate of personal history; experiences can be captured as 'personal history part'.</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="n"/>
+      <c r="Q15" s="2" t="n"/>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="n"/>
+      <c r="T15" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/UpperLevel/GMHO_Upper_Defs.xlsx
+++ b/UpperLevel/GMHO_Upper_Defs.xlsx
@@ -460,77 +460,77 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Parent</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Synonyms</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>BFO entity</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Examples</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>REL 'has process part'</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>REL 'realises'</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Sub-ontology</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>Definition source</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Parent</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>BFO entity</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Sub-ontology</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>REL 'has process part'</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>REL 'realises'</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Curator note</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Examples</t>
-        </is>
-      </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>Curation status</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>To be reviewed by</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Reviewer query</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>Curator</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Curation status</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>To be reviewed by</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Reviewer query</t>
         </is>
       </c>
     </row>
@@ -550,36 +550,36 @@
           <t>An aggregate of entities that are not dependent on the event but may influence the effect of the event on the person.</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr"/>
-      <c r="E2" s="2" t="inlineStr"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
       <c r="F2" s="2" t="inlineStr">
         <is>
+          <t>object aggregate</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="2" t="n"/>
+      <c r="N2" s="2" t="inlineStr">
+        <is>
           <t xml:space="preserve">BCIO:005000
 </t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>object aggregate</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr"/>
-      <c r="I2" s="2" t="inlineStr"/>
-      <c r="J2" s="2" t="inlineStr"/>
-      <c r="K2" s="2" t="inlineStr"/>
-      <c r="L2" s="2" t="inlineStr"/>
-      <c r="M2" s="2" t="inlineStr"/>
-      <c r="N2" s="2" t="inlineStr"/>
-      <c r="O2" s="2" t="inlineStr"/>
-      <c r="P2" s="2" t="inlineStr"/>
-      <c r="Q2" s="2" t="inlineStr"/>
-      <c r="R2" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S2" s="2" t="inlineStr"/>
-      <c r="T2" s="2" t="inlineStr"/>
+      <c r="O2" s="2" t="n"/>
+      <c r="P2" s="2" t="n"/>
+      <c r="Q2" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R2" s="2" t="n"/>
+      <c r="S2" s="2" t="n"/>
+      <c r="T2" s="2" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -598,36 +598,36 @@
           <t>An aggregate of entities that are not dependent on the intervention but may influence the effect of an intervention on its outcome.</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr"/>
-      <c r="E3" s="2" t="inlineStr"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="inlineStr">
         <is>
+          <t>object aggregate</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="inlineStr">
+        <is>
           <t xml:space="preserve">BCIO:005000
 </t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
-        <is>
-          <t>object aggregate</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="inlineStr"/>
-      <c r="I3" s="2" t="inlineStr"/>
-      <c r="J3" s="2" t="inlineStr"/>
-      <c r="K3" s="2" t="inlineStr"/>
-      <c r="L3" s="2" t="inlineStr"/>
-      <c r="M3" s="2" t="inlineStr"/>
-      <c r="N3" s="2" t="inlineStr"/>
-      <c r="O3" s="2" t="inlineStr"/>
-      <c r="P3" s="2" t="inlineStr"/>
-      <c r="Q3" s="2" t="inlineStr"/>
-      <c r="R3" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S3" s="2" t="inlineStr"/>
-      <c r="T3" s="2" t="inlineStr"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -648,45 +648,45 @@
       </c>
       <c r="D4" s="2" t="n"/>
       <c r="E4" s="2" t="n"/>
-      <c r="F4" s="2" t="n"/>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>intervention attribute</t>
         </is>
       </c>
+      <c r="G4" s="2" t="n"/>
       <c r="H4" s="2" t="n"/>
-      <c r="I4" s="2" t="n"/>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">drug dose and number of intervention techniques (e.g., action plans, social support)
+</t>
+        </is>
+      </c>
       <c r="J4" s="2" t="n"/>
       <c r="K4" s="2" t="n"/>
-      <c r="L4" s="2" t="n"/>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">"Intervention dose can capture the intensity of any intervention, including social, psychological and pharmacological interventions.
+Intervention dose refers to the intensity or amount of an intervention, which is about the content of an intervention. In contrast, an intervention's schedule of delivery is about the temporal aspects of the intervention. There is some overlap between the entities ""intervention dose"" and ""intervention schedule of delivery"". For example, a more frequent intervention schedule with specific doses would suggest a higher overall dose of the intervention. However, ""intervention dose"" can capture concepts that are not directly relevant to the temporal organisation of the intervention, such as overall number of intervention strategies and drug dose."
+</t>
+        </is>
+      </c>
       <c r="M4" s="2" t="n"/>
       <c r="N4" s="2" t="n"/>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">"Intervention dose can capture the intensity of any intervention, including social, psychological and pharmacological interventions.
-Intervention dose refers to the intensity or amount of an intervention, which is about the content of an intervention. In contrast, an intervention's schedule of delivery is about the temporal aspects of the intervention. There is some overlap between the entities ""intervention dose"" and ""intervention schedule of delivery"". For example, a more frequent intervention schedule with specific doses would suggest a higher overall dose of the intervention. However, ""intervention dose"" can capture concepts that are not directly relevant to the temporal organisation of the intervention, such as overall number of intervention strategies and drug dose."
-</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">drug dose and number of intervention techniques (e.g., action plans, social support)
-</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="n"/>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
+      <c r="O4" s="2" t="n"/>
+      <c r="P4" s="2" t="n"/>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="n"/>
       <c r="S4" s="2" t="n"/>
       <c r="T4" s="2" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000243</t>
+          <t>GMHO:0000199</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -701,32 +701,32 @@
       </c>
       <c r="D5" s="2" t="n"/>
       <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="n"/>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
+      <c r="G5" s="2" t="n"/>
       <c r="H5" s="2" t="n"/>
       <c r="I5" s="2" t="n"/>
       <c r="J5" s="2" t="n"/>
       <c r="K5" s="2" t="n"/>
-      <c r="L5" s="2" t="n"/>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">For a construct to be a mechanism of action, it has to be causally active in bringing about the influence of the intervention on its outcome. Different interventions have different mechanisms and so the subclasses of "intervention mechanism of action" are possible mechanisms of  interventions. The ontology itself does not make causal inferences for specific mechanisms of action. These inferences can be done at the annotation level, namely when there is empirical evidence to support statements about the relationships between constructs.
+</t>
+        </is>
+      </c>
       <c r="M5" s="2" t="n"/>
       <c r="N5" s="2" t="n"/>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">For a construct to be a mechanism of action, it has to be causally active in bringing about the influence of the intervention on its outcome. Different interventions have different mechanisms and so the subclasses of "intervention mechanism of action" are possible mechanisms of  interventions. The ontology itself does not make causal inferences for specific mechanisms of action. These inferences can be done at the annotation level, namely when there is empirical evidence to support statements about the relationships between constructs.
-</t>
-        </is>
-      </c>
+      <c r="O5" s="2" t="n"/>
       <c r="P5" s="2" t="n"/>
-      <c r="Q5" s="2" t="n"/>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="n"/>
       <c r="S5" s="2" t="n"/>
       <c r="T5" s="2" t="n"/>
     </row>
@@ -750,12 +750,12 @@
       </c>
       <c r="D6" s="2" t="n"/>
       <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>intervention attribute</t>
         </is>
       </c>
+      <c r="G6" s="2" t="n"/>
       <c r="H6" s="2" t="n"/>
       <c r="I6" s="2" t="n"/>
       <c r="J6" s="2" t="n"/>
@@ -765,12 +765,12 @@
       <c r="N6" s="2" t="n"/>
       <c r="O6" s="2" t="n"/>
       <c r="P6" s="2" t="n"/>
-      <c r="Q6" s="2" t="n"/>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="n"/>
       <c r="S6" s="2" t="n"/>
       <c r="T6" s="2" t="n"/>
     </row>
@@ -794,33 +794,33 @@
       </c>
       <c r="D7" s="2" t="n"/>
       <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>intervention attribute</t>
         </is>
       </c>
+      <c r="G7" s="2" t="n"/>
       <c r="H7" s="2" t="n"/>
       <c r="I7" s="2" t="n"/>
       <c r="J7" s="2" t="n"/>
       <c r="K7" s="2" t="n"/>
-      <c r="L7" s="2" t="n"/>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">"Temporal organisation includes different temporal dimensions, such as timing, frequency, duration and the sequence of activities.
+Intervention dose refers to the intensity or amount of an intervention, which is about the content of an intervention. In contrast, an intervention's schedule of delivery is about the temporal aspects of the intervention. There is some overlap between the entities ""intervention dose"" and ""intervention schedule of delivery"". For example, a more frequent intervention schedule with specific doses would suggest a higher overall dose of the intervention. However, ""intervention dose"" can capture concepts that are not directly relevant to the temporal organisation of the intervention, such as overall number of intervention strategies and drug dose."
+</t>
+        </is>
+      </c>
       <c r="M7" s="2" t="n"/>
       <c r="N7" s="2" t="n"/>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">"Temporal organisation includes different temporal dimensions, such as timing, frequency, duration and the sequence of activities.
-Intervention dose refers to the intensity or amount of an intervention, which is about the content of an intervention. In contrast, an intervention's schedule of delivery is about the temporal aspects of the intervention. There is some overlap between the entities ""intervention dose"" and ""intervention schedule of delivery"". For example, a more frequent intervention schedule with specific doses would suggest a higher overall dose of the intervention. However, ""intervention dose"" can capture concepts that are not directly relevant to the temporal organisation of the intervention, such as overall number of intervention strategies and drug dose."
-</t>
-        </is>
-      </c>
+      <c r="O7" s="2" t="n"/>
       <c r="P7" s="2" t="n"/>
-      <c r="Q7" s="2" t="n"/>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="n"/>
       <c r="S7" s="2" t="n"/>
       <c r="T7" s="2" t="n"/>
     </row>
@@ -841,36 +841,36 @@
           <t>An aggregate of entities that form the environment in which an intervention is provided.</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr"/>
-      <c r="E8" s="2" t="inlineStr"/>
+      <c r="D8" s="2" t="n"/>
+      <c r="E8" s="2" t="n"/>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>object aggregate</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="n"/>
+      <c r="H8" s="2" t="n"/>
+      <c r="I8" s="2" t="n"/>
+      <c r="J8" s="2" t="n"/>
+      <c r="K8" s="2" t="n"/>
+      <c r="L8" s="2" t="n"/>
+      <c r="M8" s="2" t="n"/>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t xml:space="preserve">BCIO:005000
 </t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>object aggregate</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr"/>
-      <c r="I8" s="2" t="inlineStr"/>
-      <c r="J8" s="2" t="inlineStr"/>
-      <c r="K8" s="2" t="inlineStr"/>
-      <c r="L8" s="2" t="inlineStr"/>
-      <c r="M8" s="2" t="inlineStr"/>
-      <c r="N8" s="2" t="inlineStr"/>
-      <c r="O8" s="2" t="inlineStr"/>
-      <c r="P8" s="2" t="inlineStr"/>
-      <c r="Q8" s="2" t="inlineStr"/>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S8" s="2" t="inlineStr"/>
-      <c r="T8" s="2" t="inlineStr"/>
+      <c r="O8" s="2" t="n"/>
+      <c r="P8" s="2" t="n"/>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="n"/>
+      <c r="S8" s="2" t="n"/>
+      <c r="T8" s="2" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -892,37 +892,37 @@
       </c>
       <c r="D9" s="2" t="n"/>
       <c r="E9" s="2" t="n"/>
-      <c r="F9" s="2" t="n"/>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>role</t>
+          <t xml:space="preserve">intervention provider
+</t>
         </is>
       </c>
       <c r="H9" s="2" t="n"/>
       <c r="I9" s="2" t="n"/>
       <c r="J9" s="2" t="n"/>
       <c r="K9" s="2" t="n"/>
-      <c r="L9" s="2" t="n"/>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">intervention provider
-</t>
-        </is>
-      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The entity “intervention source” has been defined to include a person, population or organisation, as these sources can be legally accountable for an intervention. A computer program or machine cannot be held accountable in the same way. Therefore, the organisation or people that provide the computer program or machine would be considered the intervention source, where relevant. When an intervention is delivered via a computer program (e.g., an app), this can be captured in the ontology through the relevant subclasses of "intervention mode of delivery".
+</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="n"/>
       <c r="N9" s="2" t="n"/>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The entity “intervention source” has been defined to include a person, population or organisation, as these sources can be legally accountable for an intervention. A computer program or machine cannot be held accountable in the same way. Therefore, the organisation or people that provide the computer program or machine would be considered the intervention source, where relevant. When an intervention is delivered via a computer program (e.g., an app), this can be captured in the ontology through the relevant subclasses of "intervention mode of delivery".
-</t>
-        </is>
-      </c>
+      <c r="O9" s="2" t="n"/>
       <c r="P9" s="2" t="n"/>
-      <c r="Q9" s="2" t="n"/>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="n"/>
       <c r="S9" s="2" t="n"/>
       <c r="T9" s="2" t="n"/>
     </row>
@@ -944,12 +944,12 @@
       </c>
       <c r="D10" s="2" t="n"/>
       <c r="E10" s="2" t="n"/>
-      <c r="F10" s="2" t="n"/>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
+      <c r="G10" s="2" t="n"/>
       <c r="H10" s="2" t="n"/>
       <c r="I10" s="2" t="n"/>
       <c r="J10" s="2" t="n"/>
@@ -959,12 +959,12 @@
       <c r="N10" s="2" t="n"/>
       <c r="O10" s="2" t="n"/>
       <c r="P10" s="2" t="n"/>
-      <c r="Q10" s="2" t="n"/>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="n"/>
       <c r="S10" s="2" t="n"/>
       <c r="T10" s="2" t="n"/>
     </row>
@@ -984,36 +984,36 @@
           <t>The aggregate of processes taking place at the same time as an intervention.</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr"/>
-      <c r="E11" s="2" t="inlineStr"/>
+      <c r="D11" s="2" t="n"/>
+      <c r="E11" s="2" t="n"/>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="n"/>
+      <c r="H11" s="2" t="n"/>
+      <c r="I11" s="2" t="n"/>
+      <c r="J11" s="2" t="n"/>
+      <c r="K11" s="2" t="n"/>
+      <c r="L11" s="2" t="n"/>
+      <c r="M11" s="2" t="n"/>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t xml:space="preserve">BCIO:047000
 </t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr"/>
-      <c r="I11" s="2" t="inlineStr"/>
-      <c r="J11" s="2" t="inlineStr"/>
-      <c r="K11" s="2" t="inlineStr"/>
-      <c r="L11" s="2" t="inlineStr"/>
-      <c r="M11" s="2" t="inlineStr"/>
-      <c r="N11" s="2" t="inlineStr"/>
-      <c r="O11" s="2" t="inlineStr"/>
-      <c r="P11" s="2" t="inlineStr"/>
-      <c r="Q11" s="2" t="inlineStr"/>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S11" s="2" t="inlineStr"/>
-      <c r="T11" s="2" t="inlineStr"/>
+      <c r="O11" s="2" t="n"/>
+      <c r="P11" s="2" t="n"/>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="n"/>
+      <c r="S11" s="2" t="n"/>
+      <c r="T11" s="2" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
@@ -1034,32 +1034,32 @@
       </c>
       <c r="D12" s="2" t="n"/>
       <c r="E12" s="2" t="n"/>
-      <c r="F12" s="2" t="n"/>
-      <c r="G12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>intervention</t>
         </is>
       </c>
+      <c r="G12" s="2" t="n"/>
       <c r="H12" s="2" t="n"/>
       <c r="I12" s="2" t="n"/>
       <c r="J12" s="2" t="n"/>
       <c r="K12" s="2" t="n"/>
-      <c r="L12" s="2" t="n"/>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The "mental health intervention scenario" entity captures a "mental health intervention" within a specific context, level of engagement and outcomes. Mental health interventions (represented as "mental health intervention") could be delivered in different contexts and/or have different outcomes at different times. For example, we could deliver the same intervention ("mental health intervention") two years after its previous delivery or in a different context ("mental health intervention scenario"), and this could lead to different outcomes. 
+</t>
+        </is>
+      </c>
       <c r="M12" s="2" t="n"/>
       <c r="N12" s="2" t="n"/>
-      <c r="O12" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The "mental health intervention scenario" entity captures a "mental health intervention" within a specific context, level of engagement and outcomes. Mental health interventions (represented as "mental health intervention") could be delivered in different contexts and/or have different outcomes at different times. For example, we could deliver the same intervention ("mental health intervention") two years after its previous delivery or in a different context ("mental health intervention scenario"), and this could lead to different outcomes. 
-</t>
-        </is>
-      </c>
+      <c r="O12" s="2" t="n"/>
       <c r="P12" s="2" t="n"/>
-      <c r="Q12" s="2" t="n"/>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="n"/>
       <c r="S12" s="2" t="n"/>
       <c r="T12" s="2" t="n"/>
     </row>
@@ -1086,12 +1086,12 @@
         </is>
       </c>
       <c r="E13" s="2" t="n"/>
-      <c r="F13" s="2" t="n"/>
-      <c r="G13" s="2" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>intervention content</t>
         </is>
       </c>
+      <c r="G13" s="2" t="n"/>
       <c r="H13" s="2" t="n"/>
       <c r="I13" s="2" t="n"/>
       <c r="J13" s="2" t="n"/>
@@ -1101,12 +1101,12 @@
       <c r="N13" s="2" t="n"/>
       <c r="O13" s="2" t="n"/>
       <c r="P13" s="2" t="n"/>
-      <c r="Q13" s="2" t="n"/>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="n"/>
       <c r="S13" s="2" t="n"/>
       <c r="T13" s="2" t="n"/>
     </row>
@@ -1128,31 +1128,31 @@
       </c>
       <c r="D14" s="2" t="n"/>
       <c r="E14" s="2" t="n"/>
-      <c r="F14" s="2" t="n"/>
-      <c r="G14" s="2" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
+      <c r="G14" s="2" t="n"/>
       <c r="H14" s="2" t="n"/>
       <c r="I14" s="2" t="n"/>
       <c r="J14" s="2" t="n"/>
       <c r="K14" s="2" t="n"/>
-      <c r="L14" s="2" t="n"/>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The "mental health intervention scenario" entity captures a "mental health intervention" within a specific context, level of engagement and outcomes. Mental health interventions (represented as "mental health intervention") could be delivered in different contexts and/or have different outcomes at different times. For example, we could deliver the same intervention ("mental health intervention") two years after its previous delivery or in a different context ("mental health intervention scenario"), and this could lead to different outcomes. </t>
+        </is>
+      </c>
       <c r="M14" s="2" t="n"/>
       <c r="N14" s="2" t="n"/>
-      <c r="O14" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The "mental health intervention scenario" entity captures a "mental health intervention" within a specific context, level of engagement and outcomes. Mental health interventions (represented as "mental health intervention") could be delivered in different contexts and/or have different outcomes at different times. For example, we could deliver the same intervention ("mental health intervention") two years after its previous delivery or in a different context ("mental health intervention scenario"), and this could lead to different outcomes. </t>
-        </is>
-      </c>
+      <c r="O14" s="2" t="n"/>
       <c r="P14" s="2" t="n"/>
-      <c r="Q14" s="2" t="n"/>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="n"/>
       <c r="S14" s="2" t="n"/>
       <c r="T14" s="2" t="n"/>
     </row>
@@ -1174,31 +1174,31 @@
       </c>
       <c r="D15" s="2" t="n"/>
       <c r="E15" s="2" t="n"/>
-      <c r="F15" s="2" t="n"/>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
         <is>
           <t>history</t>
         </is>
       </c>
+      <c r="G15" s="2" t="n"/>
       <c r="H15" s="2" t="n"/>
       <c r="I15" s="2" t="n"/>
       <c r="J15" s="2" t="n"/>
       <c r="K15" s="2" t="n"/>
-      <c r="L15" s="2" t="n"/>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>is an aggregate of personal history; experiences can be captured as 'personal history part'.</t>
+        </is>
+      </c>
       <c r="M15" s="2" t="n"/>
       <c r="N15" s="2" t="n"/>
-      <c r="O15" s="2" t="inlineStr">
-        <is>
-          <t>is an aggregate of personal history; experiences can be captured as 'personal history part'.</t>
-        </is>
-      </c>
+      <c r="O15" s="2" t="n"/>
       <c r="P15" s="2" t="n"/>
-      <c r="Q15" s="2" t="n"/>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="n"/>
       <c r="S15" s="2" t="n"/>
       <c r="T15" s="2" t="n"/>
     </row>

--- a/UpperLevel/GMHO_Upper_Defs.xlsx
+++ b/UpperLevel/GMHO_Upper_Defs.xlsx
@@ -1066,7 +1066,7 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000249</t>
+          <t>GMHO:0000241</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">

--- a/UpperLevel/GMHO_Upper_Defs.xlsx
+++ b/UpperLevel/GMHO_Upper_Defs.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1159,48 +1159,98 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
+          <t>GMHO:0000260</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>mental health intervention scenario plan</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>A plan that is realized in a mental health intervention scenario process.</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr"/>
+      <c r="E15" s="2" t="inlineStr"/>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr"/>
+      <c r="H15" s="2" t="inlineStr"/>
+      <c r="I15" s="2" t="inlineStr"/>
+      <c r="J15" s="2" t="inlineStr"/>
+      <c r="K15" s="2" t="inlineStr"/>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>This entity is intended to represent the planned content or delivery of an intervention, whereas the entity "mental health intervention scenario" refers to the intervention as it was actually implemented. Distinguishing between these two entities allows for the assessment of intervention fidelity.</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr"/>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:028000</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr"/>
+      <c r="P15" s="2" t="inlineStr"/>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr"/>
+      <c r="S15" s="2" t="inlineStr"/>
+      <c r="T15" s="2" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
           <t>GMHO:0000251</t>
         </is>
       </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>population history</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
         <is>
           <t>A history that is of a population.</t>
         </is>
       </c>
-      <c r="D15" s="2" t="n"/>
-      <c r="E15" s="2" t="n"/>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="D16" s="2" t="n"/>
+      <c r="E16" s="2" t="n"/>
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>history</t>
         </is>
       </c>
-      <c r="G15" s="2" t="n"/>
-      <c r="H15" s="2" t="n"/>
-      <c r="I15" s="2" t="n"/>
-      <c r="J15" s="2" t="n"/>
-      <c r="K15" s="2" t="n"/>
-      <c r="L15" s="2" t="inlineStr">
+      <c r="G16" s="2" t="n"/>
+      <c r="H16" s="2" t="n"/>
+      <c r="I16" s="2" t="n"/>
+      <c r="J16" s="2" t="n"/>
+      <c r="K16" s="2" t="n"/>
+      <c r="L16" s="2" t="inlineStr">
         <is>
           <t>is an aggregate of personal history; experiences can be captured as 'personal history part'.</t>
         </is>
       </c>
-      <c r="M15" s="2" t="n"/>
-      <c r="N15" s="2" t="n"/>
-      <c r="O15" s="2" t="n"/>
-      <c r="P15" s="2" t="n"/>
-      <c r="Q15" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R15" s="2" t="n"/>
-      <c r="S15" s="2" t="n"/>
-      <c r="T15" s="2" t="n"/>
+      <c r="M16" s="2" t="n"/>
+      <c r="N16" s="2" t="n"/>
+      <c r="O16" s="2" t="n"/>
+      <c r="P16" s="2" t="n"/>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="n"/>
+      <c r="S16" s="2" t="n"/>
+      <c r="T16" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/UpperLevel/GMHO_Upper_Defs.xlsx
+++ b/UpperLevel/GMHO_Upper_Defs.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U16"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1276,6 +1276,53 @@
       <c r="T16" s="2" t="n"/>
       <c r="U16" s="2" t="n"/>
     </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000268</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>research study</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>A planned process that executes some study design or protocol to generate scientific data that is interpreted to test or generate a hypothesis.</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr"/>
+      <c r="E17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>planned process</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr"/>
+      <c r="H17" s="2" t="inlineStr"/>
+      <c r="I17" s="2" t="inlineStr"/>
+      <c r="J17" s="2" t="inlineStr"/>
+      <c r="K17" s="2" t="inlineStr"/>
+      <c r="L17" s="2" t="inlineStr"/>
+      <c r="M17" s="2" t="inlineStr"/>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>SEPIO:0000125</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr"/>
+      <c r="P17" s="2" t="inlineStr"/>
+      <c r="Q17" s="2" t="inlineStr"/>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr"/>
+      <c r="T17" s="2" t="inlineStr"/>
+      <c r="U17" s="2" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/UpperLevel/GMHO_Upper_Defs.xlsx
+++ b/UpperLevel/GMHO_Upper_Defs.xlsx
@@ -39,7 +39,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ffffff"/>
+        <fgColor rgb="007fffd4"/>
       </patternFill>
     </fill>
   </fills>
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U17"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,7 +552,7 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>An aggregate of entities that are not dependent on the event but may influence the effect of the event on the person.</t>
+          <t>An object aggregate of entities that are not dependent on the intervention but may influence the effect of an intervention on its outcome.</t>
         </is>
       </c>
       <c r="D2" s="2" t="n"/>
@@ -580,7 +580,7 @@
       <c r="Q2" s="2" t="n"/>
       <c r="R2" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="S2" s="2" t="n"/>
@@ -590,128 +590,119 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000253</t>
+          <t>MF:0000016</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">intervention context
-</t>
+          <t>human being</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>An aggregate of entities that are not dependent on the intervention but may influence the effect of an intervention on its outcome.</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="n"/>
-      <c r="E3" s="2" t="n"/>
+          <t>An extended organism that is a member of the species Homo sapiens.</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr"/>
+      <c r="E3" s="2" t="inlineStr"/>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>object aggregate</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BCIO:005000
-</t>
-        </is>
-      </c>
-      <c r="O3" s="2" t="n"/>
-      <c r="P3" s="2" t="n"/>
-      <c r="Q3" s="2" t="n"/>
+          <t>extended organism</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr"/>
+      <c r="H3" s="2" t="inlineStr"/>
+      <c r="I3" s="2" t="inlineStr"/>
+      <c r="J3" s="2" t="inlineStr"/>
+      <c r="K3" s="2" t="inlineStr"/>
+      <c r="L3" s="2" t="inlineStr"/>
+      <c r="M3" s="2" t="inlineStr"/>
+      <c r="N3" s="2" t="inlineStr"/>
+      <c r="O3" s="2" t="inlineStr"/>
+      <c r="P3" s="2" t="inlineStr"/>
+      <c r="Q3" s="2" t="inlineStr"/>
       <c r="R3" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S3" s="2" t="n"/>
-      <c r="T3" s="2" t="n"/>
-      <c r="U3" s="2" t="n"/>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="S3" s="2" t="inlineStr"/>
+      <c r="T3" s="2" t="inlineStr"/>
+      <c r="U3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000242</t>
+          <t>BCIO:041000</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">intervention dose
-</t>
+          <t>human population</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>An intervention attribute that is its amount.</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="n"/>
-      <c r="E4" s="2" t="n"/>
+          <t>An object aggregate that consists of two or more people.</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr"/>
+      <c r="E4" s="2" t="inlineStr"/>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>intervention attribute</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="n"/>
-      <c r="H4" s="2" t="n"/>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">drug dose and number of intervention techniques (e.g., action plans, social support)
-</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="n"/>
-      <c r="K4" s="2" t="n"/>
+          <t>object aggregate</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>target population</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr"/>
+      <c r="I4" s="2" t="inlineStr"/>
+      <c r="J4" s="2" t="inlineStr"/>
+      <c r="K4" s="2" t="inlineStr"/>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">"Intervention dose can capture the intensity of any intervention, including social, psychological and pharmacological interventions.
-Intervention dose refers to the intensity or amount of an intervention, which is about the content of an intervention. In contrast, an intervention's schedule of delivery is about the temporal aspects of the intervention. There is some overlap between the entities ""intervention dose"" and ""intervention schedule of delivery"". For example, a more frequent intervention schedule with specific doses would suggest a higher overall dose of the intervention. However, ""intervention dose"" can capture concepts that are not directly relevant to the temporal organisation of the intervention, such as overall number of intervention strategies and drug dose."
-</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="n"/>
-      <c r="N4" s="2" t="n"/>
-      <c r="O4" s="2" t="n"/>
-      <c r="P4" s="2" t="n"/>
-      <c r="Q4" s="2" t="n"/>
+          <t>This entity represents any group consisting of two or more individuals. It could range for example from small groups, neighbourhoods, and organisations to entire national populations.</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr"/>
+      <c r="N4" s="2" t="inlineStr"/>
+      <c r="O4" s="2" t="inlineStr"/>
+      <c r="P4" s="2" t="inlineStr"/>
+      <c r="Q4" s="2" t="inlineStr"/>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S4" s="2" t="n"/>
-      <c r="T4" s="2" t="n"/>
-      <c r="U4" s="2" t="n"/>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr"/>
+      <c r="T4" s="2" t="inlineStr"/>
+      <c r="U4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000199</t>
+          <t>GMHO:0000253</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>intervention mechanism of action</t>
+          <t xml:space="preserve">intervention context
+</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>A process that is causally active in the relationship between an intervention scenario and its intervention outcome.</t>
+          <t>An object aggregate of entities that are not dependent on the intervention but may influence the effect of an intervention on its outcome.</t>
         </is>
       </c>
       <c r="D5" s="2" t="n"/>
       <c r="E5" s="2" t="n"/>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>object aggregate</t>
         </is>
       </c>
       <c r="G5" s="2" t="n"/>
@@ -719,20 +710,20 @@
       <c r="I5" s="2" t="n"/>
       <c r="J5" s="2" t="n"/>
       <c r="K5" s="2" t="n"/>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">For a construct to be a mechanism of action, it has to be causally active in bringing about the influence of the intervention on its outcome. Different interventions have different mechanisms and so the subclasses of "intervention mechanism of action" are possible mechanisms of  interventions. The ontology itself does not make causal inferences for specific mechanisms of action. These inferences can be done at the annotation level, namely when there is empirical evidence to support statements about the relationships between constructs.
-</t>
-        </is>
-      </c>
+      <c r="L5" s="2" t="n"/>
       <c r="M5" s="2" t="n"/>
-      <c r="N5" s="2" t="n"/>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BCIO:005000
+</t>
+        </is>
+      </c>
       <c r="O5" s="2" t="n"/>
       <c r="P5" s="2" t="n"/>
       <c r="Q5" s="2" t="n"/>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="S5" s="2" t="n"/>
@@ -742,64 +733,70 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000244</t>
+          <t>BCIO:045000</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">intervention mode of delivery
-</t>
+          <t>intervention delivery</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An intervention attribute that is the physical or informational medium through which an intervention is provided.
-</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
+          <t>A planned process by which intervention content is delivered.</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>The planned process for delivering an intervention to its participants.</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr"/>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>intervention attribute</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="n"/>
-      <c r="H6" s="2" t="n"/>
-      <c r="I6" s="2" t="n"/>
-      <c r="J6" s="2" t="n"/>
-      <c r="K6" s="2" t="n"/>
-      <c r="L6" s="2" t="n"/>
-      <c r="M6" s="2" t="n"/>
-      <c r="N6" s="2" t="n"/>
-      <c r="O6" s="2" t="n"/>
-      <c r="P6" s="2" t="n"/>
-      <c r="Q6" s="2" t="n"/>
+          <t>planned process</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr"/>
+      <c r="H6" s="2" t="inlineStr"/>
+      <c r="I6" s="2" t="inlineStr"/>
+      <c r="J6" s="2" t="inlineStr"/>
+      <c r="K6" s="2" t="inlineStr"/>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>This class intends to represent the actual delivery of an intervention, whereas the class "mental health intervention scenario plan" refers to the planned intervention, including the planned delivery of an intervention. Distinguishing between these two classes allows for the assessment of intervention fidelity. To capture planned delivery, researchers could annotate both the class "intervention delivery" and "mental health intervention scenario plan".
+The definition of "intervention delivery" states that it is "a planned process by which intervention content is delivered," which refers to the actual execution of the intervention. This phrasing reflects that the intervention was designed and planned in advance before being implemented, thereby making it a "planned process".</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr"/>
+      <c r="N6" s="2" t="inlineStr"/>
+      <c r="O6" s="2" t="inlineStr"/>
+      <c r="P6" s="2" t="inlineStr"/>
+      <c r="Q6" s="2" t="inlineStr"/>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S6" s="2" t="n"/>
-      <c r="T6" s="2" t="n"/>
-      <c r="U6" s="2" t="n"/>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr"/>
+      <c r="T6" s="2" t="inlineStr"/>
+      <c r="U6" s="2" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000245</t>
+          <t>GMHO:0000242</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">intervention schedule of delivery
+          <t xml:space="preserve">intervention dose
 </t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An intervention attribute that involves its temporal organisation.
-</t>
+          <t>An intervention attribute that is its amount.</t>
         </is>
       </c>
       <c r="D7" s="2" t="n"/>
@@ -811,13 +808,18 @@
       </c>
       <c r="G7" s="2" t="n"/>
       <c r="H7" s="2" t="n"/>
-      <c r="I7" s="2" t="n"/>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">drug dose and number of intervention techniques (e.g., action plans, social support)
+</t>
+        </is>
+      </c>
       <c r="J7" s="2" t="n"/>
       <c r="K7" s="2" t="n"/>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">"Temporal organisation includes different temporal dimensions, such as timing, frequency, duration and the sequence of activities.
-Intervention dose refers to the intensity or amount of an intervention, which is about the content of an intervention. In contrast, an intervention's schedule of delivery is about the temporal aspects of the intervention. There is some overlap between the entities ""intervention dose"" and ""intervention schedule of delivery"". For example, a more frequent intervention schedule with specific doses would suggest a higher overall dose of the intervention. However, ""intervention dose"" can capture concepts that are not directly relevant to the temporal organisation of the intervention, such as overall number of intervention strategies and drug dose."
+          <t xml:space="preserve">Intervention dose can capture the intensity of any intervention, including social, physical, psychological and pharmacological interventions.
+Intervention dose refers to the intensity or amount of an intervention, which is about the content of an intervention. In contrast, an intervention's schedule of delivery is about the temporal aspects of the intervention. There is some overlap between the entities "intervention dose" and "intervention schedule of delivery". For example, a more frequent intervention schedule with specific doses would suggest a higher overall dose of the intervention. However, "intervention dose" can capture concepts that are not directly relevant to the temporal organisation of the intervention, such as overall number of intervention strategies and drug dose. This class intends to represent the actual dose delivered as part of an intervention, whereas the class "mental health intervention scenario plan" refers to the planned intervention, including the planned dose of an intervention. Distinguishing between these two classes allows for the assessment of intervention fidelity. To capture planned dose, researchers could annotate both the class "intervention dose" and "mental health intervention scenario plan".
 </t>
         </is>
       </c>
@@ -828,7 +830,7 @@
       <c r="Q7" s="2" t="n"/>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="S7" s="2" t="n"/>
@@ -838,25 +840,24 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000169</t>
+          <t>GMHO:0000199</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">intervention setting
-</t>
+          <t>intervention mechanism of action</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>An aggregate of entities that form the environment in which an intervention is provided.</t>
+          <t>A process that is causally active in the relationship between an intervention scenario and its intervention outcome.</t>
         </is>
       </c>
       <c r="D8" s="2" t="n"/>
       <c r="E8" s="2" t="n"/>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>object aggregate</t>
+          <t>process</t>
         </is>
       </c>
       <c r="G8" s="2" t="n"/>
@@ -864,20 +865,23 @@
       <c r="I8" s="2" t="n"/>
       <c r="J8" s="2" t="n"/>
       <c r="K8" s="2" t="n"/>
-      <c r="L8" s="2" t="n"/>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">For a construct to be a mechanism of action, it must be causally active in bringing about the intervention’s effect on its outcome. However, interventions are typically designed based on hypothesised mechanisms of action, which may or may not hold true depending on factors such as behaviour type, population, and setting. 
+The ontology provides a structured framework for organising mechanisms of action but does not replace the need for empirical validation. The ontology does not specify the level of evidence required to confirm that a hypothesised mechanism has been realised. In other words, the ontology itself does not make causal inferences about specific mechanisms. 
+When using the ontology, researchers can code hypothesised mechanisms within the subclasses of “intervention mechanism of action”. The assessment of whether sufficient evidence supports a causal relationship occurs at the annotation level, where empirical data validate the connections between constructs. 
+The relationship between intervention techniques, mechanisms, and outcomes is often complex and non-linear. Multiple mechanisms of action may interact in various ways, including combinations, sequences, or feedback loops.
+</t>
+        </is>
+      </c>
       <c r="M8" s="2" t="n"/>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BCIO:005000
-</t>
-        </is>
-      </c>
+      <c r="N8" s="2" t="n"/>
       <c r="O8" s="2" t="n"/>
       <c r="P8" s="2" t="n"/>
       <c r="Q8" s="2" t="n"/>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="S8" s="2" t="n"/>
@@ -887,18 +891,18 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000246</t>
+          <t>GMHO:0000244</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">intervention source
+          <t xml:space="preserve">intervention mode of delivery
 </t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A role played by a person, population or organisation that provides an intervention.
+          <t xml:space="preserve">An intervention attribute that is the physical or informational medium through which an intervention is provided.
 </t>
         </is>
       </c>
@@ -906,25 +910,15 @@
       <c r="E9" s="2" t="n"/>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>role</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">intervention provider
-</t>
-        </is>
-      </c>
+          <t>intervention attribute</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="n"/>
       <c r="H9" s="2" t="n"/>
       <c r="I9" s="2" t="n"/>
       <c r="J9" s="2" t="n"/>
       <c r="K9" s="2" t="n"/>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The entity “intervention source” has been defined to include a person, population or organisation, as these sources can be legally accountable for an intervention. A computer program or machine cannot be held accountable in the same way. Therefore, the organisation or people that provide the computer program or machine would be considered the intervention source, where relevant. When an intervention is delivered via a computer program (e.g., an app), this can be captured in the ontology through the relevant subclasses of "intervention mode of delivery".
-</t>
-        </is>
-      </c>
+      <c r="L9" s="2" t="n"/>
       <c r="M9" s="2" t="n"/>
       <c r="N9" s="2" t="n"/>
       <c r="O9" s="2" t="n"/>
@@ -932,7 +926,7 @@
       <c r="Q9" s="2" t="n"/>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="S9" s="2" t="n"/>
@@ -942,116 +936,116 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000247</t>
+          <t>BCIO:039000</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>intervention technique</t>
+          <t>intervention outcome</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>A planned process that is the smallest part of an intervention that is observable, replicable and on its own has the potential to influence an intervention outcome.</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="n"/>
-      <c r="E10" s="2" t="n"/>
+          <t>A process that is influenced by an intervention.</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr"/>
+      <c r="E10" s="2" t="inlineStr"/>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>planned process</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="n"/>
-      <c r="H10" s="2" t="n"/>
-      <c r="I10" s="2" t="n"/>
-      <c r="J10" s="2" t="n"/>
-      <c r="K10" s="2" t="n"/>
-      <c r="L10" s="2" t="n"/>
-      <c r="M10" s="2" t="n"/>
-      <c r="N10" s="2" t="n"/>
-      <c r="O10" s="2" t="n"/>
-      <c r="P10" s="2" t="n"/>
-      <c r="Q10" s="2" t="n"/>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr"/>
+      <c r="H10" s="2" t="inlineStr"/>
+      <c r="I10" s="2" t="inlineStr"/>
+      <c r="J10" s="2" t="inlineStr"/>
+      <c r="K10" s="2" t="inlineStr"/>
+      <c r="L10" s="2" t="inlineStr"/>
+      <c r="M10" s="2" t="inlineStr"/>
+      <c r="N10" s="2" t="inlineStr"/>
+      <c r="O10" s="2" t="inlineStr"/>
+      <c r="P10" s="2" t="inlineStr"/>
+      <c r="Q10" s="2" t="inlineStr"/>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S10" s="2" t="n"/>
-      <c r="T10" s="2" t="n"/>
-      <c r="U10" s="2" t="n"/>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr"/>
+      <c r="T10" s="2" t="inlineStr"/>
+      <c r="U10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000254</t>
+          <t>BCIO:015095</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>intervention temporal context</t>
+          <t>intervention population</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of processes taking place at the same time as an intervention.</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="n"/>
-      <c r="E11" s="2" t="n"/>
+          <t>A human population who are exposed to an intervention.</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr"/>
+      <c r="E11" s="2" t="inlineStr"/>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="n"/>
-      <c r="H11" s="2" t="n"/>
-      <c r="I11" s="2" t="n"/>
-      <c r="J11" s="2" t="n"/>
-      <c r="K11" s="2" t="n"/>
-      <c r="L11" s="2" t="n"/>
-      <c r="M11" s="2" t="n"/>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BCIO:047000
-</t>
-        </is>
-      </c>
-      <c r="O11" s="2" t="n"/>
-      <c r="P11" s="2" t="n"/>
-      <c r="Q11" s="2" t="n"/>
+          <t>human population</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr"/>
+      <c r="H11" s="2" t="inlineStr"/>
+      <c r="I11" s="2" t="inlineStr"/>
+      <c r="J11" s="2" t="inlineStr"/>
+      <c r="K11" s="2" t="inlineStr"/>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>The definition of intervention population (A human population who are exposed to an intervention) does not imply an explicit assignment to an intervention arm. While some interventions will have study designs in which researchers explicitly assign participants to intervention and control groups, this is not the case for all interventions (e.g., policy changes or public health campaigns).</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr"/>
+      <c r="N11" s="2" t="inlineStr"/>
+      <c r="O11" s="2" t="inlineStr"/>
+      <c r="P11" s="2" t="inlineStr"/>
+      <c r="Q11" s="2" t="inlineStr"/>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S11" s="2" t="n"/>
-      <c r="T11" s="2" t="n"/>
-      <c r="U11" s="2" t="n"/>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr"/>
+      <c r="T11" s="2" t="inlineStr"/>
+      <c r="U11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000248</t>
+          <t>GMHO:0000245</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">mental health intervention
+          <t xml:space="preserve">intervention schedule of delivery
 </t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>An intervention that has the aim of influencing some aspect of mental health.</t>
+          <t xml:space="preserve">An intervention attribute that involves its temporal organisation.
+</t>
         </is>
       </c>
       <c r="D12" s="2" t="n"/>
       <c r="E12" s="2" t="n"/>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>intervention</t>
+          <t>intervention attribute</t>
         </is>
       </c>
       <c r="G12" s="2" t="n"/>
@@ -1061,7 +1055,8 @@
       <c r="K12" s="2" t="n"/>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">The "mental health intervention scenario" entity captures a "mental health intervention" within a specific context, level of engagement and outcomes. Mental health interventions (represented as "mental health intervention") could be delivered in different contexts and/or have different outcomes at different times. For example, we could deliver the same intervention ("mental health intervention") two years after its previous delivery or in a different context ("mental health intervention scenario"), and this could lead to different outcomes. 
+          <t xml:space="preserve">Temporal organisation includes different temporal dimensions, such as timing, frequency, duration and the sequence of activities.
+Intervention dose refers to the intensity or amount of an intervention, which is about the content of an intervention. In contrast, an intervention's schedule of delivery is about the temporal aspects of the intervention. There is some overlap between the entities "intervention dose" and "intervention schedule of delivery". For example, a more frequent intervention schedule with specific doses would suggest a higher overall dose of the intervention. However, "intervention dose" can capture concepts that are not directly relevant to the temporal organisation of the intervention, such as overall number of intervention strategies and drug dose.
 </t>
         </is>
       </c>
@@ -1072,7 +1067,7 @@
       <c r="Q12" s="2" t="n"/>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="S12" s="2" t="n"/>
@@ -1082,29 +1077,25 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000241</t>
+          <t>GMHO:0000169</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">mental health intervention content
+          <t xml:space="preserve">intervention setting
 </t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>An intervention content that is part of a mental health intervention.</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>Any intervention content delivered in the context of a mental health intervention.</t>
-        </is>
-      </c>
+          <t>An aggregate of entities that form the environment in which an intervention is provided.</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n"/>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>intervention content</t>
+          <t>object aggregate</t>
         </is>
       </c>
       <c r="G13" s="2" t="n"/>
@@ -1114,13 +1105,18 @@
       <c r="K13" s="2" t="n"/>
       <c r="L13" s="2" t="n"/>
       <c r="M13" s="2" t="n"/>
-      <c r="N13" s="2" t="n"/>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BCIO:005000
+</t>
+        </is>
+      </c>
       <c r="O13" s="2" t="n"/>
       <c r="P13" s="2" t="n"/>
       <c r="Q13" s="2" t="n"/>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="S13" s="2" t="n"/>
@@ -1130,48 +1126,52 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000250</t>
+          <t>GMHO:0000246</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>mental health intervention scenario</t>
+          <t xml:space="preserve">intervention source
+</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>A planned process in which a mental health intervention is applied in a given context, including intervention engagement and outcome.</t>
+          <t xml:space="preserve">A role played by a person, population or organisation that provides an intervention.
+</t>
         </is>
       </c>
       <c r="D14" s="2" t="n"/>
       <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>planned process</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="n"/>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">intervention provider
+</t>
+        </is>
+      </c>
       <c r="H14" s="2" t="n"/>
       <c r="I14" s="2" t="n"/>
       <c r="J14" s="2" t="n"/>
       <c r="K14" s="2" t="n"/>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">The "mental health intervention scenario" entity captures a "mental health intervention" within a specific context, level of engagement and outcomes. Mental health interventions (represented as "mental health intervention") could be delivered in different contexts and/or have different outcomes at different times. For example, we could deliver the same intervention ("mental health intervention") two years after its previous delivery or in a different context ("mental health intervention scenario"), and this could lead to different outcomes. </t>
+          <t xml:space="preserve">The entity “intervention source” has been defined to include a person, population or organisation, as these sources can be legally accountable for an intervention. A computer program or machine cannot be held accountable in the same way. Therefore, the organisation or people that provide the computer program or machine would be considered the intervention source, where relevant. When an intervention is delivered via a computer program (e.g., an app), this can be captured in the ontology through the relevant subclasses of "intervention mode of delivery".
+</t>
         </is>
       </c>
       <c r="M14" s="2" t="n"/>
       <c r="N14" s="2" t="n"/>
       <c r="O14" s="2" t="n"/>
-      <c r="P14" s="2" t="inlineStr">
-        <is>
-          <t>planned</t>
-        </is>
-      </c>
+      <c r="P14" s="2" t="n"/>
       <c r="Q14" s="2" t="n"/>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="S14" s="2" t="n"/>
@@ -1181,75 +1181,74 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000260</t>
+          <t>BCIO:044005</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>mental health intervention scenario plan</t>
+          <t>intervention style of delivery</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>A plan that is realized in a mental health intervention scenario process.</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="n"/>
-      <c r="E15" s="2" t="n"/>
+          <t>A communication style that is an attribute of an intervention content communication process.</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr"/>
+      <c r="E15" s="2" t="inlineStr"/>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>plan</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="n"/>
-      <c r="H15" s="2" t="n"/>
-      <c r="I15" s="2" t="n"/>
-      <c r="J15" s="2" t="n"/>
-      <c r="K15" s="2" t="n"/>
+          <t>communication style</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr"/>
+      <c r="H15" s="2" t="inlineStr"/>
+      <c r="I15" s="2" t="inlineStr"/>
+      <c r="J15" s="2" t="inlineStr"/>
+      <c r="K15" s="2" t="inlineStr"/>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>This entity is intended to represent the planned content or delivery of an intervention, whereas the entity "mental health intervention scenario" refers to the intervention as it was actually implemented. Distinguishing between these two entities allows for the assessment of intervention fidelity.</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="n"/>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:028000</t>
-        </is>
-      </c>
-      <c r="O15" s="2" t="n"/>
-      <c r="P15" s="2" t="n"/>
-      <c r="Q15" s="2" t="n"/>
+          <t>An intervention can include various different styles of delivery for different parts of the intervention.
+The definition of "intervention style of delivery" is based on two other entities, namely "communication style" and "intervention content communication process". Their definitions are presented below.
+communication style (BCIO:044004): A particular manner of communicating aimed at inducing or avoiding certain kinds of responses in others, or demonstrating certain characteristics of the initiator.
+intervention content communication process (BCIO:044001): A communication that transmits the content of an intervention Note that an intervention is a planned process with the aim of influencing some outcome whereas a behaviour change intervention is an intervention that aims to influence human behaviour as an outcome.</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr"/>
+      <c r="N15" s="2" t="inlineStr"/>
+      <c r="O15" s="2" t="inlineStr"/>
+      <c r="P15" s="2" t="inlineStr"/>
+      <c r="Q15" s="2" t="inlineStr"/>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S15" s="2" t="n"/>
-      <c r="T15" s="2" t="n"/>
-      <c r="U15" s="2" t="n"/>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr"/>
+      <c r="T15" s="2" t="inlineStr"/>
+      <c r="U15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000251</t>
+          <t>GMHO:0000247</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>population history</t>
+          <t>intervention technique</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>A history that is of a population.</t>
+          <t>A planned process that is the smallest part of an intervention that is observable, replicable and on its own has the potential to influence an intervention outcome.</t>
         </is>
       </c>
       <c r="D16" s="2" t="n"/>
       <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>history</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="G16" s="2" t="n"/>
@@ -1257,11 +1256,7 @@
       <c r="I16" s="2" t="n"/>
       <c r="J16" s="2" t="n"/>
       <c r="K16" s="2" t="n"/>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>is an aggregate of personal history; experiences can be captured as 'personal history part'.</t>
-        </is>
-      </c>
+      <c r="L16" s="2" t="n"/>
       <c r="M16" s="2" t="n"/>
       <c r="N16" s="2" t="n"/>
       <c r="O16" s="2" t="n"/>
@@ -1269,7 +1264,7 @@
       <c r="Q16" s="2" t="n"/>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="S16" s="2" t="n"/>
@@ -1279,49 +1274,492 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
+          <t>GMHO:0000254</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>intervention temporal context</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>The aggregate of processes taking place at the same time as an intervention.</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n"/>
+      <c r="E17" s="2" t="n"/>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="n"/>
+      <c r="H17" s="2" t="n"/>
+      <c r="I17" s="2" t="n"/>
+      <c r="J17" s="2" t="n"/>
+      <c r="K17" s="2" t="n"/>
+      <c r="L17" s="2" t="n"/>
+      <c r="M17" s="2" t="n"/>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BCIO:047000
+</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="n"/>
+      <c r="P17" s="2" t="n"/>
+      <c r="Q17" s="2" t="n"/>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="n"/>
+      <c r="T17" s="2" t="n"/>
+      <c r="U17" s="2" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000248</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">mental health intervention
+</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>An intervention that has the aim of influencing some aspect of mental health.</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n"/>
+      <c r="E18" s="2" t="n"/>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>intervention</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="n"/>
+      <c r="H18" s="2" t="n"/>
+      <c r="I18" s="2" t="n"/>
+      <c r="J18" s="2" t="n"/>
+      <c r="K18" s="2" t="n"/>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The "mental health intervention scenario" entity captures a "mental health intervention" within a specific context, level of engagement and outcomes. Mental health interventions (represented as "mental health intervention") could be delivered in different contexts and/or have different outcomes at different times. For example, we could deliver the same intervention ("mental health intervention") two years after its previous delivery or in a different context ("mental health intervention scenario"), and this could lead to different outcomes. 
+</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="n"/>
+      <c r="N18" s="2" t="n"/>
+      <c r="O18" s="2" t="n"/>
+      <c r="P18" s="2" t="n"/>
+      <c r="Q18" s="2" t="n"/>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="n"/>
+      <c r="T18" s="2" t="n"/>
+      <c r="U18" s="2" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000241</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">mental health intervention content
+</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>An intervention content that is part of a mental health intervention.</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>Any intervention content delivered in the context of a mental health intervention.</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="n"/>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>intervention content</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="n"/>
+      <c r="H19" s="2" t="n"/>
+      <c r="I19" s="2" t="n"/>
+      <c r="J19" s="2" t="n"/>
+      <c r="K19" s="2" t="n"/>
+      <c r="L19" s="2" t="n"/>
+      <c r="M19" s="2" t="n"/>
+      <c r="N19" s="2" t="n"/>
+      <c r="O19" s="2" t="n"/>
+      <c r="P19" s="2" t="n"/>
+      <c r="Q19" s="2" t="n"/>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="n"/>
+      <c r="T19" s="2" t="n"/>
+      <c r="U19" s="2" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000250</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>mental health intervention scenario</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>A planned process in which a mental health intervention is applied in a given context, including intervention engagement and outcome.</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n"/>
+      <c r="E20" s="2" t="n"/>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>planned process</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="n"/>
+      <c r="H20" s="2" t="n"/>
+      <c r="I20" s="2" t="n"/>
+      <c r="J20" s="2" t="n"/>
+      <c r="K20" s="2" t="n"/>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The "mental health intervention scenario" entity captures a "mental health intervention" within a specific context, level of engagement and outcomes. Mental health interventions (represented as "mental health intervention") could be delivered in different contexts and/or have different outcomes at different times. For example, we could deliver the same intervention ("mental health intervention") two years after its previous delivery or in a different context ("mental health intervention scenario"), and this could lead to different outcomes. </t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="n"/>
+      <c r="N20" s="2" t="n"/>
+      <c r="O20" s="2" t="n"/>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="n"/>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="n"/>
+      <c r="T20" s="2" t="n"/>
+      <c r="U20" s="2" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000260</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>mental health intervention scenario plan</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>A plan that is realized in a mental health intervention scenario process.</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n"/>
+      <c r="E21" s="2" t="n"/>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="n"/>
+      <c r="H21" s="2" t="n"/>
+      <c r="I21" s="2" t="n"/>
+      <c r="J21" s="2" t="n"/>
+      <c r="K21" s="2" t="n"/>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>This entity is intended to represent the planned content or delivery of an intervention, whereas the entity "mental health intervention scenario" refers to the intervention as it was actually implemented. Distinguishing between these two entities allows for the assessment of intervention fidelity.</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="n"/>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:028000</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="n"/>
+      <c r="P21" s="2" t="n"/>
+      <c r="Q21" s="2" t="n"/>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="n"/>
+      <c r="T21" s="2" t="n"/>
+      <c r="U21" s="2" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050916</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>participant engagement with intervention</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>An individual human activity of an intervention participant within one or more parts of the intervention.</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>The extent to which someone interacts with an intervention, including their cognitive, emotional and behavioural response (e.g., attending intervention session) to the intervention itself.</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>individual human activity</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr"/>
+      <c r="H22" s="2" t="inlineStr"/>
+      <c r="I22" s="2" t="inlineStr"/>
+      <c r="J22" s="2" t="inlineStr"/>
+      <c r="K22" s="2" t="inlineStr"/>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>Engagement can involve cognitive, emotional and behavioural engagement with an intervention.</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr"/>
+      <c r="N22" s="2" t="inlineStr"/>
+      <c r="O22" s="2" t="inlineStr"/>
+      <c r="P22" s="2" t="inlineStr"/>
+      <c r="Q22" s="2" t="inlineStr"/>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr"/>
+      <c r="T22" s="2" t="inlineStr"/>
+      <c r="U22" s="2" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:015161</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>personal history</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>A history that is of a person.</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr"/>
+      <c r="E23" s="2" t="inlineStr"/>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>history</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr"/>
+      <c r="H23" s="2" t="inlineStr"/>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>sum of multiple experienced events</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr"/>
+      <c r="K23" s="2" t="inlineStr"/>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>A person's history includes the sum of their experiences, which can include experiences relating to their cultural, social and economic context.</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr"/>
+      <c r="N23" s="2" t="inlineStr"/>
+      <c r="O23" s="2" t="inlineStr"/>
+      <c r="P23" s="2" t="inlineStr"/>
+      <c r="Q23" s="2" t="inlineStr"/>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr"/>
+      <c r="T23" s="2" t="inlineStr"/>
+      <c r="U23" s="2" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050487</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>personal history part</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>A process that is part of a personal history.</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr"/>
+      <c r="E24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr"/>
+      <c r="H24" s="2" t="inlineStr"/>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>experienced event</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr"/>
+      <c r="K24" s="2" t="inlineStr"/>
+      <c r="L24" s="2" t="inlineStr"/>
+      <c r="M24" s="2" t="inlineStr"/>
+      <c r="N24" s="2" t="inlineStr"/>
+      <c r="O24" s="2" t="inlineStr"/>
+      <c r="P24" s="2" t="inlineStr"/>
+      <c r="Q24" s="2" t="inlineStr"/>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr"/>
+      <c r="T24" s="2" t="inlineStr"/>
+      <c r="U24" s="2" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000251</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>population history</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>A history that is of a population.</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n"/>
+      <c r="E25" s="2" t="n"/>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>history</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="n"/>
+      <c r="H25" s="2" t="n"/>
+      <c r="I25" s="2" t="n"/>
+      <c r="J25" s="2" t="n"/>
+      <c r="K25" s="2" t="n"/>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>is an aggregate of personal history; experiences can be captured as 'personal history part'.</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="n"/>
+      <c r="N25" s="2" t="n"/>
+      <c r="O25" s="2" t="n"/>
+      <c r="P25" s="2" t="n"/>
+      <c r="Q25" s="2" t="n"/>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="n"/>
+      <c r="T25" s="2" t="n"/>
+      <c r="U25" s="2" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
           <t>GMHO:0000268</t>
         </is>
       </c>
-      <c r="B17" s="2" t="inlineStr">
+      <c r="B26" s="2" t="inlineStr">
         <is>
           <t>research study</t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr">
+      <c r="C26" s="2" t="inlineStr">
         <is>
           <t>A planned process that executes some study design or protocol to generate scientific data that is interpreted to test or generate a hypothesis.</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr"/>
-      <c r="E17" s="2" t="inlineStr"/>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="D26" s="2" t="n"/>
+      <c r="E26" s="2" t="n"/>
+      <c r="F26" s="2" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr"/>
-      <c r="H17" s="2" t="inlineStr"/>
-      <c r="I17" s="2" t="inlineStr"/>
-      <c r="J17" s="2" t="inlineStr"/>
-      <c r="K17" s="2" t="inlineStr"/>
-      <c r="L17" s="2" t="inlineStr"/>
-      <c r="M17" s="2" t="inlineStr"/>
-      <c r="N17" s="2" t="inlineStr">
+      <c r="G26" s="2" t="n"/>
+      <c r="H26" s="2" t="n"/>
+      <c r="I26" s="2" t="n"/>
+      <c r="J26" s="2" t="n"/>
+      <c r="K26" s="2" t="n"/>
+      <c r="L26" s="2" t="n"/>
+      <c r="M26" s="2" t="n"/>
+      <c r="N26" s="2" t="inlineStr">
         <is>
           <t>SEPIO:0000125</t>
         </is>
       </c>
-      <c r="O17" s="2" t="inlineStr"/>
-      <c r="P17" s="2" t="inlineStr"/>
-      <c r="Q17" s="2" t="inlineStr"/>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S17" s="2" t="inlineStr"/>
-      <c r="T17" s="2" t="inlineStr"/>
-      <c r="U17" s="2" t="inlineStr"/>
+      <c r="O26" s="2" t="n"/>
+      <c r="P26" s="2" t="n"/>
+      <c r="Q26" s="2" t="n"/>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="n"/>
+      <c r="T26" s="2" t="n"/>
+      <c r="U26" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/UpperLevel/GMHO_Upper_Defs.xlsx
+++ b/UpperLevel/GMHO_Upper_Defs.xlsx
@@ -30,12 +30,17 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffffff"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -55,10 +60,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -424,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,131 +548,123 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
+          <t>BCIO:044004</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>communication style</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>A particular manner of communicating aimed at inducing or avoiding certain kinds of responses in others, or demonstrating certain characteristics of the initiator.</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr"/>
+      <c r="E2" s="2" t="inlineStr"/>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>communication process attribute</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr"/>
+      <c r="H2" s="2" t="inlineStr"/>
+      <c r="I2" s="2" t="inlineStr"/>
+      <c r="J2" s="2" t="inlineStr"/>
+      <c r="K2" s="2" t="inlineStr"/>
+      <c r="L2" s="2" t="inlineStr"/>
+      <c r="M2" s="2" t="inlineStr"/>
+      <c r="N2" s="2" t="inlineStr"/>
+      <c r="O2" s="2" t="inlineStr"/>
+      <c r="P2" s="2" t="inlineStr"/>
+      <c r="Q2" s="2" t="inlineStr"/>
+      <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S2" s="2" t="inlineStr"/>
+      <c r="T2" s="2" t="inlineStr"/>
+      <c r="U2" s="2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
           <t>GMHO:0000252</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>context of experience</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>An object aggregate of entities that are not dependent on the intervention but may influence the effect of an intervention on its outcome.</t>
         </is>
       </c>
-      <c r="D2" s="2" t="n"/>
-      <c r="E2" s="2" t="n"/>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="D3" s="3" t="n"/>
+      <c r="E3" s="3" t="n"/>
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>object aggregate</t>
         </is>
       </c>
-      <c r="G2" s="2" t="n"/>
-      <c r="H2" s="2" t="n"/>
-      <c r="I2" s="2" t="n"/>
-      <c r="J2" s="2" t="n"/>
-      <c r="K2" s="2" t="n"/>
-      <c r="L2" s="2" t="n"/>
-      <c r="M2" s="2" t="n"/>
-      <c r="N2" s="2" t="inlineStr">
+      <c r="G3" s="3" t="n"/>
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="3" t="n"/>
+      <c r="J3" s="3" t="n"/>
+      <c r="K3" s="3" t="n"/>
+      <c r="L3" s="3" t="n"/>
+      <c r="M3" s="3" t="n"/>
+      <c r="N3" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">BCIO:005000
 </t>
         </is>
       </c>
-      <c r="O2" s="2" t="n"/>
-      <c r="P2" s="2" t="n"/>
-      <c r="Q2" s="2" t="n"/>
-      <c r="R2" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="S2" s="2" t="n"/>
-      <c r="T2" s="2" t="n"/>
-      <c r="U2" s="2" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>MF:0000016</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>human being</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>An extended organism that is a member of the species Homo sapiens.</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr"/>
-      <c r="E3" s="2" t="inlineStr"/>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>extended organism</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="inlineStr"/>
-      <c r="H3" s="2" t="inlineStr"/>
-      <c r="I3" s="2" t="inlineStr"/>
-      <c r="J3" s="2" t="inlineStr"/>
-      <c r="K3" s="2" t="inlineStr"/>
-      <c r="L3" s="2" t="inlineStr"/>
-      <c r="M3" s="2" t="inlineStr"/>
-      <c r="N3" s="2" t="inlineStr"/>
-      <c r="O3" s="2" t="inlineStr"/>
-      <c r="P3" s="2" t="inlineStr"/>
-      <c r="Q3" s="2" t="inlineStr"/>
-      <c r="R3" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="S3" s="2" t="inlineStr"/>
-      <c r="T3" s="2" t="inlineStr"/>
-      <c r="U3" s="2" t="inlineStr"/>
+      <c r="O3" s="3" t="n"/>
+      <c r="P3" s="3" t="n"/>
+      <c r="Q3" s="3" t="n"/>
+      <c r="R3" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="S3" s="3" t="n"/>
+      <c r="T3" s="3" t="n"/>
+      <c r="U3" s="3" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>BCIO:041000</t>
+          <t>OGMS:0000087</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>human population</t>
+          <t>extended organism</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>An object aggregate that consists of two or more people.</t>
+          <t>An object aggregate consisting of an organism and all material entities located within the organism, overlapping the organism, or occupying sites formed in part by the organism.</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="inlineStr"/>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>object aggregate</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>target population</t>
-        </is>
-      </c>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr"/>
       <c r="H4" s="2" t="inlineStr"/>
       <c r="I4" s="2" t="inlineStr"/>
       <c r="J4" s="2" t="inlineStr"/>
       <c r="K4" s="2" t="inlineStr"/>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>This entity represents any group consisting of two or more individuals. It could range for example from small groups, neighbourhoods, and organisations to entire national populations.</t>
-        </is>
-      </c>
+      <c r="L4" s="2" t="inlineStr"/>
       <c r="M4" s="2" t="inlineStr"/>
       <c r="N4" s="2" t="inlineStr"/>
       <c r="O4" s="2" t="inlineStr"/>
@@ -674,7 +672,7 @@
       <c r="Q4" s="2" t="inlineStr"/>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
+          <t>Proposed</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr"/>
@@ -684,188 +682,325 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
+          <t>BFO:0000182</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>history</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>A process that is the sum of the totality of processes taking place in the spatiotemporal region occupied by a material entity or site, including processes on the surface of the entity or within the cavities to which it serves as host.</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr"/>
+      <c r="E5" s="2" t="inlineStr"/>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr"/>
+      <c r="H5" s="2" t="inlineStr"/>
+      <c r="I5" s="2" t="inlineStr"/>
+      <c r="J5" s="2" t="inlineStr"/>
+      <c r="K5" s="2" t="inlineStr"/>
+      <c r="L5" s="2" t="inlineStr"/>
+      <c r="M5" s="2" t="inlineStr"/>
+      <c r="N5" s="2" t="inlineStr"/>
+      <c r="O5" s="2" t="inlineStr"/>
+      <c r="P5" s="2" t="inlineStr"/>
+      <c r="Q5" s="2" t="inlineStr"/>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr"/>
+      <c r="T5" s="2" t="inlineStr"/>
+      <c r="U5" s="2" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>MF:0000016</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>human being</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>An extended organism that is a member of the species Homo sapiens.</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="n"/>
+      <c r="E6" s="3" t="n"/>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>extended organism</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="n"/>
+      <c r="H6" s="3" t="n"/>
+      <c r="I6" s="3" t="n"/>
+      <c r="J6" s="3" t="n"/>
+      <c r="K6" s="3" t="n"/>
+      <c r="L6" s="3" t="n"/>
+      <c r="M6" s="3" t="n"/>
+      <c r="N6" s="3" t="n"/>
+      <c r="O6" s="3" t="n"/>
+      <c r="P6" s="3" t="n"/>
+      <c r="Q6" s="3" t="n"/>
+      <c r="R6" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="S6" s="3" t="n"/>
+      <c r="T6" s="3" t="n"/>
+      <c r="U6" s="3" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:041000</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>human population</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>An object aggregate that consists of two or more people.</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="n"/>
+      <c r="E7" s="3" t="n"/>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>object aggregate</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>target population</t>
+        </is>
+      </c>
+      <c r="H7" s="3" t="n"/>
+      <c r="I7" s="3" t="n"/>
+      <c r="J7" s="3" t="n"/>
+      <c r="K7" s="3" t="n"/>
+      <c r="L7" s="3" t="inlineStr">
+        <is>
+          <t>This entity represents any group consisting of two or more individuals. It could range for example from small groups, neighbourhoods, and organisations to entire national populations.</t>
+        </is>
+      </c>
+      <c r="M7" s="3" t="n"/>
+      <c r="N7" s="3" t="n"/>
+      <c r="O7" s="3" t="n"/>
+      <c r="P7" s="3" t="n"/>
+      <c r="Q7" s="3" t="n"/>
+      <c r="R7" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="S7" s="3" t="n"/>
+      <c r="T7" s="3" t="n"/>
+      <c r="U7" s="3" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
           <t>GMHO:0000253</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">intervention context
 </t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>An object aggregate of entities that are not dependent on the intervention but may influence the effect of an intervention on its outcome.</t>
         </is>
       </c>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="D8" s="3" t="n"/>
+      <c r="E8" s="3" t="n"/>
+      <c r="F8" s="3" t="inlineStr">
         <is>
           <t>object aggregate</t>
         </is>
       </c>
-      <c r="G5" s="2" t="n"/>
-      <c r="H5" s="2" t="n"/>
-      <c r="I5" s="2" t="n"/>
-      <c r="J5" s="2" t="n"/>
-      <c r="K5" s="2" t="n"/>
-      <c r="L5" s="2" t="n"/>
-      <c r="M5" s="2" t="n"/>
-      <c r="N5" s="2" t="inlineStr">
+      <c r="G8" s="3" t="n"/>
+      <c r="H8" s="3" t="n"/>
+      <c r="I8" s="3" t="n"/>
+      <c r="J8" s="3" t="n"/>
+      <c r="K8" s="3" t="n"/>
+      <c r="L8" s="3" t="n"/>
+      <c r="M8" s="3" t="n"/>
+      <c r="N8" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">BCIO:005000
 </t>
         </is>
       </c>
-      <c r="O5" s="2" t="n"/>
-      <c r="P5" s="2" t="n"/>
-      <c r="Q5" s="2" t="n"/>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="S5" s="2" t="n"/>
-      <c r="T5" s="2" t="n"/>
-      <c r="U5" s="2" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="O8" s="3" t="n"/>
+      <c r="P8" s="3" t="n"/>
+      <c r="Q8" s="3" t="n"/>
+      <c r="R8" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="S8" s="3" t="n"/>
+      <c r="T8" s="3" t="n"/>
+      <c r="U8" s="3" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>BCIO:045000</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>intervention delivery</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>A planned process by which intervention content is delivered.</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="D9" s="3" t="inlineStr">
         <is>
           <t>The planned process for delivering an intervention to its participants.</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr"/>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="E9" s="3" t="n"/>
+      <c r="F9" s="3" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr"/>
-      <c r="H6" s="2" t="inlineStr"/>
-      <c r="I6" s="2" t="inlineStr"/>
-      <c r="J6" s="2" t="inlineStr"/>
-      <c r="K6" s="2" t="inlineStr"/>
-      <c r="L6" s="2" t="inlineStr">
+      <c r="G9" s="3" t="n"/>
+      <c r="H9" s="3" t="n"/>
+      <c r="I9" s="3" t="n"/>
+      <c r="J9" s="3" t="n"/>
+      <c r="K9" s="3" t="n"/>
+      <c r="L9" s="3" t="inlineStr">
         <is>
           <t>This class intends to represent the actual delivery of an intervention, whereas the class "mental health intervention scenario plan" refers to the planned intervention, including the planned delivery of an intervention. Distinguishing between these two classes allows for the assessment of intervention fidelity. To capture planned delivery, researchers could annotate both the class "intervention delivery" and "mental health intervention scenario plan".
 The definition of "intervention delivery" states that it is "a planned process by which intervention content is delivered," which refers to the actual execution of the intervention. This phrasing reflects that the intervention was designed and planned in advance before being implemented, thereby making it a "planned process".</t>
         </is>
       </c>
-      <c r="M6" s="2" t="inlineStr"/>
-      <c r="N6" s="2" t="inlineStr"/>
-      <c r="O6" s="2" t="inlineStr"/>
-      <c r="P6" s="2" t="inlineStr"/>
-      <c r="Q6" s="2" t="inlineStr"/>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="S6" s="2" t="inlineStr"/>
-      <c r="T6" s="2" t="inlineStr"/>
-      <c r="U6" s="2" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="M9" s="3" t="n"/>
+      <c r="N9" s="3" t="n"/>
+      <c r="O9" s="3" t="n"/>
+      <c r="P9" s="3" t="n"/>
+      <c r="Q9" s="3" t="n"/>
+      <c r="R9" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="S9" s="3" t="n"/>
+      <c r="T9" s="3" t="n"/>
+      <c r="U9" s="3" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000242</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">intervention dose
 </t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>An intervention attribute that is its amount.</t>
         </is>
       </c>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="D10" s="3" t="n"/>
+      <c r="E10" s="3" t="n"/>
+      <c r="F10" s="3" t="inlineStr">
         <is>
           <t>intervention attribute</t>
         </is>
       </c>
-      <c r="G7" s="2" t="n"/>
-      <c r="H7" s="2" t="n"/>
-      <c r="I7" s="2" t="inlineStr">
+      <c r="G10" s="3" t="n"/>
+      <c r="H10" s="3" t="n"/>
+      <c r="I10" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">drug dose and number of intervention techniques (e.g., action plans, social support)
 </t>
         </is>
       </c>
-      <c r="J7" s="2" t="n"/>
-      <c r="K7" s="2" t="n"/>
-      <c r="L7" s="2" t="inlineStr">
+      <c r="J10" s="3" t="n"/>
+      <c r="K10" s="3" t="n"/>
+      <c r="L10" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Intervention dose can capture the intensity of any intervention, including social, physical, psychological and pharmacological interventions.
 Intervention dose refers to the intensity or amount of an intervention, which is about the content of an intervention. In contrast, an intervention's schedule of delivery is about the temporal aspects of the intervention. There is some overlap between the entities "intervention dose" and "intervention schedule of delivery". For example, a more frequent intervention schedule with specific doses would suggest a higher overall dose of the intervention. However, "intervention dose" can capture concepts that are not directly relevant to the temporal organisation of the intervention, such as overall number of intervention strategies and drug dose. This class intends to represent the actual dose delivered as part of an intervention, whereas the class "mental health intervention scenario plan" refers to the planned intervention, including the planned dose of an intervention. Distinguishing between these two classes allows for the assessment of intervention fidelity. To capture planned dose, researchers could annotate both the class "intervention dose" and "mental health intervention scenario plan".
 </t>
         </is>
       </c>
-      <c r="M7" s="2" t="n"/>
-      <c r="N7" s="2" t="n"/>
-      <c r="O7" s="2" t="n"/>
-      <c r="P7" s="2" t="n"/>
-      <c r="Q7" s="2" t="n"/>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="S7" s="2" t="n"/>
-      <c r="T7" s="2" t="n"/>
-      <c r="U7" s="2" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="M10" s="3" t="n"/>
+      <c r="N10" s="3" t="n"/>
+      <c r="O10" s="3" t="n"/>
+      <c r="P10" s="3" t="n"/>
+      <c r="Q10" s="3" t="n"/>
+      <c r="R10" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="S10" s="3" t="n"/>
+      <c r="T10" s="3" t="n"/>
+      <c r="U10" s="3" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000199</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t>intervention mechanism of action</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>A process that is causally active in the relationship between an intervention scenario and its intervention outcome.</t>
         </is>
       </c>
-      <c r="D8" s="2" t="n"/>
-      <c r="E8" s="2" t="n"/>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="D11" s="3" t="n"/>
+      <c r="E11" s="3" t="n"/>
+      <c r="F11" s="3" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="G8" s="2" t="n"/>
-      <c r="H8" s="2" t="n"/>
-      <c r="I8" s="2" t="n"/>
-      <c r="J8" s="2" t="n"/>
-      <c r="K8" s="2" t="n"/>
-      <c r="L8" s="2" t="inlineStr">
+      <c r="G11" s="3" t="n"/>
+      <c r="H11" s="3" t="n"/>
+      <c r="I11" s="3" t="n"/>
+      <c r="J11" s="3" t="n"/>
+      <c r="K11" s="3" t="n"/>
+      <c r="L11" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">For a construct to be a mechanism of action, it must be causally active in bringing about the intervention’s effect on its outcome. However, interventions are typically designed based on hypothesised mechanisms of action, which may or may not hold true depending on factors such as behaviour type, population, and setting. 
 The ontology provides a structured framework for organising mechanisms of action but does not replace the need for empirical validation. The ontology does not specify the level of evidence required to confirm that a hypothesised mechanism has been realised. In other words, the ontology itself does not make causal inferences about specific mechanisms. 
@@ -874,339 +1009,339 @@
 </t>
         </is>
       </c>
-      <c r="M8" s="2" t="n"/>
-      <c r="N8" s="2" t="n"/>
-      <c r="O8" s="2" t="n"/>
-      <c r="P8" s="2" t="n"/>
-      <c r="Q8" s="2" t="n"/>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="S8" s="2" t="n"/>
-      <c r="T8" s="2" t="n"/>
-      <c r="U8" s="2" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="M11" s="3" t="n"/>
+      <c r="N11" s="3" t="n"/>
+      <c r="O11" s="3" t="n"/>
+      <c r="P11" s="3" t="n"/>
+      <c r="Q11" s="3" t="n"/>
+      <c r="R11" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="S11" s="3" t="n"/>
+      <c r="T11" s="3" t="n"/>
+      <c r="U11" s="3" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000244</t>
         </is>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B12" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">intervention mode of delivery
 </t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">An intervention attribute that is the physical or informational medium through which an intervention is provided.
 </t>
         </is>
       </c>
-      <c r="D9" s="2" t="n"/>
-      <c r="E9" s="2" t="n"/>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="D12" s="3" t="n"/>
+      <c r="E12" s="3" t="n"/>
+      <c r="F12" s="3" t="inlineStr">
         <is>
           <t>intervention attribute</t>
         </is>
       </c>
-      <c r="G9" s="2" t="n"/>
-      <c r="H9" s="2" t="n"/>
-      <c r="I9" s="2" t="n"/>
-      <c r="J9" s="2" t="n"/>
-      <c r="K9" s="2" t="n"/>
-      <c r="L9" s="2" t="n"/>
-      <c r="M9" s="2" t="n"/>
-      <c r="N9" s="2" t="n"/>
-      <c r="O9" s="2" t="n"/>
-      <c r="P9" s="2" t="n"/>
-      <c r="Q9" s="2" t="n"/>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="S9" s="2" t="n"/>
-      <c r="T9" s="2" t="n"/>
-      <c r="U9" s="2" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="G12" s="3" t="n"/>
+      <c r="H12" s="3" t="n"/>
+      <c r="I12" s="3" t="n"/>
+      <c r="J12" s="3" t="n"/>
+      <c r="K12" s="3" t="n"/>
+      <c r="L12" s="3" t="n"/>
+      <c r="M12" s="3" t="n"/>
+      <c r="N12" s="3" t="n"/>
+      <c r="O12" s="3" t="n"/>
+      <c r="P12" s="3" t="n"/>
+      <c r="Q12" s="3" t="n"/>
+      <c r="R12" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="S12" s="3" t="n"/>
+      <c r="T12" s="3" t="n"/>
+      <c r="U12" s="3" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>BCIO:039000</t>
         </is>
       </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>intervention outcome</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C13" s="3" t="inlineStr">
         <is>
           <t>A process that is influenced by an intervention.</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr"/>
-      <c r="E10" s="2" t="inlineStr"/>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="D13" s="3" t="n"/>
+      <c r="E13" s="3" t="n"/>
+      <c r="F13" s="3" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr"/>
-      <c r="H10" s="2" t="inlineStr"/>
-      <c r="I10" s="2" t="inlineStr"/>
-      <c r="J10" s="2" t="inlineStr"/>
-      <c r="K10" s="2" t="inlineStr"/>
-      <c r="L10" s="2" t="inlineStr"/>
-      <c r="M10" s="2" t="inlineStr"/>
-      <c r="N10" s="2" t="inlineStr"/>
-      <c r="O10" s="2" t="inlineStr"/>
-      <c r="P10" s="2" t="inlineStr"/>
-      <c r="Q10" s="2" t="inlineStr"/>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="S10" s="2" t="inlineStr"/>
-      <c r="T10" s="2" t="inlineStr"/>
-      <c r="U10" s="2" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="G13" s="3" t="n"/>
+      <c r="H13" s="3" t="n"/>
+      <c r="I13" s="3" t="n"/>
+      <c r="J13" s="3" t="n"/>
+      <c r="K13" s="3" t="n"/>
+      <c r="L13" s="3" t="n"/>
+      <c r="M13" s="3" t="n"/>
+      <c r="N13" s="3" t="n"/>
+      <c r="O13" s="3" t="n"/>
+      <c r="P13" s="3" t="n"/>
+      <c r="Q13" s="3" t="n"/>
+      <c r="R13" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="S13" s="3" t="n"/>
+      <c r="T13" s="3" t="n"/>
+      <c r="U13" s="3" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>BCIO:015095</t>
         </is>
       </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="B14" s="3" t="inlineStr">
         <is>
           <t>intervention population</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t>A human population who are exposed to an intervention.</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr"/>
-      <c r="E11" s="2" t="inlineStr"/>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="D14" s="3" t="n"/>
+      <c r="E14" s="3" t="n"/>
+      <c r="F14" s="3" t="inlineStr">
         <is>
           <t>human population</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr"/>
-      <c r="H11" s="2" t="inlineStr"/>
-      <c r="I11" s="2" t="inlineStr"/>
-      <c r="J11" s="2" t="inlineStr"/>
-      <c r="K11" s="2" t="inlineStr"/>
-      <c r="L11" s="2" t="inlineStr">
+      <c r="G14" s="3" t="n"/>
+      <c r="H14" s="3" t="n"/>
+      <c r="I14" s="3" t="n"/>
+      <c r="J14" s="3" t="n"/>
+      <c r="K14" s="3" t="n"/>
+      <c r="L14" s="3" t="inlineStr">
         <is>
           <t>The definition of intervention population (A human population who are exposed to an intervention) does not imply an explicit assignment to an intervention arm. While some interventions will have study designs in which researchers explicitly assign participants to intervention and control groups, this is not the case for all interventions (e.g., policy changes or public health campaigns).</t>
         </is>
       </c>
-      <c r="M11" s="2" t="inlineStr"/>
-      <c r="N11" s="2" t="inlineStr"/>
-      <c r="O11" s="2" t="inlineStr"/>
-      <c r="P11" s="2" t="inlineStr"/>
-      <c r="Q11" s="2" t="inlineStr"/>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="S11" s="2" t="inlineStr"/>
-      <c r="T11" s="2" t="inlineStr"/>
-      <c r="U11" s="2" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="M14" s="3" t="n"/>
+      <c r="N14" s="3" t="n"/>
+      <c r="O14" s="3" t="n"/>
+      <c r="P14" s="3" t="n"/>
+      <c r="Q14" s="3" t="n"/>
+      <c r="R14" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="S14" s="3" t="n"/>
+      <c r="T14" s="3" t="n"/>
+      <c r="U14" s="3" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000245</t>
         </is>
       </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="B15" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">intervention schedule of delivery
 </t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">An intervention attribute that involves its temporal organisation.
 </t>
         </is>
       </c>
-      <c r="D12" s="2" t="n"/>
-      <c r="E12" s="2" t="n"/>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="D15" s="3" t="n"/>
+      <c r="E15" s="3" t="n"/>
+      <c r="F15" s="3" t="inlineStr">
         <is>
           <t>intervention attribute</t>
         </is>
       </c>
-      <c r="G12" s="2" t="n"/>
-      <c r="H12" s="2" t="n"/>
-      <c r="I12" s="2" t="n"/>
-      <c r="J12" s="2" t="n"/>
-      <c r="K12" s="2" t="n"/>
-      <c r="L12" s="2" t="inlineStr">
+      <c r="G15" s="3" t="n"/>
+      <c r="H15" s="3" t="n"/>
+      <c r="I15" s="3" t="n"/>
+      <c r="J15" s="3" t="n"/>
+      <c r="K15" s="3" t="n"/>
+      <c r="L15" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Temporal organisation includes different temporal dimensions, such as timing, frequency, duration and the sequence of activities.
 Intervention dose refers to the intensity or amount of an intervention, which is about the content of an intervention. In contrast, an intervention's schedule of delivery is about the temporal aspects of the intervention. There is some overlap between the entities "intervention dose" and "intervention schedule of delivery". For example, a more frequent intervention schedule with specific doses would suggest a higher overall dose of the intervention. However, "intervention dose" can capture concepts that are not directly relevant to the temporal organisation of the intervention, such as overall number of intervention strategies and drug dose.
 </t>
         </is>
       </c>
-      <c r="M12" s="2" t="n"/>
-      <c r="N12" s="2" t="n"/>
-      <c r="O12" s="2" t="n"/>
-      <c r="P12" s="2" t="n"/>
-      <c r="Q12" s="2" t="n"/>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="S12" s="2" t="n"/>
-      <c r="T12" s="2" t="n"/>
-      <c r="U12" s="2" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="M15" s="3" t="n"/>
+      <c r="N15" s="3" t="n"/>
+      <c r="O15" s="3" t="n"/>
+      <c r="P15" s="3" t="n"/>
+      <c r="Q15" s="3" t="n"/>
+      <c r="R15" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="S15" s="3" t="n"/>
+      <c r="T15" s="3" t="n"/>
+      <c r="U15" s="3" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000169</t>
         </is>
       </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="B16" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">intervention setting
 </t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C16" s="3" t="inlineStr">
         <is>
           <t>An aggregate of entities that form the environment in which an intervention is provided.</t>
         </is>
       </c>
-      <c r="D13" s="2" t="n"/>
-      <c r="E13" s="2" t="n"/>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="D16" s="3" t="n"/>
+      <c r="E16" s="3" t="n"/>
+      <c r="F16" s="3" t="inlineStr">
         <is>
           <t>object aggregate</t>
         </is>
       </c>
-      <c r="G13" s="2" t="n"/>
-      <c r="H13" s="2" t="n"/>
-      <c r="I13" s="2" t="n"/>
-      <c r="J13" s="2" t="n"/>
-      <c r="K13" s="2" t="n"/>
-      <c r="L13" s="2" t="n"/>
-      <c r="M13" s="2" t="n"/>
-      <c r="N13" s="2" t="inlineStr">
+      <c r="G16" s="3" t="n"/>
+      <c r="H16" s="3" t="n"/>
+      <c r="I16" s="3" t="n"/>
+      <c r="J16" s="3" t="n"/>
+      <c r="K16" s="3" t="n"/>
+      <c r="L16" s="3" t="n"/>
+      <c r="M16" s="3" t="n"/>
+      <c r="N16" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">BCIO:005000
 </t>
         </is>
       </c>
-      <c r="O13" s="2" t="n"/>
-      <c r="P13" s="2" t="n"/>
-      <c r="Q13" s="2" t="n"/>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="S13" s="2" t="n"/>
-      <c r="T13" s="2" t="n"/>
-      <c r="U13" s="2" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr">
+      <c r="O16" s="3" t="n"/>
+      <c r="P16" s="3" t="n"/>
+      <c r="Q16" s="3" t="n"/>
+      <c r="R16" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="S16" s="3" t="n"/>
+      <c r="T16" s="3" t="n"/>
+      <c r="U16" s="3" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000246</t>
         </is>
       </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="B17" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">intervention source
 </t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C17" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">A role played by a person, population or organisation that provides an intervention.
 </t>
         </is>
       </c>
-      <c r="D14" s="2" t="n"/>
-      <c r="E14" s="2" t="n"/>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="D17" s="3" t="n"/>
+      <c r="E17" s="3" t="n"/>
+      <c r="F17" s="3" t="inlineStr">
         <is>
           <t>role</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
+      <c r="G17" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">intervention provider
 </t>
         </is>
       </c>
-      <c r="H14" s="2" t="n"/>
-      <c r="I14" s="2" t="n"/>
-      <c r="J14" s="2" t="n"/>
-      <c r="K14" s="2" t="n"/>
-      <c r="L14" s="2" t="inlineStr">
+      <c r="H17" s="3" t="n"/>
+      <c r="I17" s="3" t="n"/>
+      <c r="J17" s="3" t="n"/>
+      <c r="K17" s="3" t="n"/>
+      <c r="L17" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">The entity “intervention source” has been defined to include a person, population or organisation, as these sources can be legally accountable for an intervention. A computer program or machine cannot be held accountable in the same way. Therefore, the organisation or people that provide the computer program or machine would be considered the intervention source, where relevant. When an intervention is delivered via a computer program (e.g., an app), this can be captured in the ontology through the relevant subclasses of "intervention mode of delivery".
 </t>
         </is>
       </c>
-      <c r="M14" s="2" t="n"/>
-      <c r="N14" s="2" t="n"/>
-      <c r="O14" s="2" t="n"/>
-      <c r="P14" s="2" t="n"/>
-      <c r="Q14" s="2" t="n"/>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="S14" s="2" t="n"/>
-      <c r="T14" s="2" t="n"/>
-      <c r="U14" s="2" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="inlineStr">
+      <c r="M17" s="3" t="n"/>
+      <c r="N17" s="3" t="n"/>
+      <c r="O17" s="3" t="n"/>
+      <c r="P17" s="3" t="n"/>
+      <c r="Q17" s="3" t="n"/>
+      <c r="R17" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="S17" s="3" t="n"/>
+      <c r="T17" s="3" t="n"/>
+      <c r="U17" s="3" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
         <is>
           <t>BCIO:044005</t>
         </is>
       </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="B18" s="3" t="inlineStr">
         <is>
           <t>intervention style of delivery</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C18" s="3" t="inlineStr">
         <is>
           <t>A communication style that is an attribute of an intervention content communication process.</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr"/>
-      <c r="E15" s="2" t="inlineStr"/>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="D18" s="3" t="n"/>
+      <c r="E18" s="3" t="n"/>
+      <c r="F18" s="3" t="inlineStr">
         <is>
           <t>communication style</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr"/>
-      <c r="H15" s="2" t="inlineStr"/>
-      <c r="I15" s="2" t="inlineStr"/>
-      <c r="J15" s="2" t="inlineStr"/>
-      <c r="K15" s="2" t="inlineStr"/>
-      <c r="L15" s="2" t="inlineStr">
+      <c r="G18" s="3" t="n"/>
+      <c r="H18" s="3" t="n"/>
+      <c r="I18" s="3" t="n"/>
+      <c r="J18" s="3" t="n"/>
+      <c r="K18" s="3" t="n"/>
+      <c r="L18" s="3" t="inlineStr">
         <is>
           <t>An intervention can include various different styles of delivery for different parts of the intervention.
 The definition of "intervention style of delivery" is based on two other entities, namely "communication style" and "intervention content communication process". Their definitions are presented below.
@@ -1214,552 +1349,724 @@
 intervention content communication process (BCIO:044001): A communication that transmits the content of an intervention Note that an intervention is a planned process with the aim of influencing some outcome whereas a behaviour change intervention is an intervention that aims to influence human behaviour as an outcome.</t>
         </is>
       </c>
-      <c r="M15" s="2" t="inlineStr"/>
-      <c r="N15" s="2" t="inlineStr"/>
-      <c r="O15" s="2" t="inlineStr"/>
-      <c r="P15" s="2" t="inlineStr"/>
-      <c r="Q15" s="2" t="inlineStr"/>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="S15" s="2" t="inlineStr"/>
-      <c r="T15" s="2" t="inlineStr"/>
-      <c r="U15" s="2" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="inlineStr">
+      <c r="M18" s="3" t="n"/>
+      <c r="N18" s="3" t="n"/>
+      <c r="O18" s="3" t="n"/>
+      <c r="P18" s="3" t="n"/>
+      <c r="Q18" s="3" t="n"/>
+      <c r="R18" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="S18" s="3" t="n"/>
+      <c r="T18" s="3" t="n"/>
+      <c r="U18" s="3" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000247</t>
         </is>
       </c>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="B19" s="3" t="inlineStr">
         <is>
           <t>intervention technique</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
+      <c r="C19" s="3" t="inlineStr">
         <is>
           <t>A planned process that is the smallest part of an intervention that is observable, replicable and on its own has the potential to influence an intervention outcome.</t>
         </is>
       </c>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="inlineStr">
+      <c r="D19" s="3" t="n"/>
+      <c r="E19" s="3" t="n"/>
+      <c r="F19" s="3" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="G16" s="2" t="n"/>
-      <c r="H16" s="2" t="n"/>
-      <c r="I16" s="2" t="n"/>
-      <c r="J16" s="2" t="n"/>
-      <c r="K16" s="2" t="n"/>
-      <c r="L16" s="2" t="n"/>
-      <c r="M16" s="2" t="n"/>
-      <c r="N16" s="2" t="n"/>
-      <c r="O16" s="2" t="n"/>
-      <c r="P16" s="2" t="n"/>
-      <c r="Q16" s="2" t="n"/>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="S16" s="2" t="n"/>
-      <c r="T16" s="2" t="n"/>
-      <c r="U16" s="2" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="inlineStr">
+      <c r="G19" s="3" t="n"/>
+      <c r="H19" s="3" t="n"/>
+      <c r="I19" s="3" t="n"/>
+      <c r="J19" s="3" t="n"/>
+      <c r="K19" s="3" t="n"/>
+      <c r="L19" s="3" t="n"/>
+      <c r="M19" s="3" t="n"/>
+      <c r="N19" s="3" t="n"/>
+      <c r="O19" s="3" t="n"/>
+      <c r="P19" s="3" t="n"/>
+      <c r="Q19" s="3" t="n"/>
+      <c r="R19" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="S19" s="3" t="n"/>
+      <c r="T19" s="3" t="n"/>
+      <c r="U19" s="3" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000254</t>
         </is>
       </c>
-      <c r="B17" s="2" t="inlineStr">
+      <c r="B20" s="3" t="inlineStr">
         <is>
           <t>intervention temporal context</t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr">
+      <c r="C20" s="3" t="inlineStr">
         <is>
           <t>The aggregate of processes taking place at the same time as an intervention.</t>
         </is>
       </c>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="D20" s="3" t="n"/>
+      <c r="E20" s="3" t="n"/>
+      <c r="F20" s="3" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="G17" s="2" t="n"/>
-      <c r="H17" s="2" t="n"/>
-      <c r="I17" s="2" t="n"/>
-      <c r="J17" s="2" t="n"/>
-      <c r="K17" s="2" t="n"/>
-      <c r="L17" s="2" t="n"/>
-      <c r="M17" s="2" t="n"/>
-      <c r="N17" s="2" t="inlineStr">
+      <c r="G20" s="3" t="n"/>
+      <c r="H20" s="3" t="n"/>
+      <c r="I20" s="3" t="n"/>
+      <c r="J20" s="3" t="n"/>
+      <c r="K20" s="3" t="n"/>
+      <c r="L20" s="3" t="n"/>
+      <c r="M20" s="3" t="n"/>
+      <c r="N20" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">BCIO:047000
 </t>
         </is>
       </c>
-      <c r="O17" s="2" t="n"/>
-      <c r="P17" s="2" t="n"/>
-      <c r="Q17" s="2" t="n"/>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="S17" s="2" t="n"/>
-      <c r="T17" s="2" t="n"/>
-      <c r="U17" s="2" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="inlineStr">
+      <c r="O20" s="3" t="n"/>
+      <c r="P20" s="3" t="n"/>
+      <c r="Q20" s="3" t="n"/>
+      <c r="R20" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="S20" s="3" t="n"/>
+      <c r="T20" s="3" t="n"/>
+      <c r="U20" s="3" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000248</t>
         </is>
       </c>
-      <c r="B18" s="2" t="inlineStr">
+      <c r="B21" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">mental health intervention
 </t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr">
+      <c r="C21" s="3" t="inlineStr">
         <is>
           <t>An intervention that has the aim of influencing some aspect of mental health.</t>
         </is>
       </c>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="inlineStr">
+      <c r="D21" s="3" t="n"/>
+      <c r="E21" s="3" t="n"/>
+      <c r="F21" s="3" t="inlineStr">
         <is>
           <t>intervention</t>
         </is>
       </c>
-      <c r="G18" s="2" t="n"/>
-      <c r="H18" s="2" t="n"/>
-      <c r="I18" s="2" t="n"/>
-      <c r="J18" s="2" t="n"/>
-      <c r="K18" s="2" t="n"/>
-      <c r="L18" s="2" t="inlineStr">
+      <c r="G21" s="3" t="n"/>
+      <c r="H21" s="3" t="n"/>
+      <c r="I21" s="3" t="n"/>
+      <c r="J21" s="3" t="n"/>
+      <c r="K21" s="3" t="n"/>
+      <c r="L21" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">The "mental health intervention scenario" entity captures a "mental health intervention" within a specific context, level of engagement and outcomes. Mental health interventions (represented as "mental health intervention") could be delivered in different contexts and/or have different outcomes at different times. For example, we could deliver the same intervention ("mental health intervention") two years after its previous delivery or in a different context ("mental health intervention scenario"), and this could lead to different outcomes. 
 </t>
         </is>
       </c>
-      <c r="M18" s="2" t="n"/>
-      <c r="N18" s="2" t="n"/>
-      <c r="O18" s="2" t="n"/>
-      <c r="P18" s="2" t="n"/>
-      <c r="Q18" s="2" t="n"/>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="S18" s="2" t="n"/>
-      <c r="T18" s="2" t="n"/>
-      <c r="U18" s="2" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="inlineStr">
+      <c r="M21" s="3" t="n"/>
+      <c r="N21" s="3" t="n"/>
+      <c r="O21" s="3" t="n"/>
+      <c r="P21" s="3" t="n"/>
+      <c r="Q21" s="3" t="n"/>
+      <c r="R21" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="S21" s="3" t="n"/>
+      <c r="T21" s="3" t="n"/>
+      <c r="U21" s="3" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000241</t>
         </is>
       </c>
-      <c r="B19" s="2" t="inlineStr">
+      <c r="B22" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">mental health intervention content
 </t>
         </is>
       </c>
-      <c r="C19" s="2" t="inlineStr">
+      <c r="C22" s="3" t="inlineStr">
         <is>
           <t>An intervention content that is part of a mental health intervention.</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
+      <c r="D22" s="3" t="inlineStr">
         <is>
           <t>Any intervention content delivered in the context of a mental health intervention.</t>
         </is>
       </c>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="inlineStr">
+      <c r="E22" s="3" t="n"/>
+      <c r="F22" s="3" t="inlineStr">
         <is>
           <t>intervention content</t>
         </is>
       </c>
-      <c r="G19" s="2" t="n"/>
-      <c r="H19" s="2" t="n"/>
-      <c r="I19" s="2" t="n"/>
-      <c r="J19" s="2" t="n"/>
-      <c r="K19" s="2" t="n"/>
-      <c r="L19" s="2" t="n"/>
-      <c r="M19" s="2" t="n"/>
-      <c r="N19" s="2" t="n"/>
-      <c r="O19" s="2" t="n"/>
-      <c r="P19" s="2" t="n"/>
-      <c r="Q19" s="2" t="n"/>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="S19" s="2" t="n"/>
-      <c r="T19" s="2" t="n"/>
-      <c r="U19" s="2" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="inlineStr">
+      <c r="G22" s="3" t="n"/>
+      <c r="H22" s="3" t="n"/>
+      <c r="I22" s="3" t="n"/>
+      <c r="J22" s="3" t="n"/>
+      <c r="K22" s="3" t="n"/>
+      <c r="L22" s="3" t="n"/>
+      <c r="M22" s="3" t="n"/>
+      <c r="N22" s="3" t="n"/>
+      <c r="O22" s="3" t="n"/>
+      <c r="P22" s="3" t="n"/>
+      <c r="Q22" s="3" t="n"/>
+      <c r="R22" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="S22" s="3" t="n"/>
+      <c r="T22" s="3" t="n"/>
+      <c r="U22" s="3" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000250</t>
         </is>
       </c>
-      <c r="B20" s="2" t="inlineStr">
+      <c r="B23" s="3" t="inlineStr">
         <is>
           <t>mental health intervention scenario</t>
         </is>
       </c>
-      <c r="C20" s="2" t="inlineStr">
+      <c r="C23" s="3" t="inlineStr">
         <is>
           <t>A planned process in which a mental health intervention is applied in a given context, including intervention engagement and outcome.</t>
         </is>
       </c>
-      <c r="D20" s="2" t="n"/>
-      <c r="E20" s="2" t="n"/>
-      <c r="F20" s="2" t="inlineStr">
+      <c r="D23" s="3" t="n"/>
+      <c r="E23" s="3" t="n"/>
+      <c r="F23" s="3" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="G20" s="2" t="n"/>
-      <c r="H20" s="2" t="n"/>
-      <c r="I20" s="2" t="n"/>
-      <c r="J20" s="2" t="n"/>
-      <c r="K20" s="2" t="n"/>
-      <c r="L20" s="2" t="inlineStr">
+      <c r="G23" s="3" t="n"/>
+      <c r="H23" s="3" t="n"/>
+      <c r="I23" s="3" t="n"/>
+      <c r="J23" s="3" t="n"/>
+      <c r="K23" s="3" t="n"/>
+      <c r="L23" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">The "mental health intervention scenario" entity captures a "mental health intervention" within a specific context, level of engagement and outcomes. Mental health interventions (represented as "mental health intervention") could be delivered in different contexts and/or have different outcomes at different times. For example, we could deliver the same intervention ("mental health intervention") two years after its previous delivery or in a different context ("mental health intervention scenario"), and this could lead to different outcomes. </t>
         </is>
       </c>
-      <c r="M20" s="2" t="n"/>
-      <c r="N20" s="2" t="n"/>
-      <c r="O20" s="2" t="n"/>
-      <c r="P20" s="2" t="inlineStr">
+      <c r="M23" s="3" t="n"/>
+      <c r="N23" s="3" t="n"/>
+      <c r="O23" s="3" t="n"/>
+      <c r="P23" s="3" t="inlineStr">
         <is>
           <t>planned</t>
         </is>
       </c>
-      <c r="Q20" s="2" t="n"/>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="S20" s="2" t="n"/>
-      <c r="T20" s="2" t="n"/>
-      <c r="U20" s="2" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="inlineStr">
+      <c r="Q23" s="3" t="n"/>
+      <c r="R23" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="S23" s="3" t="n"/>
+      <c r="T23" s="3" t="n"/>
+      <c r="U23" s="3" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000260</t>
         </is>
       </c>
-      <c r="B21" s="2" t="inlineStr">
+      <c r="B24" s="3" t="inlineStr">
         <is>
           <t>mental health intervention scenario plan</t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr">
+      <c r="C24" s="3" t="inlineStr">
         <is>
           <t>A plan that is realized in a mental health intervention scenario process.</t>
         </is>
       </c>
-      <c r="D21" s="2" t="n"/>
-      <c r="E21" s="2" t="n"/>
-      <c r="F21" s="2" t="inlineStr">
+      <c r="D24" s="3" t="n"/>
+      <c r="E24" s="3" t="n"/>
+      <c r="F24" s="3" t="inlineStr">
         <is>
           <t>plan</t>
         </is>
       </c>
-      <c r="G21" s="2" t="n"/>
-      <c r="H21" s="2" t="n"/>
-      <c r="I21" s="2" t="n"/>
-      <c r="J21" s="2" t="n"/>
-      <c r="K21" s="2" t="n"/>
-      <c r="L21" s="2" t="inlineStr">
+      <c r="G24" s="3" t="n"/>
+      <c r="H24" s="3" t="n"/>
+      <c r="I24" s="3" t="n"/>
+      <c r="J24" s="3" t="n"/>
+      <c r="K24" s="3" t="n"/>
+      <c r="L24" s="3" t="inlineStr">
         <is>
           <t>This entity is intended to represent the planned content or delivery of an intervention, whereas the entity "mental health intervention scenario" refers to the intervention as it was actually implemented. Distinguishing between these two entities allows for the assessment of intervention fidelity.</t>
         </is>
       </c>
-      <c r="M21" s="2" t="n"/>
-      <c r="N21" s="2" t="inlineStr">
+      <c r="M24" s="3" t="n"/>
+      <c r="N24" s="3" t="inlineStr">
         <is>
           <t>BCIO:028000</t>
         </is>
       </c>
-      <c r="O21" s="2" t="n"/>
-      <c r="P21" s="2" t="n"/>
-      <c r="Q21" s="2" t="n"/>
-      <c r="R21" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="S21" s="2" t="n"/>
-      <c r="T21" s="2" t="n"/>
-      <c r="U21" s="2" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050916</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>participant engagement with intervention</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>An individual human activity of an intervention participant within one or more parts of the intervention.</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>The extent to which someone interacts with an intervention, including their cognitive, emotional and behavioural response (e.g., attending intervention session) to the intervention itself.</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr"/>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>individual human activity</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr"/>
-      <c r="H22" s="2" t="inlineStr"/>
-      <c r="I22" s="2" t="inlineStr"/>
-      <c r="J22" s="2" t="inlineStr"/>
-      <c r="K22" s="2" t="inlineStr"/>
-      <c r="L22" s="2" t="inlineStr">
-        <is>
-          <t>Engagement can involve cognitive, emotional and behavioural engagement with an intervention.</t>
-        </is>
-      </c>
-      <c r="M22" s="2" t="inlineStr"/>
-      <c r="N22" s="2" t="inlineStr"/>
-      <c r="O22" s="2" t="inlineStr"/>
-      <c r="P22" s="2" t="inlineStr"/>
-      <c r="Q22" s="2" t="inlineStr"/>
-      <c r="R22" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="S22" s="2" t="inlineStr"/>
-      <c r="T22" s="2" t="inlineStr"/>
-      <c r="U22" s="2" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:015161</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>personal history</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>A history that is of a person.</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr"/>
-      <c r="E23" s="2" t="inlineStr"/>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>history</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr"/>
-      <c r="H23" s="2" t="inlineStr"/>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>sum of multiple experienced events</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr"/>
-      <c r="K23" s="2" t="inlineStr"/>
-      <c r="L23" s="2" t="inlineStr">
-        <is>
-          <t>A person's history includes the sum of their experiences, which can include experiences relating to their cultural, social and economic context.</t>
-        </is>
-      </c>
-      <c r="M23" s="2" t="inlineStr"/>
-      <c r="N23" s="2" t="inlineStr"/>
-      <c r="O23" s="2" t="inlineStr"/>
-      <c r="P23" s="2" t="inlineStr"/>
-      <c r="Q23" s="2" t="inlineStr"/>
-      <c r="R23" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="S23" s="2" t="inlineStr"/>
-      <c r="T23" s="2" t="inlineStr"/>
-      <c r="U23" s="2" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050487</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>personal history part</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>A process that is part of a personal history.</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr"/>
-      <c r="E24" s="2" t="inlineStr"/>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr"/>
-      <c r="H24" s="2" t="inlineStr"/>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>experienced event</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr"/>
-      <c r="K24" s="2" t="inlineStr"/>
-      <c r="L24" s="2" t="inlineStr"/>
-      <c r="M24" s="2" t="inlineStr"/>
-      <c r="N24" s="2" t="inlineStr"/>
-      <c r="O24" s="2" t="inlineStr"/>
-      <c r="P24" s="2" t="inlineStr"/>
-      <c r="Q24" s="2" t="inlineStr"/>
-      <c r="R24" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="S24" s="2" t="inlineStr"/>
-      <c r="T24" s="2" t="inlineStr"/>
-      <c r="U24" s="2" t="inlineStr"/>
+      <c r="O24" s="3" t="n"/>
+      <c r="P24" s="3" t="n"/>
+      <c r="Q24" s="3" t="n"/>
+      <c r="R24" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="S24" s="3" t="n"/>
+      <c r="T24" s="3" t="n"/>
+      <c r="U24" s="3" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
+          <t>BFO:0000027</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>object aggregate</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>b is an object aggregate means: b is a material entity consisting exactly of a plurality of objects as member_parts at all times at which b exists. (axiom label in BFO2 Reference: [025-004])</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr"/>
+      <c r="E25" s="2" t="inlineStr"/>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr"/>
+      <c r="H25" s="2" t="inlineStr"/>
+      <c r="I25" s="2" t="inlineStr"/>
+      <c r="J25" s="2" t="inlineStr"/>
+      <c r="K25" s="2" t="inlineStr"/>
+      <c r="L25" s="2" t="inlineStr"/>
+      <c r="M25" s="2" t="inlineStr"/>
+      <c r="N25" s="2" t="inlineStr"/>
+      <c r="O25" s="2" t="inlineStr"/>
+      <c r="P25" s="2" t="inlineStr"/>
+      <c r="Q25" s="2" t="inlineStr"/>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr"/>
+      <c r="T25" s="2" t="inlineStr"/>
+      <c r="U25" s="2" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050916</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>participant engagement with intervention</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>An individual human activity of an intervention participant within one or more parts of the intervention.</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>The extent to which someone interacts with an intervention, including their cognitive, emotional and behavioural response (e.g., attending intervention session) to the intervention itself.</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="n"/>
+      <c r="F26" s="3" t="inlineStr">
+        <is>
+          <t>individual human activity</t>
+        </is>
+      </c>
+      <c r="G26" s="3" t="n"/>
+      <c r="H26" s="3" t="n"/>
+      <c r="I26" s="3" t="n"/>
+      <c r="J26" s="3" t="n"/>
+      <c r="K26" s="3" t="n"/>
+      <c r="L26" s="3" t="inlineStr">
+        <is>
+          <t>Engagement can involve cognitive, emotional and behavioural engagement with an intervention.</t>
+        </is>
+      </c>
+      <c r="M26" s="3" t="n"/>
+      <c r="N26" s="3" t="n"/>
+      <c r="O26" s="3" t="n"/>
+      <c r="P26" s="3" t="n"/>
+      <c r="Q26" s="3" t="n"/>
+      <c r="R26" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="S26" s="3" t="n"/>
+      <c r="T26" s="3" t="n"/>
+      <c r="U26" s="3" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:015161</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>personal history</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>A history that is of a person.</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="n"/>
+      <c r="E27" s="3" t="n"/>
+      <c r="F27" s="3" t="inlineStr">
+        <is>
+          <t>history</t>
+        </is>
+      </c>
+      <c r="G27" s="3" t="n"/>
+      <c r="H27" s="3" t="n"/>
+      <c r="I27" s="3" t="inlineStr">
+        <is>
+          <t>sum of multiple experienced events</t>
+        </is>
+      </c>
+      <c r="J27" s="3" t="n"/>
+      <c r="K27" s="3" t="n"/>
+      <c r="L27" s="3" t="inlineStr">
+        <is>
+          <t>A person's history includes the sum of their experiences, which can include experiences relating to their cultural, social and economic context.</t>
+        </is>
+      </c>
+      <c r="M27" s="3" t="n"/>
+      <c r="N27" s="3" t="n"/>
+      <c r="O27" s="3" t="n"/>
+      <c r="P27" s="3" t="n"/>
+      <c r="Q27" s="3" t="n"/>
+      <c r="R27" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="S27" s="3" t="n"/>
+      <c r="T27" s="3" t="n"/>
+      <c r="U27" s="3" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050487</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>personal history part</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>A process that is part of a personal history.</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="n"/>
+      <c r="E28" s="3" t="n"/>
+      <c r="F28" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="G28" s="3" t="n"/>
+      <c r="H28" s="3" t="n"/>
+      <c r="I28" s="3" t="inlineStr">
+        <is>
+          <t>experienced event</t>
+        </is>
+      </c>
+      <c r="J28" s="3" t="n"/>
+      <c r="K28" s="3" t="n"/>
+      <c r="L28" s="3" t="n"/>
+      <c r="M28" s="3" t="n"/>
+      <c r="N28" s="3" t="n"/>
+      <c r="O28" s="3" t="n"/>
+      <c r="P28" s="3" t="n"/>
+      <c r="Q28" s="3" t="n"/>
+      <c r="R28" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="S28" s="3" t="n"/>
+      <c r="T28" s="3" t="n"/>
+      <c r="U28" s="3" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>OBI:0000011</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>planned process</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>A process that realizes a plan which is the concretization of a plan specification.</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr"/>
+      <c r="E29" s="2" t="inlineStr"/>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr"/>
+      <c r="H29" s="2" t="inlineStr"/>
+      <c r="I29" s="2" t="inlineStr"/>
+      <c r="J29" s="2" t="inlineStr"/>
+      <c r="K29" s="2" t="inlineStr"/>
+      <c r="L29" s="2" t="inlineStr"/>
+      <c r="M29" s="2" t="inlineStr"/>
+      <c r="N29" s="2" t="inlineStr"/>
+      <c r="O29" s="2" t="inlineStr"/>
+      <c r="P29" s="2" t="inlineStr"/>
+      <c r="Q29" s="2" t="inlineStr"/>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S29" s="2" t="inlineStr"/>
+      <c r="T29" s="2" t="inlineStr"/>
+      <c r="U29" s="2" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
           <t>GMHO:0000251</t>
         </is>
       </c>
-      <c r="B25" s="2" t="inlineStr">
+      <c r="B30" s="3" t="inlineStr">
         <is>
           <t>population history</t>
         </is>
       </c>
-      <c r="C25" s="2" t="inlineStr">
+      <c r="C30" s="3" t="inlineStr">
         <is>
           <t>A history that is of a population.</t>
         </is>
       </c>
-      <c r="D25" s="2" t="n"/>
-      <c r="E25" s="2" t="n"/>
-      <c r="F25" s="2" t="inlineStr">
+      <c r="D30" s="3" t="n"/>
+      <c r="E30" s="3" t="n"/>
+      <c r="F30" s="3" t="inlineStr">
         <is>
           <t>history</t>
         </is>
       </c>
-      <c r="G25" s="2" t="n"/>
-      <c r="H25" s="2" t="n"/>
-      <c r="I25" s="2" t="n"/>
-      <c r="J25" s="2" t="n"/>
-      <c r="K25" s="2" t="n"/>
-      <c r="L25" s="2" t="inlineStr">
+      <c r="G30" s="3" t="n"/>
+      <c r="H30" s="3" t="n"/>
+      <c r="I30" s="3" t="n"/>
+      <c r="J30" s="3" t="n"/>
+      <c r="K30" s="3" t="n"/>
+      <c r="L30" s="3" t="inlineStr">
         <is>
           <t>is an aggregate of personal history; experiences can be captured as 'personal history part'.</t>
         </is>
       </c>
-      <c r="M25" s="2" t="n"/>
-      <c r="N25" s="2" t="n"/>
-      <c r="O25" s="2" t="n"/>
-      <c r="P25" s="2" t="n"/>
-      <c r="Q25" s="2" t="n"/>
-      <c r="R25" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="S25" s="2" t="n"/>
-      <c r="T25" s="2" t="n"/>
-      <c r="U25" s="2" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="inlineStr">
+      <c r="M30" s="3" t="n"/>
+      <c r="N30" s="3" t="n"/>
+      <c r="O30" s="3" t="n"/>
+      <c r="P30" s="3" t="n"/>
+      <c r="Q30" s="3" t="n"/>
+      <c r="R30" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="S30" s="3" t="n"/>
+      <c r="T30" s="3" t="n"/>
+      <c r="U30" s="3" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>BFO:0000015</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>p is a process = Def. p is an occurrent that has temporal proper parts and for some time t, p s-depends_on some material entity at t. (axiom label in BFO2 Reference: [083-003])</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr"/>
+      <c r="E31" s="2" t="inlineStr"/>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>ocurrent</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr"/>
+      <c r="H31" s="2" t="inlineStr"/>
+      <c r="I31" s="2" t="inlineStr"/>
+      <c r="J31" s="2" t="inlineStr"/>
+      <c r="K31" s="2" t="inlineStr"/>
+      <c r="L31" s="2" t="inlineStr"/>
+      <c r="M31" s="2" t="inlineStr"/>
+      <c r="N31" s="2" t="inlineStr"/>
+      <c r="O31" s="2" t="inlineStr"/>
+      <c r="P31" s="2" t="inlineStr"/>
+      <c r="Q31" s="2" t="inlineStr"/>
+      <c r="R31" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S31" s="2" t="inlineStr"/>
+      <c r="T31" s="2" t="inlineStr"/>
+      <c r="U31" s="2" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000268</t>
         </is>
       </c>
-      <c r="B26" s="2" t="inlineStr">
+      <c r="B32" s="3" t="inlineStr">
         <is>
           <t>research study</t>
         </is>
       </c>
-      <c r="C26" s="2" t="inlineStr">
+      <c r="C32" s="3" t="inlineStr">
         <is>
           <t>A planned process that executes some study design or protocol to generate scientific data that is interpreted to test or generate a hypothesis.</t>
         </is>
       </c>
-      <c r="D26" s="2" t="n"/>
-      <c r="E26" s="2" t="n"/>
-      <c r="F26" s="2" t="inlineStr">
+      <c r="D32" s="3" t="n"/>
+      <c r="E32" s="3" t="n"/>
+      <c r="F32" s="3" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="G26" s="2" t="n"/>
-      <c r="H26" s="2" t="n"/>
-      <c r="I26" s="2" t="n"/>
-      <c r="J26" s="2" t="n"/>
-      <c r="K26" s="2" t="n"/>
-      <c r="L26" s="2" t="n"/>
-      <c r="M26" s="2" t="n"/>
-      <c r="N26" s="2" t="inlineStr">
+      <c r="G32" s="3" t="n"/>
+      <c r="H32" s="3" t="n"/>
+      <c r="I32" s="3" t="n"/>
+      <c r="J32" s="3" t="n"/>
+      <c r="K32" s="3" t="n"/>
+      <c r="L32" s="3" t="n"/>
+      <c r="M32" s="3" t="n"/>
+      <c r="N32" s="3" t="inlineStr">
         <is>
           <t>SEPIO:0000125</t>
         </is>
       </c>
-      <c r="O26" s="2" t="n"/>
-      <c r="P26" s="2" t="n"/>
-      <c r="Q26" s="2" t="n"/>
-      <c r="R26" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="S26" s="2" t="n"/>
-      <c r="T26" s="2" t="n"/>
-      <c r="U26" s="2" t="n"/>
+      <c r="O32" s="3" t="n"/>
+      <c r="P32" s="3" t="n"/>
+      <c r="Q32" s="3" t="n"/>
+      <c r="R32" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="S32" s="3" t="n"/>
+      <c r="T32" s="3" t="n"/>
+      <c r="U32" s="3" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>BFO:0000023</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>A realizable entity the manifestation of which brings about some result or end that is not essential to a continuant in virtue of the kind of thing that it is but that can be served or participated in by that kind of continuant in some kinds of natural, social or institutional contexts.</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr"/>
+      <c r="E33" s="2" t="inlineStr"/>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>realizable</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr"/>
+      <c r="H33" s="2" t="inlineStr"/>
+      <c r="I33" s="2" t="inlineStr"/>
+      <c r="J33" s="2" t="inlineStr"/>
+      <c r="K33" s="2" t="inlineStr"/>
+      <c r="L33" s="2" t="inlineStr"/>
+      <c r="M33" s="2" t="inlineStr"/>
+      <c r="N33" s="2" t="inlineStr"/>
+      <c r="O33" s="2" t="inlineStr"/>
+      <c r="P33" s="2" t="inlineStr"/>
+      <c r="Q33" s="2" t="inlineStr"/>
+      <c r="R33" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S33" s="2" t="inlineStr"/>
+      <c r="T33" s="2" t="inlineStr"/>
+      <c r="U33" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/UpperLevel/GMHO_Upper_Defs.xlsx
+++ b/UpperLevel/GMHO_Upper_Defs.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U33"/>
+  <dimension ref="A1:U38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,32 +561,32 @@
           <t>A particular manner of communicating aimed at inducing or avoiding certain kinds of responses in others, or demonstrating certain characteristics of the initiator.</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr"/>
-      <c r="E2" s="2" t="inlineStr"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
       <c r="F2" s="2" t="inlineStr">
         <is>
           <t>communication process attribute</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr"/>
-      <c r="H2" s="2" t="inlineStr"/>
-      <c r="I2" s="2" t="inlineStr"/>
-      <c r="J2" s="2" t="inlineStr"/>
-      <c r="K2" s="2" t="inlineStr"/>
-      <c r="L2" s="2" t="inlineStr"/>
-      <c r="M2" s="2" t="inlineStr"/>
-      <c r="N2" s="2" t="inlineStr"/>
-      <c r="O2" s="2" t="inlineStr"/>
-      <c r="P2" s="2" t="inlineStr"/>
-      <c r="Q2" s="2" t="inlineStr"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="2" t="n"/>
+      <c r="N2" s="2" t="n"/>
+      <c r="O2" s="2" t="n"/>
+      <c r="P2" s="2" t="n"/>
+      <c r="Q2" s="2" t="n"/>
       <c r="R2" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="S2" s="2" t="inlineStr"/>
-      <c r="T2" s="2" t="inlineStr"/>
-      <c r="U2" s="2" t="inlineStr"/>
+      <c r="S2" s="2" t="n"/>
+      <c r="T2" s="2" t="n"/>
+      <c r="U2" s="2" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
@@ -652,32 +652,32 @@
           <t>An object aggregate consisting of an organism and all material entities located within the organism, overlapping the organism, or occupying sites formed in part by the organism.</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr"/>
-      <c r="E4" s="2" t="inlineStr"/>
+      <c r="D4" s="2" t="n"/>
+      <c r="E4" s="2" t="n"/>
       <c r="F4" s="2" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr"/>
-      <c r="H4" s="2" t="inlineStr"/>
-      <c r="I4" s="2" t="inlineStr"/>
-      <c r="J4" s="2" t="inlineStr"/>
-      <c r="K4" s="2" t="inlineStr"/>
-      <c r="L4" s="2" t="inlineStr"/>
-      <c r="M4" s="2" t="inlineStr"/>
-      <c r="N4" s="2" t="inlineStr"/>
-      <c r="O4" s="2" t="inlineStr"/>
-      <c r="P4" s="2" t="inlineStr"/>
-      <c r="Q4" s="2" t="inlineStr"/>
+      <c r="G4" s="2" t="n"/>
+      <c r="H4" s="2" t="n"/>
+      <c r="I4" s="2" t="n"/>
+      <c r="J4" s="2" t="n"/>
+      <c r="K4" s="2" t="n"/>
+      <c r="L4" s="2" t="n"/>
+      <c r="M4" s="2" t="n"/>
+      <c r="N4" s="2" t="n"/>
+      <c r="O4" s="2" t="n"/>
+      <c r="P4" s="2" t="n"/>
+      <c r="Q4" s="2" t="n"/>
       <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="S4" s="2" t="inlineStr"/>
-      <c r="T4" s="2" t="inlineStr"/>
-      <c r="U4" s="2" t="inlineStr"/>
+      <c r="S4" s="2" t="n"/>
+      <c r="T4" s="2" t="n"/>
+      <c r="U4" s="2" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -695,32 +695,32 @@
           <t>A process that is the sum of the totality of processes taking place in the spatiotemporal region occupied by a material entity or site, including processes on the surface of the entity or within the cavities to which it serves as host.</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr"/>
-      <c r="E5" s="2" t="inlineStr"/>
+      <c r="D5" s="2" t="n"/>
+      <c r="E5" s="2" t="n"/>
       <c r="F5" s="2" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr"/>
-      <c r="H5" s="2" t="inlineStr"/>
-      <c r="I5" s="2" t="inlineStr"/>
-      <c r="J5" s="2" t="inlineStr"/>
-      <c r="K5" s="2" t="inlineStr"/>
-      <c r="L5" s="2" t="inlineStr"/>
-      <c r="M5" s="2" t="inlineStr"/>
-      <c r="N5" s="2" t="inlineStr"/>
-      <c r="O5" s="2" t="inlineStr"/>
-      <c r="P5" s="2" t="inlineStr"/>
-      <c r="Q5" s="2" t="inlineStr"/>
+      <c r="G5" s="2" t="n"/>
+      <c r="H5" s="2" t="n"/>
+      <c r="I5" s="2" t="n"/>
+      <c r="J5" s="2" t="n"/>
+      <c r="K5" s="2" t="n"/>
+      <c r="L5" s="2" t="n"/>
+      <c r="M5" s="2" t="n"/>
+      <c r="N5" s="2" t="n"/>
+      <c r="O5" s="2" t="n"/>
+      <c r="P5" s="2" t="n"/>
+      <c r="Q5" s="2" t="n"/>
       <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="S5" s="2" t="inlineStr"/>
-      <c r="T5" s="2" t="inlineStr"/>
-      <c r="U5" s="2" t="inlineStr"/>
+      <c r="S5" s="2" t="n"/>
+      <c r="T5" s="2" t="n"/>
+      <c r="U5" s="2" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
@@ -817,235 +817,203 @@
       <c r="U7" s="3" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:040000</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>individual human activity</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>A process that is produced by a person.</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr"/>
+      <c r="E8" s="2" t="inlineStr"/>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr"/>
+      <c r="H8" s="2" t="inlineStr"/>
+      <c r="I8" s="2" t="inlineStr"/>
+      <c r="J8" s="2" t="inlineStr"/>
+      <c r="K8" s="2" t="inlineStr"/>
+      <c r="L8" s="2" t="inlineStr"/>
+      <c r="M8" s="2" t="inlineStr"/>
+      <c r="N8" s="2" t="inlineStr"/>
+      <c r="O8" s="2" t="inlineStr"/>
+      <c r="P8" s="2" t="inlineStr"/>
+      <c r="Q8" s="2" t="inlineStr"/>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr"/>
+      <c r="T8" s="2" t="inlineStr"/>
+      <c r="U8" s="2" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:040000</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>individual human activity</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>A process that is produced by a person.</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr"/>
+      <c r="E9" s="2" t="inlineStr"/>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr"/>
+      <c r="H9" s="2" t="inlineStr"/>
+      <c r="I9" s="2" t="inlineStr"/>
+      <c r="J9" s="2" t="inlineStr"/>
+      <c r="K9" s="2" t="inlineStr"/>
+      <c r="L9" s="2" t="inlineStr"/>
+      <c r="M9" s="2" t="inlineStr"/>
+      <c r="N9" s="2" t="inlineStr"/>
+      <c r="O9" s="2" t="inlineStr"/>
+      <c r="P9" s="2" t="inlineStr"/>
+      <c r="Q9" s="2" t="inlineStr"/>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr"/>
+      <c r="T9" s="2" t="inlineStr"/>
+      <c r="U9" s="2" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:037000</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>intervention</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>A planned process that has the aim of influencing an outcome.</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr"/>
+      <c r="E10" s="2" t="inlineStr"/>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>planned process</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr"/>
+      <c r="H10" s="2" t="inlineStr"/>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>Examples of interventions are putting health warnings on cigarette packets, providing free stop smoking services and banning smoking in public places.</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr"/>
+      <c r="K10" s="2" t="inlineStr"/>
+      <c r="L10" s="2" t="inlineStr"/>
+      <c r="M10" s="2" t="inlineStr"/>
+      <c r="N10" s="2" t="inlineStr"/>
+      <c r="O10" s="2" t="inlineStr"/>
+      <c r="P10" s="2" t="inlineStr"/>
+      <c r="Q10" s="2" t="inlineStr"/>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr"/>
+      <c r="T10" s="2" t="inlineStr"/>
+      <c r="U10" s="2" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:046000</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>intervention content</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>A planned process that is part of an intervention and is intended to be causally active in influencing the intervention outcome.</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr"/>
+      <c r="E11" s="2" t="inlineStr"/>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>planned process</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr"/>
+      <c r="H11" s="2" t="inlineStr"/>
+      <c r="I11" s="2" t="inlineStr"/>
+      <c r="J11" s="2" t="inlineStr"/>
+      <c r="K11" s="2" t="inlineStr"/>
+      <c r="L11" s="2" t="inlineStr"/>
+      <c r="M11" s="2" t="inlineStr"/>
+      <c r="N11" s="2" t="inlineStr"/>
+      <c r="O11" s="2" t="inlineStr"/>
+      <c r="P11" s="2" t="inlineStr"/>
+      <c r="Q11" s="2" t="inlineStr"/>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr"/>
+      <c r="T11" s="2" t="inlineStr"/>
+      <c r="U11" s="2" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000253</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B12" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">intervention context
 </t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t>An object aggregate of entities that are not dependent on the intervention but may influence the effect of an intervention on its outcome.</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="n"/>
-      <c r="E8" s="3" t="n"/>
-      <c r="F8" s="3" t="inlineStr">
-        <is>
-          <t>object aggregate</t>
-        </is>
-      </c>
-      <c r="G8" s="3" t="n"/>
-      <c r="H8" s="3" t="n"/>
-      <c r="I8" s="3" t="n"/>
-      <c r="J8" s="3" t="n"/>
-      <c r="K8" s="3" t="n"/>
-      <c r="L8" s="3" t="n"/>
-      <c r="M8" s="3" t="n"/>
-      <c r="N8" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BCIO:005000
-</t>
-        </is>
-      </c>
-      <c r="O8" s="3" t="n"/>
-      <c r="P8" s="3" t="n"/>
-      <c r="Q8" s="3" t="n"/>
-      <c r="R8" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="S8" s="3" t="n"/>
-      <c r="T8" s="3" t="n"/>
-      <c r="U8" s="3" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:045000</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>intervention delivery</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>A planned process by which intervention content is delivered.</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>The planned process for delivering an intervention to its participants.</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="n"/>
-      <c r="F9" s="3" t="inlineStr">
-        <is>
-          <t>planned process</t>
-        </is>
-      </c>
-      <c r="G9" s="3" t="n"/>
-      <c r="H9" s="3" t="n"/>
-      <c r="I9" s="3" t="n"/>
-      <c r="J9" s="3" t="n"/>
-      <c r="K9" s="3" t="n"/>
-      <c r="L9" s="3" t="inlineStr">
-        <is>
-          <t>This class intends to represent the actual delivery of an intervention, whereas the class "mental health intervention scenario plan" refers to the planned intervention, including the planned delivery of an intervention. Distinguishing between these two classes allows for the assessment of intervention fidelity. To capture planned delivery, researchers could annotate both the class "intervention delivery" and "mental health intervention scenario plan".
-The definition of "intervention delivery" states that it is "a planned process by which intervention content is delivered," which refers to the actual execution of the intervention. This phrasing reflects that the intervention was designed and planned in advance before being implemented, thereby making it a "planned process".</t>
-        </is>
-      </c>
-      <c r="M9" s="3" t="n"/>
-      <c r="N9" s="3" t="n"/>
-      <c r="O9" s="3" t="n"/>
-      <c r="P9" s="3" t="n"/>
-      <c r="Q9" s="3" t="n"/>
-      <c r="R9" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="S9" s="3" t="n"/>
-      <c r="T9" s="3" t="n"/>
-      <c r="U9" s="3" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>GMHO:0000242</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">intervention dose
-</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>An intervention attribute that is its amount.</t>
-        </is>
-      </c>
-      <c r="D10" s="3" t="n"/>
-      <c r="E10" s="3" t="n"/>
-      <c r="F10" s="3" t="inlineStr">
-        <is>
-          <t>intervention attribute</t>
-        </is>
-      </c>
-      <c r="G10" s="3" t="n"/>
-      <c r="H10" s="3" t="n"/>
-      <c r="I10" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">drug dose and number of intervention techniques (e.g., action plans, social support)
-</t>
-        </is>
-      </c>
-      <c r="J10" s="3" t="n"/>
-      <c r="K10" s="3" t="n"/>
-      <c r="L10" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Intervention dose can capture the intensity of any intervention, including social, physical, psychological and pharmacological interventions.
-Intervention dose refers to the intensity or amount of an intervention, which is about the content of an intervention. In contrast, an intervention's schedule of delivery is about the temporal aspects of the intervention. There is some overlap between the entities "intervention dose" and "intervention schedule of delivery". For example, a more frequent intervention schedule with specific doses would suggest a higher overall dose of the intervention. However, "intervention dose" can capture concepts that are not directly relevant to the temporal organisation of the intervention, such as overall number of intervention strategies and drug dose. This class intends to represent the actual dose delivered as part of an intervention, whereas the class "mental health intervention scenario plan" refers to the planned intervention, including the planned dose of an intervention. Distinguishing between these two classes allows for the assessment of intervention fidelity. To capture planned dose, researchers could annotate both the class "intervention dose" and "mental health intervention scenario plan".
-</t>
-        </is>
-      </c>
-      <c r="M10" s="3" t="n"/>
-      <c r="N10" s="3" t="n"/>
-      <c r="O10" s="3" t="n"/>
-      <c r="P10" s="3" t="n"/>
-      <c r="Q10" s="3" t="n"/>
-      <c r="R10" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="S10" s="3" t="n"/>
-      <c r="T10" s="3" t="n"/>
-      <c r="U10" s="3" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>GMHO:0000199</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>intervention mechanism of action</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>A process that is causally active in the relationship between an intervention scenario and its intervention outcome.</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="n"/>
-      <c r="E11" s="3" t="n"/>
-      <c r="F11" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="G11" s="3" t="n"/>
-      <c r="H11" s="3" t="n"/>
-      <c r="I11" s="3" t="n"/>
-      <c r="J11" s="3" t="n"/>
-      <c r="K11" s="3" t="n"/>
-      <c r="L11" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">For a construct to be a mechanism of action, it must be causally active in bringing about the intervention’s effect on its outcome. However, interventions are typically designed based on hypothesised mechanisms of action, which may or may not hold true depending on factors such as behaviour type, population, and setting. 
-The ontology provides a structured framework for organising mechanisms of action but does not replace the need for empirical validation. The ontology does not specify the level of evidence required to confirm that a hypothesised mechanism has been realised. In other words, the ontology itself does not make causal inferences about specific mechanisms. 
-When using the ontology, researchers can code hypothesised mechanisms within the subclasses of “intervention mechanism of action”. The assessment of whether sufficient evidence supports a causal relationship occurs at the annotation level, where empirical data validate the connections between constructs. 
-The relationship between intervention techniques, mechanisms, and outcomes is often complex and non-linear. Multiple mechanisms of action may interact in various ways, including combinations, sequences, or feedback loops.
-</t>
-        </is>
-      </c>
-      <c r="M11" s="3" t="n"/>
-      <c r="N11" s="3" t="n"/>
-      <c r="O11" s="3" t="n"/>
-      <c r="P11" s="3" t="n"/>
-      <c r="Q11" s="3" t="n"/>
-      <c r="R11" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="S11" s="3" t="n"/>
-      <c r="T11" s="3" t="n"/>
-      <c r="U11" s="3" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="inlineStr">
-        <is>
-          <t>GMHO:0000244</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">intervention mode of delivery
-</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">An intervention attribute that is the physical or informational medium through which an intervention is provided.
-</t>
         </is>
       </c>
       <c r="D12" s="3" t="n"/>
       <c r="E12" s="3" t="n"/>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>intervention attribute</t>
+          <t>object aggregate</t>
         </is>
       </c>
       <c r="G12" s="3" t="n"/>
@@ -1055,7 +1023,12 @@
       <c r="K12" s="3" t="n"/>
       <c r="L12" s="3" t="n"/>
       <c r="M12" s="3" t="n"/>
-      <c r="N12" s="3" t="n"/>
+      <c r="N12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BCIO:005000
+</t>
+        </is>
+      </c>
       <c r="O12" s="3" t="n"/>
       <c r="P12" s="3" t="n"/>
       <c r="Q12" s="3" t="n"/>
@@ -1071,24 +1044,28 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>BCIO:039000</t>
+          <t>BCIO:045000</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>intervention outcome</t>
+          <t>intervention delivery</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>A process that is influenced by an intervention.</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="n"/>
+          <t>A planned process by which intervention content is delivered.</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>The planned process for delivering an intervention to its participants.</t>
+        </is>
+      </c>
       <c r="E13" s="3" t="n"/>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="G13" s="3" t="n"/>
@@ -1096,7 +1073,12 @@
       <c r="I13" s="3" t="n"/>
       <c r="J13" s="3" t="n"/>
       <c r="K13" s="3" t="n"/>
-      <c r="L13" s="3" t="n"/>
+      <c r="L13" s="3" t="inlineStr">
+        <is>
+          <t>This class intends to represent the actual delivery of an intervention, whereas the class "mental health intervention scenario plan" refers to the planned intervention, including the planned delivery of an intervention. Distinguishing between these two classes allows for the assessment of intervention fidelity. To capture planned delivery, researchers could annotate both the class "intervention delivery" and "mental health intervention scenario plan".
+The definition of "intervention delivery" states that it is "a planned process by which intervention content is delivered," which refers to the actual execution of the intervention. This phrasing reflects that the intervention was designed and planned in advance before being implemented, thereby making it a "planned process".</t>
+        </is>
+      </c>
       <c r="M13" s="3" t="n"/>
       <c r="N13" s="3" t="n"/>
       <c r="O13" s="3" t="n"/>
@@ -1114,34 +1096,42 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>BCIO:015095</t>
+          <t>GMHO:0000242</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>intervention population</t>
+          <t xml:space="preserve">intervention dose
+</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>A human population who are exposed to an intervention.</t>
+          <t>An intervention attribute that is its amount.</t>
         </is>
       </c>
       <c r="D14" s="3" t="n"/>
       <c r="E14" s="3" t="n"/>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>human population</t>
+          <t>intervention attribute</t>
         </is>
       </c>
       <c r="G14" s="3" t="n"/>
       <c r="H14" s="3" t="n"/>
-      <c r="I14" s="3" t="n"/>
+      <c r="I14" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">drug dose and number of intervention techniques (e.g., action plans, social support)
+</t>
+        </is>
+      </c>
       <c r="J14" s="3" t="n"/>
       <c r="K14" s="3" t="n"/>
       <c r="L14" s="3" t="inlineStr">
         <is>
-          <t>The definition of intervention population (A human population who are exposed to an intervention) does not imply an explicit assignment to an intervention arm. While some interventions will have study designs in which researchers explicitly assign participants to intervention and control groups, this is not the case for all interventions (e.g., policy changes or public health campaigns).</t>
+          <t xml:space="preserve">Intervention dose can capture the intensity of any intervention, including social, physical, psychological and pharmacological interventions.
+Intervention dose refers to the intensity or amount of an intervention, which is about the content of an intervention. In contrast, an intervention's schedule of delivery is about the temporal aspects of the intervention. There is some overlap between the entities "intervention dose" and "intervention schedule of delivery". For example, a more frequent intervention schedule with specific doses would suggest a higher overall dose of the intervention. However, "intervention dose" can capture concepts that are not directly relevant to the temporal organisation of the intervention, such as overall number of intervention strategies and drug dose. This class intends to represent the actual dose delivered as part of an intervention, whereas the class "mental health intervention scenario plan" refers to the planned intervention, including the planned dose of an intervention. Distinguishing between these two classes allows for the assessment of intervention fidelity. To capture planned dose, researchers could annotate both the class "intervention dose" and "mental health intervention scenario plan".
+</t>
         </is>
       </c>
       <c r="M14" s="3" t="n"/>
@@ -1161,26 +1151,24 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000245</t>
+          <t>GMHO:0000199</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">intervention schedule of delivery
-</t>
+          <t>intervention mechanism of action</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">An intervention attribute that involves its temporal organisation.
-</t>
+          <t>A process that is causally active in the relationship between an intervention scenario and its intervention outcome.</t>
         </is>
       </c>
       <c r="D15" s="3" t="n"/>
       <c r="E15" s="3" t="n"/>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>intervention attribute</t>
+          <t>process</t>
         </is>
       </c>
       <c r="G15" s="3" t="n"/>
@@ -1190,8 +1178,10 @@
       <c r="K15" s="3" t="n"/>
       <c r="L15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Temporal organisation includes different temporal dimensions, such as timing, frequency, duration and the sequence of activities.
-Intervention dose refers to the intensity or amount of an intervention, which is about the content of an intervention. In contrast, an intervention's schedule of delivery is about the temporal aspects of the intervention. There is some overlap between the entities "intervention dose" and "intervention schedule of delivery". For example, a more frequent intervention schedule with specific doses would suggest a higher overall dose of the intervention. However, "intervention dose" can capture concepts that are not directly relevant to the temporal organisation of the intervention, such as overall number of intervention strategies and drug dose.
+          <t xml:space="preserve">For a construct to be a mechanism of action, it must be causally active in bringing about the intervention’s effect on its outcome. However, interventions are typically designed based on hypothesised mechanisms of action, which may or may not hold true depending on factors such as behaviour type, population, and setting. 
+The ontology provides a structured framework for organising mechanisms of action but does not replace the need for empirical validation. The ontology does not specify the level of evidence required to confirm that a hypothesised mechanism has been realised. In other words, the ontology itself does not make causal inferences about specific mechanisms. 
+When using the ontology, researchers can code hypothesised mechanisms within the subclasses of “intervention mechanism of action”. The assessment of whether sufficient evidence supports a causal relationship occurs at the annotation level, where empirical data validate the connections between constructs. 
+The relationship between intervention techniques, mechanisms, and outcomes is often complex and non-linear. Multiple mechanisms of action may interact in various ways, including combinations, sequences, or feedback loops.
 </t>
         </is>
       </c>
@@ -1212,25 +1202,26 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000169</t>
+          <t>GMHO:0000244</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">intervention setting
+          <t xml:space="preserve">intervention mode of delivery
 </t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>An aggregate of entities that form the environment in which an intervention is provided.</t>
+          <t xml:space="preserve">An intervention attribute that is the physical or informational medium through which an intervention is provided.
+</t>
         </is>
       </c>
       <c r="D16" s="3" t="n"/>
       <c r="E16" s="3" t="n"/>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t>object aggregate</t>
+          <t>intervention attribute</t>
         </is>
       </c>
       <c r="G16" s="3" t="n"/>
@@ -1240,12 +1231,7 @@
       <c r="K16" s="3" t="n"/>
       <c r="L16" s="3" t="n"/>
       <c r="M16" s="3" t="n"/>
-      <c r="N16" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BCIO:005000
-</t>
-        </is>
-      </c>
+      <c r="N16" s="3" t="n"/>
       <c r="O16" s="3" t="n"/>
       <c r="P16" s="3" t="n"/>
       <c r="Q16" s="3" t="n"/>
@@ -1261,44 +1247,32 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000246</t>
+          <t>BCIO:039000</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">intervention source
-</t>
+          <t>intervention outcome</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A role played by a person, population or organisation that provides an intervention.
-</t>
+          <t>A process that is influenced by an intervention.</t>
         </is>
       </c>
       <c r="D17" s="3" t="n"/>
       <c r="E17" s="3" t="n"/>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>role</t>
-        </is>
-      </c>
-      <c r="G17" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">intervention provider
-</t>
-        </is>
-      </c>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="n"/>
       <c r="H17" s="3" t="n"/>
       <c r="I17" s="3" t="n"/>
       <c r="J17" s="3" t="n"/>
       <c r="K17" s="3" t="n"/>
-      <c r="L17" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The entity “intervention source” has been defined to include a person, population or organisation, as these sources can be legally accountable for an intervention. A computer program or machine cannot be held accountable in the same way. Therefore, the organisation or people that provide the computer program or machine would be considered the intervention source, where relevant. When an intervention is delivered via a computer program (e.g., an app), this can be captured in the ontology through the relevant subclasses of "intervention mode of delivery".
-</t>
-        </is>
-      </c>
+      <c r="L17" s="3" t="n"/>
       <c r="M17" s="3" t="n"/>
       <c r="N17" s="3" t="n"/>
       <c r="O17" s="3" t="n"/>
@@ -1316,24 +1290,24 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>BCIO:044005</t>
+          <t>BCIO:015095</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>intervention style of delivery</t>
+          <t>intervention population</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>A communication style that is an attribute of an intervention content communication process.</t>
+          <t>A human population who are exposed to an intervention.</t>
         </is>
       </c>
       <c r="D18" s="3" t="n"/>
       <c r="E18" s="3" t="n"/>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t>communication style</t>
+          <t>human population</t>
         </is>
       </c>
       <c r="G18" s="3" t="n"/>
@@ -1343,10 +1317,7 @@
       <c r="K18" s="3" t="n"/>
       <c r="L18" s="3" t="inlineStr">
         <is>
-          <t>An intervention can include various different styles of delivery for different parts of the intervention.
-The definition of "intervention style of delivery" is based on two other entities, namely "communication style" and "intervention content communication process". Their definitions are presented below.
-communication style (BCIO:044004): A particular manner of communicating aimed at inducing or avoiding certain kinds of responses in others, or demonstrating certain characteristics of the initiator.
-intervention content communication process (BCIO:044001): A communication that transmits the content of an intervention Note that an intervention is a planned process with the aim of influencing some outcome whereas a behaviour change intervention is an intervention that aims to influence human behaviour as an outcome.</t>
+          <t>The definition of intervention population (A human population who are exposed to an intervention) does not imply an explicit assignment to an intervention arm. While some interventions will have study designs in which researchers explicitly assign participants to intervention and control groups, this is not the case for all interventions (e.g., policy changes or public health campaigns).</t>
         </is>
       </c>
       <c r="M18" s="3" t="n"/>
@@ -1366,24 +1337,26 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000247</t>
+          <t>GMHO:0000245</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>intervention technique</t>
+          <t xml:space="preserve">intervention schedule of delivery
+</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>A planned process that is the smallest part of an intervention that is observable, replicable and on its own has the potential to influence an intervention outcome.</t>
+          <t xml:space="preserve">An intervention attribute that involves its temporal organisation.
+</t>
         </is>
       </c>
       <c r="D19" s="3" t="n"/>
       <c r="E19" s="3" t="n"/>
       <c r="F19" s="3" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>intervention attribute</t>
         </is>
       </c>
       <c r="G19" s="3" t="n"/>
@@ -1391,7 +1364,13 @@
       <c r="I19" s="3" t="n"/>
       <c r="J19" s="3" t="n"/>
       <c r="K19" s="3" t="n"/>
-      <c r="L19" s="3" t="n"/>
+      <c r="L19" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Temporal organisation includes different temporal dimensions, such as timing, frequency, duration and the sequence of activities.
+Intervention dose refers to the intensity or amount of an intervention, which is about the content of an intervention. In contrast, an intervention's schedule of delivery is about the temporal aspects of the intervention. There is some overlap between the entities "intervention dose" and "intervention schedule of delivery". For example, a more frequent intervention schedule with specific doses would suggest a higher overall dose of the intervention. However, "intervention dose" can capture concepts that are not directly relevant to the temporal organisation of the intervention, such as overall number of intervention strategies and drug dose.
+</t>
+        </is>
+      </c>
       <c r="M19" s="3" t="n"/>
       <c r="N19" s="3" t="n"/>
       <c r="O19" s="3" t="n"/>
@@ -1409,24 +1388,25 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000254</t>
+          <t>GMHO:0000169</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>intervention temporal context</t>
+          <t xml:space="preserve">intervention setting
+</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>The aggregate of processes taking place at the same time as an intervention.</t>
+          <t>An aggregate of entities that form the environment in which an intervention is provided.</t>
         </is>
       </c>
       <c r="D20" s="3" t="n"/>
       <c r="E20" s="3" t="n"/>
       <c r="F20" s="3" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>object aggregate</t>
         </is>
       </c>
       <c r="G20" s="3" t="n"/>
@@ -1438,7 +1418,7 @@
       <c r="M20" s="3" t="n"/>
       <c r="N20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">BCIO:047000
+          <t xml:space="preserve">BCIO:005000
 </t>
         </is>
       </c>
@@ -1457,35 +1437,41 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000248</t>
+          <t>GMHO:0000246</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">mental health intervention
+          <t xml:space="preserve">intervention source
 </t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>An intervention that has the aim of influencing some aspect of mental health.</t>
+          <t xml:space="preserve">A role played by a person, population or organisation that provides an intervention.
+</t>
         </is>
       </c>
       <c r="D21" s="3" t="n"/>
       <c r="E21" s="3" t="n"/>
       <c r="F21" s="3" t="inlineStr">
         <is>
-          <t>intervention</t>
-        </is>
-      </c>
-      <c r="G21" s="3" t="n"/>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="G21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">intervention provider
+</t>
+        </is>
+      </c>
       <c r="H21" s="3" t="n"/>
       <c r="I21" s="3" t="n"/>
       <c r="J21" s="3" t="n"/>
       <c r="K21" s="3" t="n"/>
       <c r="L21" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">The "mental health intervention scenario" entity captures a "mental health intervention" within a specific context, level of engagement and outcomes. Mental health interventions (represented as "mental health intervention") could be delivered in different contexts and/or have different outcomes at different times. For example, we could deliver the same intervention ("mental health intervention") two years after its previous delivery or in a different context ("mental health intervention scenario"), and this could lead to different outcomes. 
+          <t xml:space="preserve">The entity “intervention source” has been defined to include a person, population or organisation, as these sources can be legally accountable for an intervention. A computer program or machine cannot be held accountable in the same way. Therefore, the organisation or people that provide the computer program or machine would be considered the intervention source, where relevant. When an intervention is delivered via a computer program (e.g., an app), this can be captured in the ontology through the relevant subclasses of "intervention mode of delivery".
 </t>
         </is>
       </c>
@@ -1506,29 +1492,24 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000241</t>
+          <t>BCIO:044005</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">mental health intervention content
-</t>
+          <t>intervention style of delivery</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>An intervention content that is part of a mental health intervention.</t>
-        </is>
-      </c>
-      <c r="D22" s="3" t="inlineStr">
-        <is>
-          <t>Any intervention content delivered in the context of a mental health intervention.</t>
-        </is>
-      </c>
+          <t>A communication style that is an attribute of an intervention content communication process.</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="n"/>
       <c r="E22" s="3" t="n"/>
       <c r="F22" s="3" t="inlineStr">
         <is>
-          <t>intervention content</t>
+          <t>communication style</t>
         </is>
       </c>
       <c r="G22" s="3" t="n"/>
@@ -1536,7 +1517,14 @@
       <c r="I22" s="3" t="n"/>
       <c r="J22" s="3" t="n"/>
       <c r="K22" s="3" t="n"/>
-      <c r="L22" s="3" t="n"/>
+      <c r="L22" s="3" t="inlineStr">
+        <is>
+          <t>An intervention can include various different styles of delivery for different parts of the intervention.
+The definition of "intervention style of delivery" is based on two other entities, namely "communication style" and "intervention content communication process". Their definitions are presented below.
+communication style (BCIO:044004): A particular manner of communicating aimed at inducing or avoiding certain kinds of responses in others, or demonstrating certain characteristics of the initiator.
+intervention content communication process (BCIO:044001): A communication that transmits the content of an intervention Note that an intervention is a planned process with the aim of influencing some outcome whereas a behaviour change intervention is an intervention that aims to influence human behaviour as an outcome.</t>
+        </is>
+      </c>
       <c r="M22" s="3" t="n"/>
       <c r="N22" s="3" t="n"/>
       <c r="O22" s="3" t="n"/>
@@ -1554,17 +1542,17 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000250</t>
+          <t>GMHO:0000247</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>mental health intervention scenario</t>
+          <t>intervention technique</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>A planned process in which a mental health intervention is applied in a given context, including intervention engagement and outcome.</t>
+          <t>A planned process that is the smallest part of an intervention that is observable, replicable and on its own has the potential to influence an intervention outcome.</t>
         </is>
       </c>
       <c r="D23" s="3" t="n"/>
@@ -1579,19 +1567,11 @@
       <c r="I23" s="3" t="n"/>
       <c r="J23" s="3" t="n"/>
       <c r="K23" s="3" t="n"/>
-      <c r="L23" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The "mental health intervention scenario" entity captures a "mental health intervention" within a specific context, level of engagement and outcomes. Mental health interventions (represented as "mental health intervention") could be delivered in different contexts and/or have different outcomes at different times. For example, we could deliver the same intervention ("mental health intervention") two years after its previous delivery or in a different context ("mental health intervention scenario"), and this could lead to different outcomes. </t>
-        </is>
-      </c>
+      <c r="L23" s="3" t="n"/>
       <c r="M23" s="3" t="n"/>
       <c r="N23" s="3" t="n"/>
       <c r="O23" s="3" t="n"/>
-      <c r="P23" s="3" t="inlineStr">
-        <is>
-          <t>planned</t>
-        </is>
-      </c>
+      <c r="P23" s="3" t="n"/>
       <c r="Q23" s="3" t="n"/>
       <c r="R23" s="3" t="inlineStr">
         <is>
@@ -1605,24 +1585,24 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000260</t>
+          <t>GMHO:0000254</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>mental health intervention scenario plan</t>
+          <t>intervention temporal context</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>A plan that is realized in a mental health intervention scenario process.</t>
+          <t>The aggregate of processes taking place at the same time as an intervention.</t>
         </is>
       </c>
       <c r="D24" s="3" t="n"/>
       <c r="E24" s="3" t="n"/>
       <c r="F24" s="3" t="inlineStr">
         <is>
-          <t>plan</t>
+          <t>process</t>
         </is>
       </c>
       <c r="G24" s="3" t="n"/>
@@ -1630,15 +1610,12 @@
       <c r="I24" s="3" t="n"/>
       <c r="J24" s="3" t="n"/>
       <c r="K24" s="3" t="n"/>
-      <c r="L24" s="3" t="inlineStr">
-        <is>
-          <t>This entity is intended to represent the planned content or delivery of an intervention, whereas the entity "mental health intervention scenario" refers to the intervention as it was actually implemented. Distinguishing between these two entities allows for the assessment of intervention fidelity.</t>
-        </is>
-      </c>
+      <c r="L24" s="3" t="n"/>
       <c r="M24" s="3" t="n"/>
       <c r="N24" s="3" t="inlineStr">
         <is>
-          <t>BCIO:028000</t>
+          <t xml:space="preserve">BCIO:047000
+</t>
         </is>
       </c>
       <c r="O24" s="3" t="n"/>
@@ -1654,73 +1631,80 @@
       <c r="U24" s="3" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>BFO:0000027</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>object aggregate</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>b is an object aggregate means: b is a material entity consisting exactly of a plurality of objects as member_parts at all times at which b exists. (axiom label in BFO2 Reference: [025-004])</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr"/>
-      <c r="E25" s="2" t="inlineStr"/>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>material entity</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr"/>
-      <c r="H25" s="2" t="inlineStr"/>
-      <c r="I25" s="2" t="inlineStr"/>
-      <c r="J25" s="2" t="inlineStr"/>
-      <c r="K25" s="2" t="inlineStr"/>
-      <c r="L25" s="2" t="inlineStr"/>
-      <c r="M25" s="2" t="inlineStr"/>
-      <c r="N25" s="2" t="inlineStr"/>
-      <c r="O25" s="2" t="inlineStr"/>
-      <c r="P25" s="2" t="inlineStr"/>
-      <c r="Q25" s="2" t="inlineStr"/>
-      <c r="R25" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S25" s="2" t="inlineStr"/>
-      <c r="T25" s="2" t="inlineStr"/>
-      <c r="U25" s="2" t="inlineStr"/>
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000248</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">mental health intervention
+</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>An intervention that has the aim of influencing some aspect of mental health.</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="n"/>
+      <c r="E25" s="3" t="n"/>
+      <c r="F25" s="3" t="inlineStr">
+        <is>
+          <t>intervention</t>
+        </is>
+      </c>
+      <c r="G25" s="3" t="n"/>
+      <c r="H25" s="3" t="n"/>
+      <c r="I25" s="3" t="n"/>
+      <c r="J25" s="3" t="n"/>
+      <c r="K25" s="3" t="n"/>
+      <c r="L25" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The "mental health intervention scenario" entity captures a "mental health intervention" within a specific context, level of engagement and outcomes. Mental health interventions (represented as "mental health intervention") could be delivered in different contexts and/or have different outcomes at different times. For example, we could deliver the same intervention ("mental health intervention") two years after its previous delivery or in a different context ("mental health intervention scenario"), and this could lead to different outcomes. 
+</t>
+        </is>
+      </c>
+      <c r="M25" s="3" t="n"/>
+      <c r="N25" s="3" t="n"/>
+      <c r="O25" s="3" t="n"/>
+      <c r="P25" s="3" t="n"/>
+      <c r="Q25" s="3" t="n"/>
+      <c r="R25" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="S25" s="3" t="n"/>
+      <c r="T25" s="3" t="n"/>
+      <c r="U25" s="3" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050916</t>
+          <t>GMHO:0000241</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>participant engagement with intervention</t>
+          <t xml:space="preserve">mental health intervention content
+</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>An individual human activity of an intervention participant within one or more parts of the intervention.</t>
+          <t>An intervention content that is part of a mental health intervention.</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>The extent to which someone interacts with an intervention, including their cognitive, emotional and behavioural response (e.g., attending intervention session) to the intervention itself.</t>
+          <t>Any intervention content delivered in the context of a mental health intervention.</t>
         </is>
       </c>
       <c r="E26" s="3" t="n"/>
       <c r="F26" s="3" t="inlineStr">
         <is>
-          <t>individual human activity</t>
+          <t>intervention content</t>
         </is>
       </c>
       <c r="G26" s="3" t="n"/>
@@ -1728,11 +1712,7 @@
       <c r="I26" s="3" t="n"/>
       <c r="J26" s="3" t="n"/>
       <c r="K26" s="3" t="n"/>
-      <c r="L26" s="3" t="inlineStr">
-        <is>
-          <t>Engagement can involve cognitive, emotional and behavioural engagement with an intervention.</t>
-        </is>
-      </c>
+      <c r="L26" s="3" t="n"/>
       <c r="M26" s="3" t="n"/>
       <c r="N26" s="3" t="n"/>
       <c r="O26" s="3" t="n"/>
@@ -1750,44 +1730,44 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>BCIO:015161</t>
+          <t>GMHO:0000250</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>personal history</t>
+          <t>mental health intervention scenario</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>A history that is of a person.</t>
+          <t>A planned process in which a mental health intervention is applied in a given context, including intervention engagement and outcome.</t>
         </is>
       </c>
       <c r="D27" s="3" t="n"/>
       <c r="E27" s="3" t="n"/>
       <c r="F27" s="3" t="inlineStr">
         <is>
-          <t>history</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="G27" s="3" t="n"/>
       <c r="H27" s="3" t="n"/>
-      <c r="I27" s="3" t="inlineStr">
-        <is>
-          <t>sum of multiple experienced events</t>
-        </is>
-      </c>
+      <c r="I27" s="3" t="n"/>
       <c r="J27" s="3" t="n"/>
       <c r="K27" s="3" t="n"/>
       <c r="L27" s="3" t="inlineStr">
         <is>
-          <t>A person's history includes the sum of their experiences, which can include experiences relating to their cultural, social and economic context.</t>
+          <t xml:space="preserve">The "mental health intervention scenario" entity captures a "mental health intervention" within a specific context, level of engagement and outcomes. Mental health interventions (represented as "mental health intervention") could be delivered in different contexts and/or have different outcomes at different times. For example, we could deliver the same intervention ("mental health intervention") two years after its previous delivery or in a different context ("mental health intervention scenario"), and this could lead to different outcomes. </t>
         </is>
       </c>
       <c r="M27" s="3" t="n"/>
       <c r="N27" s="3" t="n"/>
       <c r="O27" s="3" t="n"/>
-      <c r="P27" s="3" t="n"/>
+      <c r="P27" s="3" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
       <c r="Q27" s="3" t="n"/>
       <c r="R27" s="3" t="inlineStr">
         <is>
@@ -1801,38 +1781,42 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050487</t>
+          <t>GMHO:0000260</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>personal history part</t>
+          <t>mental health intervention scenario plan</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>A process that is part of a personal history.</t>
+          <t>A plan that is realized in a mental health intervention scenario process.</t>
         </is>
       </c>
       <c r="D28" s="3" t="n"/>
       <c r="E28" s="3" t="n"/>
       <c r="F28" s="3" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>plan</t>
         </is>
       </c>
       <c r="G28" s="3" t="n"/>
       <c r="H28" s="3" t="n"/>
-      <c r="I28" s="3" t="inlineStr">
-        <is>
-          <t>experienced event</t>
-        </is>
-      </c>
+      <c r="I28" s="3" t="n"/>
       <c r="J28" s="3" t="n"/>
       <c r="K28" s="3" t="n"/>
-      <c r="L28" s="3" t="n"/>
+      <c r="L28" s="3" t="inlineStr">
+        <is>
+          <t>This entity is intended to represent the planned content or delivery of an intervention, whereas the entity "mental health intervention scenario" refers to the intervention as it was actually implemented. Distinguishing between these two entities allows for the assessment of intervention fidelity.</t>
+        </is>
+      </c>
       <c r="M28" s="3" t="n"/>
-      <c r="N28" s="3" t="n"/>
+      <c r="N28" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:028000</t>
+        </is>
+      </c>
       <c r="O28" s="3" t="n"/>
       <c r="P28" s="3" t="n"/>
       <c r="Q28" s="3" t="n"/>
@@ -1848,67 +1832,71 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>OBI:0000011</t>
+          <t>BFO:0000027</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>object aggregate</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>A process that realizes a plan which is the concretization of a plan specification.</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr"/>
-      <c r="E29" s="2" t="inlineStr"/>
+          <t>b is an object aggregate means: b is a material entity consisting exactly of a plurality of objects as member_parts at all times at which b exists. (axiom label in BFO2 Reference: [025-004])</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="n"/>
+      <c r="E29" s="2" t="n"/>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="G29" s="2" t="inlineStr"/>
-      <c r="H29" s="2" t="inlineStr"/>
-      <c r="I29" s="2" t="inlineStr"/>
-      <c r="J29" s="2" t="inlineStr"/>
-      <c r="K29" s="2" t="inlineStr"/>
-      <c r="L29" s="2" t="inlineStr"/>
-      <c r="M29" s="2" t="inlineStr"/>
-      <c r="N29" s="2" t="inlineStr"/>
-      <c r="O29" s="2" t="inlineStr"/>
-      <c r="P29" s="2" t="inlineStr"/>
-      <c r="Q29" s="2" t="inlineStr"/>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="n"/>
+      <c r="H29" s="2" t="n"/>
+      <c r="I29" s="2" t="n"/>
+      <c r="J29" s="2" t="n"/>
+      <c r="K29" s="2" t="n"/>
+      <c r="L29" s="2" t="n"/>
+      <c r="M29" s="2" t="n"/>
+      <c r="N29" s="2" t="n"/>
+      <c r="O29" s="2" t="n"/>
+      <c r="P29" s="2" t="n"/>
+      <c r="Q29" s="2" t="n"/>
       <c r="R29" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="S29" s="2" t="inlineStr"/>
-      <c r="T29" s="2" t="inlineStr"/>
-      <c r="U29" s="2" t="inlineStr"/>
+      <c r="S29" s="2" t="n"/>
+      <c r="T29" s="2" t="n"/>
+      <c r="U29" s="2" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000251</t>
+          <t>BCIO:050916</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>population history</t>
+          <t>participant engagement with intervention</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>A history that is of a population.</t>
-        </is>
-      </c>
-      <c r="D30" s="3" t="n"/>
+          <t>An individual human activity of an intervention participant within one or more parts of the intervention.</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="inlineStr">
+        <is>
+          <t>The extent to which someone interacts with an intervention, including their cognitive, emotional and behavioural response (e.g., attending intervention session) to the intervention itself.</t>
+        </is>
+      </c>
       <c r="E30" s="3" t="n"/>
       <c r="F30" s="3" t="inlineStr">
         <is>
-          <t>history</t>
+          <t>individual human activity</t>
         </is>
       </c>
       <c r="G30" s="3" t="n"/>
@@ -1918,7 +1906,7 @@
       <c r="K30" s="3" t="n"/>
       <c r="L30" s="3" t="inlineStr">
         <is>
-          <t>is an aggregate of personal history; experiences can be captured as 'personal history part'.</t>
+          <t>Engagement can involve cognitive, emotional and behavioural engagement with an intervention.</t>
         </is>
       </c>
       <c r="M30" s="3" t="n"/>
@@ -1936,83 +1924,91 @@
       <c r="U30" s="3" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="inlineStr">
-        <is>
-          <t>BFO:0000015</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>p is a process = Def. p is an occurrent that has temporal proper parts and for some time t, p s-depends_on some material entity at t. (axiom label in BFO2 Reference: [083-003])</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr"/>
-      <c r="E31" s="2" t="inlineStr"/>
-      <c r="F31" s="2" t="inlineStr">
-        <is>
-          <t>ocurrent</t>
-        </is>
-      </c>
-      <c r="G31" s="2" t="inlineStr"/>
-      <c r="H31" s="2" t="inlineStr"/>
-      <c r="I31" s="2" t="inlineStr"/>
-      <c r="J31" s="2" t="inlineStr"/>
-      <c r="K31" s="2" t="inlineStr"/>
-      <c r="L31" s="2" t="inlineStr"/>
-      <c r="M31" s="2" t="inlineStr"/>
-      <c r="N31" s="2" t="inlineStr"/>
-      <c r="O31" s="2" t="inlineStr"/>
-      <c r="P31" s="2" t="inlineStr"/>
-      <c r="Q31" s="2" t="inlineStr"/>
-      <c r="R31" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S31" s="2" t="inlineStr"/>
-      <c r="T31" s="2" t="inlineStr"/>
-      <c r="U31" s="2" t="inlineStr"/>
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:015161</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>personal history</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>A history that is of a person.</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="n"/>
+      <c r="E31" s="3" t="n"/>
+      <c r="F31" s="3" t="inlineStr">
+        <is>
+          <t>history</t>
+        </is>
+      </c>
+      <c r="G31" s="3" t="n"/>
+      <c r="H31" s="3" t="n"/>
+      <c r="I31" s="3" t="inlineStr">
+        <is>
+          <t>sum of multiple experienced events</t>
+        </is>
+      </c>
+      <c r="J31" s="3" t="n"/>
+      <c r="K31" s="3" t="n"/>
+      <c r="L31" s="3" t="inlineStr">
+        <is>
+          <t>A person's history includes the sum of their experiences, which can include experiences relating to their cultural, social and economic context.</t>
+        </is>
+      </c>
+      <c r="M31" s="3" t="n"/>
+      <c r="N31" s="3" t="n"/>
+      <c r="O31" s="3" t="n"/>
+      <c r="P31" s="3" t="n"/>
+      <c r="Q31" s="3" t="n"/>
+      <c r="R31" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="S31" s="3" t="n"/>
+      <c r="T31" s="3" t="n"/>
+      <c r="U31" s="3" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000268</t>
+          <t>BCIO:050487</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>research study</t>
+          <t>personal history part</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>A planned process that executes some study design or protocol to generate scientific data that is interpreted to test or generate a hypothesis.</t>
+          <t>A process that is part of a personal history.</t>
         </is>
       </c>
       <c r="D32" s="3" t="n"/>
       <c r="E32" s="3" t="n"/>
       <c r="F32" s="3" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>process</t>
         </is>
       </c>
       <c r="G32" s="3" t="n"/>
       <c r="H32" s="3" t="n"/>
-      <c r="I32" s="3" t="n"/>
+      <c r="I32" s="3" t="inlineStr">
+        <is>
+          <t>experienced event</t>
+        </is>
+      </c>
       <c r="J32" s="3" t="n"/>
       <c r="K32" s="3" t="n"/>
       <c r="L32" s="3" t="n"/>
       <c r="M32" s="3" t="n"/>
-      <c r="N32" s="3" t="inlineStr">
-        <is>
-          <t>SEPIO:0000125</t>
-        </is>
-      </c>
+      <c r="N32" s="3" t="n"/>
       <c r="O32" s="3" t="n"/>
       <c r="P32" s="3" t="n"/>
       <c r="Q32" s="3" t="n"/>
@@ -2028,17 +2024,17 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>BFO:0000023</t>
+          <t>OBI:0000260</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>plan</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>A realizable entity the manifestation of which brings about some result or end that is not essential to a continuant in virtue of the kind of thing that it is but that can be served or participated in by that kind of continuant in some kinds of natural, social or institutional contexts.</t>
+          <t>A plan is a realizable entity that is the inheres in a bearer who is committed to realizing it as a planned process.</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr"/>
@@ -2068,6 +2064,229 @@
       <c r="T33" s="2" t="inlineStr"/>
       <c r="U33" s="2" t="inlineStr"/>
     </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>OBI:0000011</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>planned process</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>A process that realizes a plan which is the concretization of a plan specification.</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="n"/>
+      <c r="E34" s="2" t="n"/>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="n"/>
+      <c r="H34" s="2" t="n"/>
+      <c r="I34" s="2" t="n"/>
+      <c r="J34" s="2" t="n"/>
+      <c r="K34" s="2" t="n"/>
+      <c r="L34" s="2" t="n"/>
+      <c r="M34" s="2" t="n"/>
+      <c r="N34" s="2" t="n"/>
+      <c r="O34" s="2" t="n"/>
+      <c r="P34" s="2" t="n"/>
+      <c r="Q34" s="2" t="n"/>
+      <c r="R34" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S34" s="2" t="n"/>
+      <c r="T34" s="2" t="n"/>
+      <c r="U34" s="2" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000251</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>population history</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>A history that is of a population.</t>
+        </is>
+      </c>
+      <c r="D35" s="3" t="n"/>
+      <c r="E35" s="3" t="n"/>
+      <c r="F35" s="3" t="inlineStr">
+        <is>
+          <t>history</t>
+        </is>
+      </c>
+      <c r="G35" s="3" t="n"/>
+      <c r="H35" s="3" t="n"/>
+      <c r="I35" s="3" t="n"/>
+      <c r="J35" s="3" t="n"/>
+      <c r="K35" s="3" t="n"/>
+      <c r="L35" s="3" t="inlineStr">
+        <is>
+          <t>is an aggregate of personal history; experiences can be captured as 'personal history part'.</t>
+        </is>
+      </c>
+      <c r="M35" s="3" t="n"/>
+      <c r="N35" s="3" t="n"/>
+      <c r="O35" s="3" t="n"/>
+      <c r="P35" s="3" t="n"/>
+      <c r="Q35" s="3" t="n"/>
+      <c r="R35" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="S35" s="3" t="n"/>
+      <c r="T35" s="3" t="n"/>
+      <c r="U35" s="3" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>BFO:0000015</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>p is a process = Def. p is an occurrent that has temporal proper parts and for some time t, p s-depends_on some material entity at t. (axiom label in BFO2 Reference: [083-003])</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="n"/>
+      <c r="E36" s="2" t="n"/>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>ocurrent</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="n"/>
+      <c r="H36" s="2" t="n"/>
+      <c r="I36" s="2" t="n"/>
+      <c r="J36" s="2" t="n"/>
+      <c r="K36" s="2" t="n"/>
+      <c r="L36" s="2" t="n"/>
+      <c r="M36" s="2" t="n"/>
+      <c r="N36" s="2" t="n"/>
+      <c r="O36" s="2" t="n"/>
+      <c r="P36" s="2" t="n"/>
+      <c r="Q36" s="2" t="n"/>
+      <c r="R36" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S36" s="2" t="n"/>
+      <c r="T36" s="2" t="n"/>
+      <c r="U36" s="2" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000268</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>research study</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>A planned process that executes some study design or protocol to generate scientific data that is interpreted to test or generate a hypothesis.</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="n"/>
+      <c r="E37" s="3" t="n"/>
+      <c r="F37" s="3" t="inlineStr">
+        <is>
+          <t>planned process</t>
+        </is>
+      </c>
+      <c r="G37" s="3" t="n"/>
+      <c r="H37" s="3" t="n"/>
+      <c r="I37" s="3" t="n"/>
+      <c r="J37" s="3" t="n"/>
+      <c r="K37" s="3" t="n"/>
+      <c r="L37" s="3" t="n"/>
+      <c r="M37" s="3" t="n"/>
+      <c r="N37" s="3" t="inlineStr">
+        <is>
+          <t>SEPIO:0000125</t>
+        </is>
+      </c>
+      <c r="O37" s="3" t="n"/>
+      <c r="P37" s="3" t="n"/>
+      <c r="Q37" s="3" t="n"/>
+      <c r="R37" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="S37" s="3" t="n"/>
+      <c r="T37" s="3" t="n"/>
+      <c r="U37" s="3" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>BFO:0000023</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>A realizable entity the manifestation of which brings about some result or end that is not essential to a continuant in virtue of the kind of thing that it is but that can be served or participated in by that kind of continuant in some kinds of natural, social or institutional contexts.</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="n"/>
+      <c r="E38" s="2" t="n"/>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>realizable</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="n"/>
+      <c r="H38" s="2" t="n"/>
+      <c r="I38" s="2" t="n"/>
+      <c r="J38" s="2" t="n"/>
+      <c r="K38" s="2" t="n"/>
+      <c r="L38" s="2" t="n"/>
+      <c r="M38" s="2" t="n"/>
+      <c r="N38" s="2" t="n"/>
+      <c r="O38" s="2" t="n"/>
+      <c r="P38" s="2" t="n"/>
+      <c r="Q38" s="2" t="n"/>
+      <c r="R38" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S38" s="2" t="n"/>
+      <c r="T38" s="2" t="n"/>
+      <c r="U38" s="2" t="n"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/UpperLevel/GMHO_Upper_Defs.xlsx
+++ b/UpperLevel/GMHO_Upper_Defs.xlsx
@@ -546,26 +546,14 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:044004</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>communication style</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>A particular manner of communicating aimed at inducing or avoiding certain kinds of responses in others, or demonstrating certain characteristics of the initiator.</t>
-        </is>
-      </c>
+      <c r="A2" s="2" t="inlineStr"/>
+      <c r="B2" s="2" t="inlineStr"/>
+      <c r="C2" s="2" t="inlineStr"/>
       <c r="D2" s="2" t="n"/>
       <c r="E2" s="2" t="n"/>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>communication process attribute</t>
+          <t>process</t>
         </is>
       </c>
       <c r="G2" s="2" t="n"/>
@@ -589,408 +577,283 @@
       <c r="U2" s="2" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>BCIO:044004</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>communication style</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A particular manner of communicating aimed at inducing or avoiding certain kinds of responses in others, or demonstrating certain characteristics of the initiator.</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>communication process attribute</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000252</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>context of experience</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>An object aggregate of entities that are not dependent on the intervention but may influence the effect of an intervention on its outcome.</t>
         </is>
       </c>
-      <c r="D3" s="3" t="n"/>
-      <c r="E3" s="3" t="n"/>
-      <c r="F3" s="3" t="inlineStr">
+      <c r="D4" s="3" t="n"/>
+      <c r="E4" s="3" t="n"/>
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>object aggregate</t>
         </is>
       </c>
-      <c r="G3" s="3" t="n"/>
-      <c r="H3" s="3" t="n"/>
-      <c r="I3" s="3" t="n"/>
-      <c r="J3" s="3" t="n"/>
-      <c r="K3" s="3" t="n"/>
-      <c r="L3" s="3" t="n"/>
-      <c r="M3" s="3" t="n"/>
-      <c r="N3" s="3" t="inlineStr">
+      <c r="G4" s="3" t="n"/>
+      <c r="H4" s="3" t="n"/>
+      <c r="I4" s="3" t="n"/>
+      <c r="J4" s="3" t="n"/>
+      <c r="K4" s="3" t="n"/>
+      <c r="L4" s="3" t="n"/>
+      <c r="M4" s="3" t="n"/>
+      <c r="N4" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">BCIO:005000
 </t>
         </is>
       </c>
-      <c r="O3" s="3" t="n"/>
-      <c r="P3" s="3" t="n"/>
-      <c r="Q3" s="3" t="n"/>
-      <c r="R3" s="3" t="inlineStr">
+      <c r="O4" s="3" t="n"/>
+      <c r="P4" s="3" t="n"/>
+      <c r="Q4" s="3" t="n"/>
+      <c r="R4" s="3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="S3" s="3" t="n"/>
-      <c r="T3" s="3" t="n"/>
-      <c r="U3" s="3" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="S4" s="3" t="n"/>
+      <c r="T4" s="3" t="n"/>
+      <c r="U4" s="3" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>OGMS:0000087</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>extended organism</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>An object aggregate consisting of an organism and all material entities located within the organism, overlapping the organism, or occupying sites formed in part by the organism.</t>
         </is>
       </c>
-      <c r="D4" s="2" t="n"/>
-      <c r="E4" s="2" t="n"/>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="G4" s="2" t="n"/>
-      <c r="H4" s="2" t="n"/>
-      <c r="I4" s="2" t="n"/>
-      <c r="J4" s="2" t="n"/>
-      <c r="K4" s="2" t="n"/>
-      <c r="L4" s="2" t="n"/>
-      <c r="M4" s="2" t="n"/>
-      <c r="N4" s="2" t="n"/>
-      <c r="O4" s="2" t="n"/>
-      <c r="P4" s="2" t="n"/>
-      <c r="Q4" s="2" t="n"/>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S4" s="2" t="n"/>
-      <c r="T4" s="2" t="n"/>
-      <c r="U4" s="2" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>BFO:0000182</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>history</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>A process that is the sum of the totality of processes taking place in the spatiotemporal region occupied by a material entity or site, including processes on the surface of the entity or within the cavities to which it serves as host.</t>
         </is>
       </c>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="G5" s="2" t="n"/>
-      <c r="H5" s="2" t="n"/>
-      <c r="I5" s="2" t="n"/>
-      <c r="J5" s="2" t="n"/>
-      <c r="K5" s="2" t="n"/>
-      <c r="L5" s="2" t="n"/>
-      <c r="M5" s="2" t="n"/>
-      <c r="N5" s="2" t="n"/>
-      <c r="O5" s="2" t="n"/>
-      <c r="P5" s="2" t="n"/>
-      <c r="Q5" s="2" t="n"/>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S5" s="2" t="n"/>
-      <c r="T5" s="2" t="n"/>
-      <c r="U5" s="2" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>MF:0000016</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>human being</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>An extended organism that is a member of the species Homo sapiens.</t>
         </is>
       </c>
-      <c r="D6" s="3" t="n"/>
-      <c r="E6" s="3" t="n"/>
-      <c r="F6" s="3" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>extended organism</t>
         </is>
       </c>
-      <c r="G6" s="3" t="n"/>
-      <c r="H6" s="3" t="n"/>
-      <c r="I6" s="3" t="n"/>
-      <c r="J6" s="3" t="n"/>
-      <c r="K6" s="3" t="n"/>
-      <c r="L6" s="3" t="n"/>
-      <c r="M6" s="3" t="n"/>
-      <c r="N6" s="3" t="n"/>
-      <c r="O6" s="3" t="n"/>
-      <c r="P6" s="3" t="n"/>
-      <c r="Q6" s="3" t="n"/>
-      <c r="R6" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="S6" s="3" t="n"/>
-      <c r="T6" s="3" t="n"/>
-      <c r="U6" s="3" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>BCIO:041000</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>human population</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>An object aggregate that consists of two or more people.</t>
         </is>
       </c>
-      <c r="D7" s="3" t="n"/>
-      <c r="E7" s="3" t="n"/>
-      <c r="F7" s="3" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>object aggregate</t>
         </is>
       </c>
-      <c r="G7" s="3" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>target population</t>
         </is>
       </c>
-      <c r="H7" s="3" t="n"/>
-      <c r="I7" s="3" t="n"/>
-      <c r="J7" s="3" t="n"/>
-      <c r="K7" s="3" t="n"/>
-      <c r="L7" s="3" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>This entity represents any group consisting of two or more individuals. It could range for example from small groups, neighbourhoods, and organisations to entire national populations.</t>
         </is>
       </c>
-      <c r="M7" s="3" t="n"/>
-      <c r="N7" s="3" t="n"/>
-      <c r="O7" s="3" t="n"/>
-      <c r="P7" s="3" t="n"/>
-      <c r="Q7" s="3" t="n"/>
-      <c r="R7" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="S7" s="3" t="n"/>
-      <c r="T7" s="3" t="n"/>
-      <c r="U7" s="3" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>BCIO:040000</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>individual human activity</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>A process that is produced by a person.</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr"/>
-      <c r="E8" s="2" t="inlineStr"/>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr"/>
-      <c r="H8" s="2" t="inlineStr"/>
-      <c r="I8" s="2" t="inlineStr"/>
-      <c r="J8" s="2" t="inlineStr"/>
-      <c r="K8" s="2" t="inlineStr"/>
-      <c r="L8" s="2" t="inlineStr"/>
-      <c r="M8" s="2" t="inlineStr"/>
-      <c r="N8" s="2" t="inlineStr"/>
-      <c r="O8" s="2" t="inlineStr"/>
-      <c r="P8" s="2" t="inlineStr"/>
-      <c r="Q8" s="2" t="inlineStr"/>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S8" s="2" t="inlineStr"/>
-      <c r="T8" s="2" t="inlineStr"/>
-      <c r="U8" s="2" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:040000</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>individual human activity</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>A process that is produced by a person.</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr"/>
-      <c r="E9" s="2" t="inlineStr"/>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr"/>
-      <c r="H9" s="2" t="inlineStr"/>
-      <c r="I9" s="2" t="inlineStr"/>
-      <c r="J9" s="2" t="inlineStr"/>
-      <c r="K9" s="2" t="inlineStr"/>
-      <c r="L9" s="2" t="inlineStr"/>
-      <c r="M9" s="2" t="inlineStr"/>
-      <c r="N9" s="2" t="inlineStr"/>
-      <c r="O9" s="2" t="inlineStr"/>
-      <c r="P9" s="2" t="inlineStr"/>
-      <c r="Q9" s="2" t="inlineStr"/>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S9" s="2" t="inlineStr"/>
-      <c r="T9" s="2" t="inlineStr"/>
-      <c r="U9" s="2" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>BCIO:037000</t>
         </is>
       </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>intervention</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>A planned process that has the aim of influencing an outcome.</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr"/>
-      <c r="E10" s="2" t="inlineStr"/>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr"/>
-      <c r="H10" s="2" t="inlineStr"/>
-      <c r="I10" s="2" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>Examples of interventions are putting health warnings on cigarette packets, providing free stop smoking services and banning smoking in public places.</t>
         </is>
       </c>
-      <c r="J10" s="2" t="inlineStr"/>
-      <c r="K10" s="2" t="inlineStr"/>
-      <c r="L10" s="2" t="inlineStr"/>
-      <c r="M10" s="2" t="inlineStr"/>
-      <c r="N10" s="2" t="inlineStr"/>
-      <c r="O10" s="2" t="inlineStr"/>
-      <c r="P10" s="2" t="inlineStr"/>
-      <c r="Q10" s="2" t="inlineStr"/>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S10" s="2" t="inlineStr"/>
-      <c r="T10" s="2" t="inlineStr"/>
-      <c r="U10" s="2" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>BCIO:046000</t>
         </is>
       </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>intervention content</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>A planned process that is part of an intervention and is intended to be causally active in influencing the intervention outcome.</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr"/>
-      <c r="E11" s="2" t="inlineStr"/>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr"/>
-      <c r="H11" s="2" t="inlineStr"/>
-      <c r="I11" s="2" t="inlineStr"/>
-      <c r="J11" s="2" t="inlineStr"/>
-      <c r="K11" s="2" t="inlineStr"/>
-      <c r="L11" s="2" t="inlineStr"/>
-      <c r="M11" s="2" t="inlineStr"/>
-      <c r="N11" s="2" t="inlineStr"/>
-      <c r="O11" s="2" t="inlineStr"/>
-      <c r="P11" s="2" t="inlineStr"/>
-      <c r="Q11" s="2" t="inlineStr"/>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S11" s="2" t="inlineStr"/>
-      <c r="T11" s="2" t="inlineStr"/>
-      <c r="U11" s="2" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
@@ -1042,56 +905,42 @@
       <c r="U12" s="3" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>BCIO:045000</t>
         </is>
       </c>
-      <c r="B13" s="3" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>intervention delivery</t>
         </is>
       </c>
-      <c r="C13" s="3" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>A planned process by which intervention content is delivered.</t>
         </is>
       </c>
-      <c r="D13" s="3" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>The planned process for delivering an intervention to its participants.</t>
         </is>
       </c>
-      <c r="E13" s="3" t="n"/>
-      <c r="F13" s="3" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="G13" s="3" t="n"/>
-      <c r="H13" s="3" t="n"/>
-      <c r="I13" s="3" t="n"/>
-      <c r="J13" s="3" t="n"/>
-      <c r="K13" s="3" t="n"/>
-      <c r="L13" s="3" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>This class intends to represent the actual delivery of an intervention, whereas the class "mental health intervention scenario plan" refers to the planned intervention, including the planned delivery of an intervention. Distinguishing between these two classes allows for the assessment of intervention fidelity. To capture planned delivery, researchers could annotate both the class "intervention delivery" and "mental health intervention scenario plan".
 The definition of "intervention delivery" states that it is "a planned process by which intervention content is delivered," which refers to the actual execution of the intervention. This phrasing reflects that the intervention was designed and planned in advance before being implemented, thereby making it a "planned process".</t>
         </is>
       </c>
-      <c r="M13" s="3" t="n"/>
-      <c r="N13" s="3" t="n"/>
-      <c r="O13" s="3" t="n"/>
-      <c r="P13" s="3" t="n"/>
-      <c r="Q13" s="3" t="n"/>
-      <c r="R13" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="S13" s="3" t="n"/>
-      <c r="T13" s="3" t="n"/>
-      <c r="U13" s="3" t="n"/>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
@@ -1245,94 +1094,63 @@
       <c r="U16" s="3" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="inlineStr">
+      <c r="A17" t="inlineStr">
         <is>
           <t>BCIO:039000</t>
         </is>
       </c>
-      <c r="B17" s="3" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>intervention outcome</t>
         </is>
       </c>
-      <c r="C17" s="3" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>A process that is influenced by an intervention.</t>
         </is>
       </c>
-      <c r="D17" s="3" t="n"/>
-      <c r="E17" s="3" t="n"/>
-      <c r="F17" s="3" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="G17" s="3" t="n"/>
-      <c r="H17" s="3" t="n"/>
-      <c r="I17" s="3" t="n"/>
-      <c r="J17" s="3" t="n"/>
-      <c r="K17" s="3" t="n"/>
-      <c r="L17" s="3" t="n"/>
-      <c r="M17" s="3" t="n"/>
-      <c r="N17" s="3" t="n"/>
-      <c r="O17" s="3" t="n"/>
-      <c r="P17" s="3" t="n"/>
-      <c r="Q17" s="3" t="n"/>
-      <c r="R17" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="S17" s="3" t="n"/>
-      <c r="T17" s="3" t="n"/>
-      <c r="U17" s="3" t="n"/>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="inlineStr">
+      <c r="A18" t="inlineStr">
         <is>
           <t>BCIO:015095</t>
         </is>
       </c>
-      <c r="B18" s="3" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>intervention population</t>
         </is>
       </c>
-      <c r="C18" s="3" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>A human population who are exposed to an intervention.</t>
         </is>
       </c>
-      <c r="D18" s="3" t="n"/>
-      <c r="E18" s="3" t="n"/>
-      <c r="F18" s="3" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>human population</t>
         </is>
       </c>
-      <c r="G18" s="3" t="n"/>
-      <c r="H18" s="3" t="n"/>
-      <c r="I18" s="3" t="n"/>
-      <c r="J18" s="3" t="n"/>
-      <c r="K18" s="3" t="n"/>
-      <c r="L18" s="3" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>The definition of intervention population (A human population who are exposed to an intervention) does not imply an explicit assignment to an intervention arm. While some interventions will have study designs in which researchers explicitly assign participants to intervention and control groups, this is not the case for all interventions (e.g., policy changes or public health campaigns).</t>
         </is>
       </c>
-      <c r="M18" s="3" t="n"/>
-      <c r="N18" s="3" t="n"/>
-      <c r="O18" s="3" t="n"/>
-      <c r="P18" s="3" t="n"/>
-      <c r="Q18" s="3" t="n"/>
-      <c r="R18" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="S18" s="3" t="n"/>
-      <c r="T18" s="3" t="n"/>
-      <c r="U18" s="3" t="n"/>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
@@ -1490,34 +1308,27 @@
       <c r="U21" s="3" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="inlineStr">
+      <c r="A22" t="inlineStr">
         <is>
           <t>BCIO:044005</t>
         </is>
       </c>
-      <c r="B22" s="3" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>intervention style of delivery</t>
         </is>
       </c>
-      <c r="C22" s="3" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>A communication style that is an attribute of an intervention content communication process.</t>
         </is>
       </c>
-      <c r="D22" s="3" t="n"/>
-      <c r="E22" s="3" t="n"/>
-      <c r="F22" s="3" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>communication style</t>
         </is>
       </c>
-      <c r="G22" s="3" t="n"/>
-      <c r="H22" s="3" t="n"/>
-      <c r="I22" s="3" t="n"/>
-      <c r="J22" s="3" t="n"/>
-      <c r="K22" s="3" t="n"/>
-      <c r="L22" s="3" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>An intervention can include various different styles of delivery for different parts of the intervention.
 The definition of "intervention style of delivery" is based on two other entities, namely "communication style" and "intervention content communication process". Their definitions are presented below.
@@ -1525,19 +1336,11 @@
 intervention content communication process (BCIO:044001): A communication that transmits the content of an intervention Note that an intervention is a planned process with the aim of influencing some outcome whereas a behaviour change intervention is an intervention that aims to influence human behaviour as an outcome.</t>
         </is>
       </c>
-      <c r="M22" s="3" t="n"/>
-      <c r="N22" s="3" t="n"/>
-      <c r="O22" s="3" t="n"/>
-      <c r="P22" s="3" t="n"/>
-      <c r="Q22" s="3" t="n"/>
-      <c r="R22" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="S22" s="3" t="n"/>
-      <c r="T22" s="3" t="n"/>
-      <c r="U22" s="3" t="n"/>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
@@ -1924,188 +1727,127 @@
       <c r="U30" s="3" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="inlineStr">
+      <c r="A31" t="inlineStr">
         <is>
           <t>BCIO:015161</t>
         </is>
       </c>
-      <c r="B31" s="3" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>personal history</t>
         </is>
       </c>
-      <c r="C31" s="3" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>A history that is of a person.</t>
         </is>
       </c>
-      <c r="D31" s="3" t="n"/>
-      <c r="E31" s="3" t="n"/>
-      <c r="F31" s="3" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>history</t>
         </is>
       </c>
-      <c r="G31" s="3" t="n"/>
-      <c r="H31" s="3" t="n"/>
-      <c r="I31" s="3" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>sum of multiple experienced events</t>
         </is>
       </c>
-      <c r="J31" s="3" t="n"/>
-      <c r="K31" s="3" t="n"/>
-      <c r="L31" s="3" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>A person's history includes the sum of their experiences, which can include experiences relating to their cultural, social and economic context.</t>
         </is>
       </c>
-      <c r="M31" s="3" t="n"/>
-      <c r="N31" s="3" t="n"/>
-      <c r="O31" s="3" t="n"/>
-      <c r="P31" s="3" t="n"/>
-      <c r="Q31" s="3" t="n"/>
-      <c r="R31" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="S31" s="3" t="n"/>
-      <c r="T31" s="3" t="n"/>
-      <c r="U31" s="3" t="n"/>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="inlineStr">
+      <c r="A32" t="inlineStr">
         <is>
           <t>BCIO:050487</t>
         </is>
       </c>
-      <c r="B32" s="3" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>personal history part</t>
         </is>
       </c>
-      <c r="C32" s="3" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>A process that is part of a personal history.</t>
         </is>
       </c>
-      <c r="D32" s="3" t="n"/>
-      <c r="E32" s="3" t="n"/>
-      <c r="F32" s="3" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="G32" s="3" t="n"/>
-      <c r="H32" s="3" t="n"/>
-      <c r="I32" s="3" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>experienced event</t>
         </is>
       </c>
-      <c r="J32" s="3" t="n"/>
-      <c r="K32" s="3" t="n"/>
-      <c r="L32" s="3" t="n"/>
-      <c r="M32" s="3" t="n"/>
-      <c r="N32" s="3" t="n"/>
-      <c r="O32" s="3" t="n"/>
-      <c r="P32" s="3" t="n"/>
-      <c r="Q32" s="3" t="n"/>
-      <c r="R32" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="S32" s="3" t="n"/>
-      <c r="T32" s="3" t="n"/>
-      <c r="U32" s="3" t="n"/>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="inlineStr">
+      <c r="A33" t="inlineStr">
         <is>
           <t>OBI:0000260</t>
         </is>
       </c>
-      <c r="B33" s="2" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>plan</t>
         </is>
       </c>
-      <c r="C33" s="2" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>A plan is a realizable entity that is the inheres in a bearer who is committed to realizing it as a planned process.</t>
         </is>
       </c>
-      <c r="D33" s="2" t="inlineStr"/>
-      <c r="E33" s="2" t="inlineStr"/>
-      <c r="F33" s="2" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>realizable</t>
         </is>
       </c>
-      <c r="G33" s="2" t="inlineStr"/>
-      <c r="H33" s="2" t="inlineStr"/>
-      <c r="I33" s="2" t="inlineStr"/>
-      <c r="J33" s="2" t="inlineStr"/>
-      <c r="K33" s="2" t="inlineStr"/>
-      <c r="L33" s="2" t="inlineStr"/>
-      <c r="M33" s="2" t="inlineStr"/>
-      <c r="N33" s="2" t="inlineStr"/>
-      <c r="O33" s="2" t="inlineStr"/>
-      <c r="P33" s="2" t="inlineStr"/>
-      <c r="Q33" s="2" t="inlineStr"/>
-      <c r="R33" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S33" s="2" t="inlineStr"/>
-      <c r="T33" s="2" t="inlineStr"/>
-      <c r="U33" s="2" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="inlineStr">
+      <c r="A34" t="inlineStr">
         <is>
           <t>OBI:0000011</t>
         </is>
       </c>
-      <c r="B34" s="2" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="C34" s="2" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>A process that realizes a plan which is the concretization of a plan specification.</t>
         </is>
       </c>
-      <c r="D34" s="2" t="n"/>
-      <c r="E34" s="2" t="n"/>
-      <c r="F34" s="2" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="G34" s="2" t="n"/>
-      <c r="H34" s="2" t="n"/>
-      <c r="I34" s="2" t="n"/>
-      <c r="J34" s="2" t="n"/>
-      <c r="K34" s="2" t="n"/>
-      <c r="L34" s="2" t="n"/>
-      <c r="M34" s="2" t="n"/>
-      <c r="N34" s="2" t="n"/>
-      <c r="O34" s="2" t="n"/>
-      <c r="P34" s="2" t="n"/>
-      <c r="Q34" s="2" t="n"/>
-      <c r="R34" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S34" s="2" t="n"/>
-      <c r="T34" s="2" t="n"/>
-      <c r="U34" s="2" t="n"/>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
@@ -2155,47 +1897,31 @@
       <c r="U35" s="3" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="inlineStr">
+      <c r="A36" t="inlineStr">
         <is>
           <t>BFO:0000015</t>
         </is>
       </c>
-      <c r="B36" s="2" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="C36" s="2" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>p is a process = Def. p is an occurrent that has temporal proper parts and for some time t, p s-depends_on some material entity at t. (axiom label in BFO2 Reference: [083-003])</t>
         </is>
       </c>
-      <c r="D36" s="2" t="n"/>
-      <c r="E36" s="2" t="n"/>
-      <c r="F36" s="2" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>ocurrent</t>
         </is>
       </c>
-      <c r="G36" s="2" t="n"/>
-      <c r="H36" s="2" t="n"/>
-      <c r="I36" s="2" t="n"/>
-      <c r="J36" s="2" t="n"/>
-      <c r="K36" s="2" t="n"/>
-      <c r="L36" s="2" t="n"/>
-      <c r="M36" s="2" t="n"/>
-      <c r="N36" s="2" t="n"/>
-      <c r="O36" s="2" t="n"/>
-      <c r="P36" s="2" t="n"/>
-      <c r="Q36" s="2" t="n"/>
-      <c r="R36" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S36" s="2" t="n"/>
-      <c r="T36" s="2" t="n"/>
-      <c r="U36" s="2" t="n"/>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
@@ -2245,47 +1971,31 @@
       <c r="U37" s="3" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="inlineStr">
+      <c r="A38" t="inlineStr">
         <is>
           <t>BFO:0000023</t>
         </is>
       </c>
-      <c r="B38" s="2" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>role</t>
         </is>
       </c>
-      <c r="C38" s="2" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>A realizable entity the manifestation of which brings about some result or end that is not essential to a continuant in virtue of the kind of thing that it is but that can be served or participated in by that kind of continuant in some kinds of natural, social or institutional contexts.</t>
         </is>
       </c>
-      <c r="D38" s="2" t="n"/>
-      <c r="E38" s="2" t="n"/>
-      <c r="F38" s="2" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>realizable</t>
         </is>
       </c>
-      <c r="G38" s="2" t="n"/>
-      <c r="H38" s="2" t="n"/>
-      <c r="I38" s="2" t="n"/>
-      <c r="J38" s="2" t="n"/>
-      <c r="K38" s="2" t="n"/>
-      <c r="L38" s="2" t="n"/>
-      <c r="M38" s="2" t="n"/>
-      <c r="N38" s="2" t="n"/>
-      <c r="O38" s="2" t="n"/>
-      <c r="P38" s="2" t="n"/>
-      <c r="Q38" s="2" t="n"/>
-      <c r="R38" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S38" s="2" t="n"/>
-      <c r="T38" s="2" t="n"/>
-      <c r="U38" s="2" t="n"/>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/UpperLevel/GMHO_Upper_Defs.xlsx
+++ b/UpperLevel/GMHO_Upper_Defs.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U37"/>
+  <dimension ref="A1:U38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -798,208 +798,204 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000003</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>intervention attribute</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>A process attribute whose bearer is an intervention.</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr"/>
+      <c r="E10" s="3" t="inlineStr"/>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>process attribute</t>
+        </is>
+      </c>
+      <c r="G10" s="3" t="inlineStr"/>
+      <c r="H10" s="3" t="inlineStr"/>
+      <c r="I10" s="3" t="inlineStr"/>
+      <c r="J10" s="3" t="inlineStr"/>
+      <c r="K10" s="3" t="inlineStr"/>
+      <c r="L10" s="3" t="inlineStr"/>
+      <c r="M10" s="3" t="inlineStr"/>
+      <c r="N10" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050315</t>
+        </is>
+      </c>
+      <c r="O10" s="3" t="inlineStr"/>
+      <c r="P10" s="3" t="inlineStr"/>
+      <c r="Q10" s="3" t="inlineStr"/>
+      <c r="R10" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S10" s="3" t="inlineStr"/>
+      <c r="T10" s="3" t="inlineStr"/>
+      <c r="U10" s="3" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>BCIO:046000</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>intervention content</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>A planned process that is part of an intervention and is intended to be causally active in influencing the intervention outcome.</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000253</t>
         </is>
       </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">intervention context
 </t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>An object aggregate of entities that are not dependent on the intervention but may influence the effect of an intervention on its outcome.</t>
         </is>
       </c>
-      <c r="D11" s="2" t="n"/>
-      <c r="E11" s="2" t="n"/>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="D12" s="2" t="n"/>
+      <c r="E12" s="2" t="n"/>
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>object aggregate</t>
         </is>
       </c>
-      <c r="G11" s="2" t="n"/>
-      <c r="H11" s="2" t="n"/>
-      <c r="I11" s="2" t="n"/>
-      <c r="J11" s="2" t="n"/>
-      <c r="K11" s="2" t="n"/>
-      <c r="L11" s="2" t="n"/>
-      <c r="M11" s="2" t="n"/>
-      <c r="N11" s="2" t="inlineStr">
+      <c r="G12" s="2" t="n"/>
+      <c r="H12" s="2" t="n"/>
+      <c r="I12" s="2" t="n"/>
+      <c r="J12" s="2" t="n"/>
+      <c r="K12" s="2" t="n"/>
+      <c r="L12" s="2" t="n"/>
+      <c r="M12" s="2" t="n"/>
+      <c r="N12" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">BCIO:005000
 </t>
         </is>
       </c>
-      <c r="O11" s="2" t="n"/>
-      <c r="P11" s="2" t="n"/>
-      <c r="Q11" s="2" t="n"/>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="O12" s="2" t="n"/>
+      <c r="P12" s="2" t="n"/>
+      <c r="Q12" s="2" t="n"/>
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="S11" s="2" t="n"/>
-      <c r="T11" s="2" t="n"/>
-      <c r="U11" s="2" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="S12" s="2" t="n"/>
+      <c r="T12" s="2" t="n"/>
+      <c r="U12" s="2" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>BCIO:045000</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>intervention delivery</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>A planned process by which intervention content is delivered.</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>The planned process for delivering an intervention to its participants.</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>This class intends to represent the actual delivery of an intervention, whereas the class "mental health intervention scenario plan" refers to the planned intervention, including the planned delivery of an intervention. Distinguishing between these two classes allows for the assessment of intervention fidelity. To capture planned delivery, researchers could annotate both the class "intervention delivery" and "mental health intervention scenario plan".
 The definition of "intervention delivery" states that it is "a planned process by which intervention content is delivered," which refers to the actual execution of the intervention. This phrasing reflects that the intervention was designed and planned in advance before being implemented, thereby making it a "planned process".</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000242</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">intervention dose
-</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>An intervention attribute that is its amount.</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="n"/>
-      <c r="E13" s="2" t="n"/>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>intervention attribute</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="n"/>
-      <c r="H13" s="2" t="n"/>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">drug dose and number of intervention techniques (e.g., action plans, social support)
-</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="n"/>
-      <c r="K13" s="2" t="n"/>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Intervention dose can capture the intensity of any intervention, including social, physical, psychological and pharmacological interventions.
-Intervention dose refers to the intensity or amount of an intervention, which is about the content of an intervention. In contrast, an intervention's schedule of delivery is about the temporal aspects of the intervention. There is some overlap between the entities "intervention dose" and "intervention schedule of delivery". For example, a more frequent intervention schedule with specific doses would suggest a higher overall dose of the intervention. However, "intervention dose" can capture concepts that are not directly relevant to the temporal organisation of the intervention, such as overall number of intervention strategies and drug dose. This class intends to represent the actual dose delivered as part of an intervention, whereas the class "mental health intervention scenario plan" refers to the planned intervention, including the planned dose of an intervention. Distinguishing between these two classes allows for the assessment of intervention fidelity. To capture planned dose, researchers could annotate both the class "intervention dose" and "mental health intervention scenario plan".
-</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="n"/>
-      <c r="N13" s="2" t="n"/>
-      <c r="O13" s="2" t="n"/>
-      <c r="P13" s="2" t="n"/>
-      <c r="Q13" s="2" t="n"/>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="S13" s="2" t="n"/>
-      <c r="T13" s="2" t="n"/>
-      <c r="U13" s="2" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000199</t>
+          <t>GMHO:0000242</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>intervention mechanism of action</t>
+          <t xml:space="preserve">intervention dose
+</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>A process that is causally active in the relationship between an intervention scenario and its intervention outcome.</t>
+          <t>An intervention attribute that is its amount.</t>
         </is>
       </c>
       <c r="D14" s="2" t="n"/>
       <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>intervention attribute</t>
         </is>
       </c>
       <c r="G14" s="2" t="n"/>
       <c r="H14" s="2" t="n"/>
-      <c r="I14" s="2" t="n"/>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">drug dose and number of intervention techniques (e.g., action plans, social support)
+</t>
+        </is>
+      </c>
       <c r="J14" s="2" t="n"/>
       <c r="K14" s="2" t="n"/>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">For a construct to be a mechanism of action, it must be causally active in bringing about the intervention’s effect on its outcome. However, interventions are typically designed based on hypothesised mechanisms of action, which may or may not hold true depending on factors such as behaviour type, population, and setting. 
-The ontology provides a structured framework for organising mechanisms of action but does not replace the need for empirical validation. The ontology does not specify the level of evidence required to confirm that a hypothesised mechanism has been realised. In other words, the ontology itself does not make causal inferences about specific mechanisms. 
-When using the ontology, researchers can code hypothesised mechanisms within the subclasses of “intervention mechanism of action”. The assessment of whether sufficient evidence supports a causal relationship occurs at the annotation level, where empirical data validate the connections between constructs. 
-The relationship between intervention techniques, mechanisms, and outcomes is often complex and non-linear. Multiple mechanisms of action may interact in various ways, including combinations, sequences, or feedback loops.
+          <t xml:space="preserve">Intervention dose can capture the intensity of any intervention, including social, physical, psychological and pharmacological interventions.
+Intervention dose refers to the intensity or amount of an intervention, which is about the content of an intervention. In contrast, an intervention's schedule of delivery is about the temporal aspects of the intervention. There is some overlap between the entities "intervention dose" and "intervention schedule of delivery". For example, a more frequent intervention schedule with specific doses would suggest a higher overall dose of the intervention. However, "intervention dose" can capture concepts that are not directly relevant to the temporal organisation of the intervention, such as overall number of intervention strategies and drug dose. This class intends to represent the actual dose delivered as part of an intervention, whereas the class "mental health intervention scenario plan" refers to the planned intervention, including the planned dose of an intervention. Distinguishing between these two classes allows for the assessment of intervention fidelity. To capture planned dose, researchers could annotate both the class "intervention dose" and "mental health intervention scenario plan".
 </t>
         </is>
       </c>
@@ -1020,26 +1016,24 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000244</t>
+          <t>GMHO:0000199</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">intervention mode of delivery
-</t>
+          <t>intervention mechanism of action</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An intervention attribute that is the physical or informational medium through which an intervention is provided.
-</t>
+          <t>A process that is causally active in the relationship between an intervention scenario and its intervention outcome.</t>
         </is>
       </c>
       <c r="D15" s="2" t="n"/>
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>intervention attribute</t>
+          <t>process</t>
         </is>
       </c>
       <c r="G15" s="2" t="n"/>
@@ -1047,7 +1041,15 @@
       <c r="I15" s="2" t="n"/>
       <c r="J15" s="2" t="n"/>
       <c r="K15" s="2" t="n"/>
-      <c r="L15" s="2" t="n"/>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">For a construct to be a mechanism of action, it must be causally active in bringing about the intervention’s effect on its outcome. However, interventions are typically designed based on hypothesised mechanisms of action, which may or may not hold true depending on factors such as behaviour type, population, and setting. 
+The ontology provides a structured framework for organising mechanisms of action but does not replace the need for empirical validation. The ontology does not specify the level of evidence required to confirm that a hypothesised mechanism has been realised. In other words, the ontology itself does not make causal inferences about specific mechanisms. 
+When using the ontology, researchers can code hypothesised mechanisms within the subclasses of “intervention mechanism of action”. The assessment of whether sufficient evidence supports a causal relationship occurs at the annotation level, where empirical data validate the connections between constructs. 
+The relationship between intervention techniques, mechanisms, and outcomes is often complex and non-linear. Multiple mechanisms of action may interact in various ways, including combinations, sequences, or feedback loops.
+</t>
+        </is>
+      </c>
       <c r="M15" s="2" t="n"/>
       <c r="N15" s="2" t="n"/>
       <c r="O15" s="2" t="n"/>
@@ -1063,137 +1065,132 @@
       <c r="U15" s="2" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>BCIO:039000</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>intervention outcome</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>A process that is influenced by an intervention.</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000244</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">intervention mode of delivery
+</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">An intervention attribute that is the physical or informational medium through which an intervention is provided.
+</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n"/>
+      <c r="E16" s="2" t="n"/>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>intervention attribute</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="n"/>
+      <c r="H16" s="2" t="n"/>
+      <c r="I16" s="2" t="n"/>
+      <c r="J16" s="2" t="n"/>
+      <c r="K16" s="2" t="n"/>
+      <c r="L16" s="2" t="n"/>
+      <c r="M16" s="2" t="n"/>
+      <c r="N16" s="2" t="n"/>
+      <c r="O16" s="2" t="n"/>
+      <c r="P16" s="2" t="n"/>
+      <c r="Q16" s="2" t="n"/>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="n"/>
+      <c r="T16" s="2" t="n"/>
+      <c r="U16" s="2" t="n"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>BCIO:039000</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>intervention outcome</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A process that is influenced by an intervention.</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>BCIO:015095</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>intervention population</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>A human population who are exposed to an intervention.</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>human population</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>The definition of intervention population (A human population who are exposed to an intervention) does not imply an explicit assignment to an intervention arm. While some interventions will have study designs in which researchers explicitly assign participants to intervention and control groups, this is not the case for all interventions (e.g., policy changes or public health campaigns).</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000245</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">intervention schedule of delivery
-</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">An intervention attribute that involves its temporal organisation.
-</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>intervention attribute</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="n"/>
-      <c r="H18" s="2" t="n"/>
-      <c r="I18" s="2" t="n"/>
-      <c r="J18" s="2" t="n"/>
-      <c r="K18" s="2" t="n"/>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Temporal organisation includes different temporal dimensions, such as timing, frequency, duration and the sequence of activities.
-Intervention dose refers to the intensity or amount of an intervention, which is about the content of an intervention. In contrast, an intervention's schedule of delivery is about the temporal aspects of the intervention. There is some overlap between the entities "intervention dose" and "intervention schedule of delivery". For example, a more frequent intervention schedule with specific doses would suggest a higher overall dose of the intervention. However, "intervention dose" can capture concepts that are not directly relevant to the temporal organisation of the intervention, such as overall number of intervention strategies and drug dose.
-</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="n"/>
-      <c r="N18" s="2" t="n"/>
-      <c r="O18" s="2" t="n"/>
-      <c r="P18" s="2" t="n"/>
-      <c r="Q18" s="2" t="n"/>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="S18" s="2" t="n"/>
-      <c r="T18" s="2" t="n"/>
-      <c r="U18" s="2" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000169</t>
+          <t>GMHO:0000245</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">intervention setting
+          <t xml:space="preserve">intervention schedule of delivery
 </t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>An aggregate of entities that form the environment in which an intervention is provided.</t>
+          <t xml:space="preserve">An intervention attribute that involves its temporal organisation.
+</t>
         </is>
       </c>
       <c r="D19" s="2" t="n"/>
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>object aggregate</t>
+          <t>intervention attribute</t>
         </is>
       </c>
       <c r="G19" s="2" t="n"/>
@@ -1201,14 +1198,15 @@
       <c r="I19" s="2" t="n"/>
       <c r="J19" s="2" t="n"/>
       <c r="K19" s="2" t="n"/>
-      <c r="L19" s="2" t="n"/>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Temporal organisation includes different temporal dimensions, such as timing, frequency, duration and the sequence of activities.
+Intervention dose refers to the intensity or amount of an intervention, which is about the content of an intervention. In contrast, an intervention's schedule of delivery is about the temporal aspects of the intervention. There is some overlap between the entities "intervention dose" and "intervention schedule of delivery". For example, a more frequent intervention schedule with specific doses would suggest a higher overall dose of the intervention. However, "intervention dose" can capture concepts that are not directly relevant to the temporal organisation of the intervention, such as overall number of intervention strategies and drug dose.
+</t>
+        </is>
+      </c>
       <c r="M19" s="2" t="n"/>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BCIO:005000
-</t>
-        </is>
-      </c>
+      <c r="N19" s="2" t="n"/>
       <c r="O19" s="2" t="n"/>
       <c r="P19" s="2" t="n"/>
       <c r="Q19" s="2" t="n"/>
@@ -1224,46 +1222,40 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000246</t>
+          <t>GMHO:0000169</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">intervention source
+          <t xml:space="preserve">intervention setting
 </t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A role played by a person, population or organisation that provides an intervention.
-</t>
+          <t>An aggregate of entities that form the environment in which an intervention is provided.</t>
         </is>
       </c>
       <c r="D20" s="2" t="n"/>
       <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>role</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">intervention provider
-</t>
-        </is>
-      </c>
+          <t>object aggregate</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="n"/>
       <c r="H20" s="2" t="n"/>
       <c r="I20" s="2" t="n"/>
       <c r="J20" s="2" t="n"/>
       <c r="K20" s="2" t="n"/>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The entity “intervention source” has been defined to include a person, population or organisation, as these sources can be legally accountable for an intervention. A computer program or machine cannot be held accountable in the same way. Therefore, the organisation or people that provide the computer program or machine would be considered the intervention source, where relevant. When an intervention is delivered via a computer program (e.g., an app), this can be captured in the ontology through the relevant subclasses of "intervention mode of delivery".
-</t>
-        </is>
-      </c>
+      <c r="L20" s="2" t="n"/>
       <c r="M20" s="2" t="n"/>
-      <c r="N20" s="2" t="n"/>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BCIO:005000
+</t>
+        </is>
+      </c>
       <c r="O20" s="2" t="n"/>
       <c r="P20" s="2" t="n"/>
       <c r="Q20" s="2" t="n"/>
@@ -1277,27 +1269,82 @@
       <c r="U20" s="2" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000246</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">intervention source
+</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A role played by a person, population or organisation that provides an intervention.
+</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n"/>
+      <c r="E21" s="2" t="n"/>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">intervention provider
+</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="n"/>
+      <c r="I21" s="2" t="n"/>
+      <c r="J21" s="2" t="n"/>
+      <c r="K21" s="2" t="n"/>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The entity “intervention source” has been defined to include a person, population or organisation, as these sources can be legally accountable for an intervention. A computer program or machine cannot be held accountable in the same way. Therefore, the organisation or people that provide the computer program or machine would be considered the intervention source, where relevant. When an intervention is delivered via a computer program (e.g., an app), this can be captured in the ontology through the relevant subclasses of "intervention mode of delivery".
+</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="n"/>
+      <c r="N21" s="2" t="n"/>
+      <c r="O21" s="2" t="n"/>
+      <c r="P21" s="2" t="n"/>
+      <c r="Q21" s="2" t="n"/>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="n"/>
+      <c r="T21" s="2" t="n"/>
+      <c r="U21" s="2" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>BCIO:044005</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>intervention style of delivery</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>A communication style that is an attribute of an intervention content communication process.</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>communication style</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>An intervention can include various different styles of delivery for different parts of the intervention.
 The definition of "intervention style of delivery" is based on two other entities, namely "communication style" and "intervention content communication process". Their definitions are presented below.
@@ -1305,76 +1352,33 @@
 intervention content communication process (BCIO:044001): A communication that transmits the content of an intervention Note that an intervention is a planned process with the aim of influencing some outcome whereas a behaviour change intervention is an intervention that aims to influence human behaviour as an outcome.</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr">
+      <c r="R22" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000247</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>intervention technique</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>A planned process that is the smallest part of an intervention that is observable, replicable and on its own has the potential to influence an intervention outcome.</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="n"/>
-      <c r="E22" s="2" t="n"/>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>planned process</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="n"/>
-      <c r="H22" s="2" t="n"/>
-      <c r="I22" s="2" t="n"/>
-      <c r="J22" s="2" t="n"/>
-      <c r="K22" s="2" t="n"/>
-      <c r="L22" s="2" t="n"/>
-      <c r="M22" s="2" t="n"/>
-      <c r="N22" s="2" t="n"/>
-      <c r="O22" s="2" t="n"/>
-      <c r="P22" s="2" t="n"/>
-      <c r="Q22" s="2" t="n"/>
-      <c r="R22" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="S22" s="2" t="n"/>
-      <c r="T22" s="2" t="n"/>
-      <c r="U22" s="2" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000254</t>
+          <t>GMHO:0000247</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>intervention temporal context</t>
+          <t>intervention technique</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of processes taking place at the same time as an intervention.</t>
+          <t>A planned process that is the smallest part of an intervention that is observable, replicable and on its own has the potential to influence an intervention outcome.</t>
         </is>
       </c>
       <c r="D23" s="2" t="n"/>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="G23" s="2" t="n"/>
@@ -1384,12 +1388,7 @@
       <c r="K23" s="2" t="n"/>
       <c r="L23" s="2" t="n"/>
       <c r="M23" s="2" t="n"/>
-      <c r="N23" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BCIO:047000
-</t>
-        </is>
-      </c>
+      <c r="N23" s="2" t="n"/>
       <c r="O23" s="2" t="n"/>
       <c r="P23" s="2" t="n"/>
       <c r="Q23" s="2" t="n"/>
@@ -1405,25 +1404,24 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000248</t>
+          <t>GMHO:0000254</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">mental health intervention
-</t>
+          <t>intervention temporal context</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>An intervention that has the aim of influencing some aspect of mental health.</t>
+          <t>The aggregate of processes taking place at the same time as an intervention.</t>
         </is>
       </c>
       <c r="D24" s="2" t="n"/>
       <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>intervention</t>
+          <t>process</t>
         </is>
       </c>
       <c r="G24" s="2" t="n"/>
@@ -1431,14 +1429,14 @@
       <c r="I24" s="2" t="n"/>
       <c r="J24" s="2" t="n"/>
       <c r="K24" s="2" t="n"/>
-      <c r="L24" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The "mental health intervention scenario" entity captures a "mental health intervention" within a specific context, level of engagement and outcomes. Mental health interventions (represented as "mental health intervention") could be delivered in different contexts and/or have different outcomes at different times. For example, we could deliver the same intervention ("mental health intervention") two years after its previous delivery or in a different context ("mental health intervention scenario"), and this could lead to different outcomes. 
-</t>
-        </is>
-      </c>
+      <c r="L24" s="2" t="n"/>
       <c r="M24" s="2" t="n"/>
-      <c r="N24" s="2" t="n"/>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BCIO:047000
+</t>
+        </is>
+      </c>
       <c r="O24" s="2" t="n"/>
       <c r="P24" s="2" t="n"/>
       <c r="Q24" s="2" t="n"/>
@@ -1454,29 +1452,25 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000241</t>
+          <t>GMHO:0000248</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">mental health intervention content
+          <t xml:space="preserve">mental health intervention
 </t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>An intervention content that is part of a mental health intervention.</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>Any intervention content delivered in the context of a mental health intervention.</t>
-        </is>
-      </c>
+          <t>An intervention that has the aim of influencing some aspect of mental health.</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n"/>
       <c r="E25" s="2" t="n"/>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>intervention content</t>
+          <t>intervention</t>
         </is>
       </c>
       <c r="G25" s="2" t="n"/>
@@ -1484,7 +1478,12 @@
       <c r="I25" s="2" t="n"/>
       <c r="J25" s="2" t="n"/>
       <c r="K25" s="2" t="n"/>
-      <c r="L25" s="2" t="n"/>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The "mental health intervention scenario" entity captures a "mental health intervention" within a specific context, level of engagement and outcomes. Mental health interventions (represented as "mental health intervention") could be delivered in different contexts and/or have different outcomes at different times. For example, we could deliver the same intervention ("mental health intervention") two years after its previous delivery or in a different context ("mental health intervention scenario"), and this could lead to different outcomes. 
+</t>
+        </is>
+      </c>
       <c r="M25" s="2" t="n"/>
       <c r="N25" s="2" t="n"/>
       <c r="O25" s="2" t="n"/>
@@ -1502,24 +1501,29 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000250</t>
+          <t>GMHO:0000241</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>mental health intervention scenario</t>
+          <t xml:space="preserve">mental health intervention content
+</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>A planned process in which a mental health intervention is applied in a given context, including intervention engagement and outcome.</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="n"/>
+          <t>An intervention content that is part of a mental health intervention.</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>Any intervention content delivered in the context of a mental health intervention.</t>
+        </is>
+      </c>
       <c r="E26" s="2" t="n"/>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>intervention content</t>
         </is>
       </c>
       <c r="G26" s="2" t="n"/>
@@ -1527,19 +1531,11 @@
       <c r="I26" s="2" t="n"/>
       <c r="J26" s="2" t="n"/>
       <c r="K26" s="2" t="n"/>
-      <c r="L26" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The "mental health intervention scenario" entity captures a "mental health intervention" within a specific context, level of engagement and outcomes. Mental health interventions (represented as "mental health intervention") could be delivered in different contexts and/or have different outcomes at different times. For example, we could deliver the same intervention ("mental health intervention") two years after its previous delivery or in a different context ("mental health intervention scenario"), and this could lead to different outcomes. </t>
-        </is>
-      </c>
+      <c r="L26" s="2" t="n"/>
       <c r="M26" s="2" t="n"/>
       <c r="N26" s="2" t="n"/>
       <c r="O26" s="2" t="n"/>
-      <c r="P26" s="2" t="inlineStr">
-        <is>
-          <t>planned</t>
-        </is>
-      </c>
+      <c r="P26" s="2" t="n"/>
       <c r="Q26" s="2" t="n"/>
       <c r="R26" s="2" t="inlineStr">
         <is>
@@ -1553,24 +1549,24 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000260</t>
+          <t>GMHO:0000250</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>mental health intervention scenario plan</t>
+          <t>mental health intervention scenario</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>A plan that is realized in a mental health intervention scenario process.</t>
+          <t>A planned process in which a mental health intervention is applied in a given context, including intervention engagement and outcome.</t>
         </is>
       </c>
       <c r="D27" s="2" t="n"/>
       <c r="E27" s="2" t="n"/>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>plan</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="G27" s="2" t="n"/>
@@ -1580,17 +1576,17 @@
       <c r="K27" s="2" t="n"/>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>This entity is intended to represent the planned content or delivery of an intervention, whereas the entity "mental health intervention scenario" refers to the intervention as it was actually implemented. Distinguishing between these two entities allows for the assessment of intervention fidelity.</t>
+          <t xml:space="preserve">The "mental health intervention scenario" entity captures a "mental health intervention" within a specific context, level of engagement and outcomes. Mental health interventions (represented as "mental health intervention") could be delivered in different contexts and/or have different outcomes at different times. For example, we could deliver the same intervention ("mental health intervention") two years after its previous delivery or in a different context ("mental health intervention scenario"), and this could lead to different outcomes. </t>
         </is>
       </c>
       <c r="M27" s="2" t="n"/>
-      <c r="N27" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:028000</t>
-        </is>
-      </c>
+      <c r="N27" s="2" t="n"/>
       <c r="O27" s="2" t="n"/>
-      <c r="P27" s="2" t="n"/>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
       <c r="Q27" s="2" t="n"/>
       <c r="R27" s="2" t="inlineStr">
         <is>
@@ -1602,160 +1598,179 @@
       <c r="U27" s="2" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="inlineStr">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000260</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>mental health intervention scenario plan</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>A plan that is realized in a mental health intervention scenario process.</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="n"/>
+      <c r="E28" s="2" t="n"/>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="n"/>
+      <c r="H28" s="2" t="n"/>
+      <c r="I28" s="2" t="n"/>
+      <c r="J28" s="2" t="n"/>
+      <c r="K28" s="2" t="n"/>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>This entity is intended to represent the planned content or delivery of an intervention, whereas the entity "mental health intervention scenario" refers to the intervention as it was actually implemented. Distinguishing between these two entities allows for the assessment of intervention fidelity.</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="n"/>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:028000</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="n"/>
+      <c r="P28" s="2" t="n"/>
+      <c r="Q28" s="2" t="n"/>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="S28" s="2" t="n"/>
+      <c r="T28" s="2" t="n"/>
+      <c r="U28" s="2" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
         <is>
           <t>BFO:0000027</t>
         </is>
       </c>
-      <c r="B28" s="3" t="inlineStr">
+      <c r="B29" s="3" t="inlineStr">
         <is>
           <t>object aggregate</t>
         </is>
       </c>
-      <c r="C28" s="3" t="inlineStr">
+      <c r="C29" s="3" t="inlineStr">
         <is>
           <t>b is an object aggregate means: b is a material entity consisting exactly of a plurality of objects as member_parts at all times at which b exists. (axiom label in BFO2 Reference: [025-004])</t>
         </is>
       </c>
-      <c r="D28" s="3" t="n"/>
-      <c r="E28" s="3" t="n"/>
-      <c r="F28" s="3" t="inlineStr">
+      <c r="D29" s="3" t="n"/>
+      <c r="E29" s="3" t="n"/>
+      <c r="F29" s="3" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="G28" s="3" t="n"/>
-      <c r="H28" s="3" t="n"/>
-      <c r="I28" s="3" t="n"/>
-      <c r="J28" s="3" t="n"/>
-      <c r="K28" s="3" t="n"/>
-      <c r="L28" s="3" t="n"/>
-      <c r="M28" s="3" t="n"/>
-      <c r="N28" s="3" t="n"/>
-      <c r="O28" s="3" t="n"/>
-      <c r="P28" s="3" t="n"/>
-      <c r="Q28" s="3" t="n"/>
-      <c r="R28" s="3" t="inlineStr">
+      <c r="G29" s="3" t="n"/>
+      <c r="H29" s="3" t="n"/>
+      <c r="I29" s="3" t="n"/>
+      <c r="J29" s="3" t="n"/>
+      <c r="K29" s="3" t="n"/>
+      <c r="L29" s="3" t="n"/>
+      <c r="M29" s="3" t="n"/>
+      <c r="N29" s="3" t="n"/>
+      <c r="O29" s="3" t="n"/>
+      <c r="P29" s="3" t="n"/>
+      <c r="Q29" s="3" t="n"/>
+      <c r="R29" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="S28" s="3" t="n"/>
-      <c r="T28" s="3" t="n"/>
-      <c r="U28" s="3" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="inlineStr">
+      <c r="S29" s="3" t="n"/>
+      <c r="T29" s="3" t="n"/>
+      <c r="U29" s="3" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
         <is>
           <t>BCIO:050916</t>
         </is>
       </c>
-      <c r="B29" s="2" t="inlineStr">
+      <c r="B30" s="2" t="inlineStr">
         <is>
           <t>participant engagement with intervention</t>
         </is>
       </c>
-      <c r="C29" s="2" t="inlineStr">
+      <c r="C30" s="2" t="inlineStr">
         <is>
           <t>An individual human activity of an intervention participant within one or more parts of the intervention.</t>
         </is>
       </c>
-      <c r="D29" s="2" t="inlineStr">
+      <c r="D30" s="2" t="inlineStr">
         <is>
           <t>The extent to which someone interacts with an intervention, including their cognitive, emotional and behavioural response (e.g., attending intervention session) to the intervention itself.</t>
         </is>
       </c>
-      <c r="E29" s="2" t="n"/>
-      <c r="F29" s="2" t="inlineStr">
+      <c r="E30" s="2" t="n"/>
+      <c r="F30" s="2" t="inlineStr">
         <is>
           <t>individual human activity</t>
         </is>
       </c>
-      <c r="G29" s="2" t="n"/>
-      <c r="H29" s="2" t="n"/>
-      <c r="I29" s="2" t="n"/>
-      <c r="J29" s="2" t="n"/>
-      <c r="K29" s="2" t="n"/>
-      <c r="L29" s="2" t="inlineStr">
+      <c r="G30" s="2" t="n"/>
+      <c r="H30" s="2" t="n"/>
+      <c r="I30" s="2" t="n"/>
+      <c r="J30" s="2" t="n"/>
+      <c r="K30" s="2" t="n"/>
+      <c r="L30" s="2" t="inlineStr">
         <is>
           <t>Engagement can involve cognitive, emotional and behavioural engagement with an intervention.</t>
         </is>
       </c>
-      <c r="M29" s="2" t="n"/>
-      <c r="N29" s="2" t="n"/>
-      <c r="O29" s="2" t="n"/>
-      <c r="P29" s="2" t="n"/>
-      <c r="Q29" s="2" t="n"/>
-      <c r="R29" s="2" t="inlineStr">
+      <c r="M30" s="2" t="n"/>
+      <c r="N30" s="2" t="n"/>
+      <c r="O30" s="2" t="n"/>
+      <c r="P30" s="2" t="n"/>
+      <c r="Q30" s="2" t="n"/>
+      <c r="R30" s="2" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="S29" s="2" t="n"/>
-      <c r="T29" s="2" t="n"/>
-      <c r="U29" s="2" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>BCIO:015161</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>personal history</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>A history that is of a person.</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>history</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>sum of multiple experienced events</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>A person's history includes the sum of their experiences, which can include experiences relating to their cultural, social and economic context.</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="S30" s="2" t="n"/>
+      <c r="T30" s="2" t="n"/>
+      <c r="U30" s="2" t="n"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:050487</t>
+          <t>BCIO:015161</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>personal history part</t>
+          <t>personal history</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>A process that is part of a personal history.</t>
+          <t>A history that is of a person.</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>history</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>experienced event</t>
+          <t>sum of multiple experienced events</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>A person's history includes the sum of their experiences, which can include experiences relating to their cultural, social and economic context.</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -1767,22 +1782,27 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>OBI:0000260</t>
+          <t>BCIO:050487</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>plan</t>
+          <t>personal history part</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>A plan is a realizable entity that is the inheres in a bearer who is committed to realizing it as a planned process.</t>
+          <t>A process that is part of a personal history.</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>realizable</t>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>experienced event</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -1794,173 +1814,200 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>OBI:0000260</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A plan is a realizable entity that is the inheres in a bearer who is committed to realizing it as a planned process.</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>realizable</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
           <t>OBI:0000011</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>A process that realizes a plan which is the concretization of a plan specification.</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="R33" t="inlineStr">
+      <c r="R34" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="2" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000251</t>
         </is>
       </c>
-      <c r="B34" s="2" t="inlineStr">
+      <c r="B35" s="2" t="inlineStr">
         <is>
           <t>population history</t>
         </is>
       </c>
-      <c r="C34" s="2" t="inlineStr">
+      <c r="C35" s="2" t="inlineStr">
         <is>
           <t>A history that is of a population.</t>
         </is>
       </c>
-      <c r="D34" s="2" t="n"/>
-      <c r="E34" s="2" t="n"/>
-      <c r="F34" s="2" t="inlineStr">
+      <c r="D35" s="2" t="n"/>
+      <c r="E35" s="2" t="n"/>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>history</t>
         </is>
       </c>
-      <c r="G34" s="2" t="n"/>
-      <c r="H34" s="2" t="n"/>
-      <c r="I34" s="2" t="n"/>
-      <c r="J34" s="2" t="n"/>
-      <c r="K34" s="2" t="n"/>
-      <c r="L34" s="2" t="inlineStr">
+      <c r="G35" s="2" t="n"/>
+      <c r="H35" s="2" t="n"/>
+      <c r="I35" s="2" t="n"/>
+      <c r="J35" s="2" t="n"/>
+      <c r="K35" s="2" t="n"/>
+      <c r="L35" s="2" t="inlineStr">
         <is>
           <t>is an aggregate of personal history; experiences can be captured as 'personal history part'.</t>
         </is>
       </c>
-      <c r="M34" s="2" t="n"/>
-      <c r="N34" s="2" t="n"/>
-      <c r="O34" s="2" t="n"/>
-      <c r="P34" s="2" t="n"/>
-      <c r="Q34" s="2" t="n"/>
-      <c r="R34" s="2" t="inlineStr">
+      <c r="M35" s="2" t="n"/>
+      <c r="N35" s="2" t="n"/>
+      <c r="O35" s="2" t="n"/>
+      <c r="P35" s="2" t="n"/>
+      <c r="Q35" s="2" t="n"/>
+      <c r="R35" s="2" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="S34" s="2" t="n"/>
-      <c r="T34" s="2" t="n"/>
-      <c r="U34" s="2" t="n"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="S35" s="2" t="n"/>
+      <c r="T35" s="2" t="n"/>
+      <c r="U35" s="2" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>BFO:0000015</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>p is a process = Def. p is an occurrent that has temporal proper parts and for some time t, p s-depends_on some material entity at t. (axiom label in BFO2 Reference: [083-003])</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>occurrent</t>
         </is>
       </c>
-      <c r="R35" t="inlineStr">
+      <c r="R36" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="2" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000268</t>
         </is>
       </c>
-      <c r="B36" s="2" t="inlineStr">
+      <c r="B37" s="2" t="inlineStr">
         <is>
           <t>research study</t>
         </is>
       </c>
-      <c r="C36" s="2" t="inlineStr">
+      <c r="C37" s="2" t="inlineStr">
         <is>
           <t>A planned process that executes some study design or protocol to generate scientific data that is interpreted to test or generate a hypothesis.</t>
         </is>
       </c>
-      <c r="D36" s="2" t="n"/>
-      <c r="E36" s="2" t="n"/>
-      <c r="F36" s="2" t="inlineStr">
+      <c r="D37" s="2" t="n"/>
+      <c r="E37" s="2" t="n"/>
+      <c r="F37" s="2" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="G36" s="2" t="n"/>
-      <c r="H36" s="2" t="n"/>
-      <c r="I36" s="2" t="n"/>
-      <c r="J36" s="2" t="n"/>
-      <c r="K36" s="2" t="n"/>
-      <c r="L36" s="2" t="n"/>
-      <c r="M36" s="2" t="n"/>
-      <c r="N36" s="2" t="inlineStr">
+      <c r="G37" s="2" t="n"/>
+      <c r="H37" s="2" t="n"/>
+      <c r="I37" s="2" t="n"/>
+      <c r="J37" s="2" t="n"/>
+      <c r="K37" s="2" t="n"/>
+      <c r="L37" s="2" t="n"/>
+      <c r="M37" s="2" t="n"/>
+      <c r="N37" s="2" t="inlineStr">
         <is>
           <t>SEPIO:0000125</t>
         </is>
       </c>
-      <c r="O36" s="2" t="n"/>
-      <c r="P36" s="2" t="n"/>
-      <c r="Q36" s="2" t="n"/>
-      <c r="R36" s="2" t="inlineStr">
+      <c r="O37" s="2" t="n"/>
+      <c r="P37" s="2" t="n"/>
+      <c r="Q37" s="2" t="n"/>
+      <c r="R37" s="2" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="S36" s="2" t="n"/>
-      <c r="T36" s="2" t="n"/>
-      <c r="U36" s="2" t="n"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="S37" s="2" t="n"/>
+      <c r="T37" s="2" t="n"/>
+      <c r="U37" s="2" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>BFO:0000023</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>role</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>A realizable entity the manifestation of which brings about some result or end that is not essential to a continuant in virtue of the kind of thing that it is but that can be served or participated in by that kind of continuant in some kinds of natural, social or institutional contexts.</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>realizable</t>
         </is>
       </c>
-      <c r="R37" t="inlineStr">
+      <c r="R38" t="inlineStr">
         <is>
           <t>External</t>
         </is>

--- a/UpperLevel/GMHO_Upper_Defs.xlsx
+++ b/UpperLevel/GMHO_Upper_Defs.xlsx
@@ -798,51 +798,51 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000003</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>intervention attribute</t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>A process attribute whose bearer is an intervention.</t>
         </is>
       </c>
-      <c r="D10" s="3" t="inlineStr"/>
-      <c r="E10" s="3" t="inlineStr"/>
-      <c r="F10" s="3" t="inlineStr">
+      <c r="D10" s="2" t="n"/>
+      <c r="E10" s="2" t="n"/>
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>process attribute</t>
         </is>
       </c>
-      <c r="G10" s="3" t="inlineStr"/>
-      <c r="H10" s="3" t="inlineStr"/>
-      <c r="I10" s="3" t="inlineStr"/>
-      <c r="J10" s="3" t="inlineStr"/>
-      <c r="K10" s="3" t="inlineStr"/>
-      <c r="L10" s="3" t="inlineStr"/>
-      <c r="M10" s="3" t="inlineStr"/>
-      <c r="N10" s="3" t="inlineStr">
+      <c r="G10" s="2" t="n"/>
+      <c r="H10" s="2" t="n"/>
+      <c r="I10" s="2" t="n"/>
+      <c r="J10" s="2" t="n"/>
+      <c r="K10" s="2" t="n"/>
+      <c r="L10" s="2" t="n"/>
+      <c r="M10" s="2" t="n"/>
+      <c r="N10" s="2" t="inlineStr">
         <is>
           <t>BCIO:050315</t>
         </is>
       </c>
-      <c r="O10" s="3" t="inlineStr"/>
-      <c r="P10" s="3" t="inlineStr"/>
-      <c r="Q10" s="3" t="inlineStr"/>
-      <c r="R10" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S10" s="3" t="inlineStr"/>
-      <c r="T10" s="3" t="inlineStr"/>
-      <c r="U10" s="3" t="inlineStr"/>
+      <c r="O10" s="2" t="n"/>
+      <c r="P10" s="2" t="n"/>
+      <c r="Q10" s="2" t="n"/>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="n"/>
+      <c r="T10" s="2" t="n"/>
+      <c r="U10" s="2" t="n"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">

--- a/UpperLevel/GMHO_Upper_Defs.xlsx
+++ b/UpperLevel/GMHO_Upper_Defs.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -47,6 +47,11 @@
         <fgColor rgb="00ffffff"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002f4f4f"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -60,11 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -430,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U38"/>
+  <dimension ref="A1:U39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1940,74 +1946,117 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="inlineStr">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>SEPIO:0000125</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>research study</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A planned process that executes some study design or protocol to generate scientific data that is interpreted to test or generate a hypothesis.</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>planned process</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000268</t>
         </is>
       </c>
-      <c r="B37" s="2" t="inlineStr">
+      <c r="B38" s="4" t="inlineStr">
         <is>
           <t>research study</t>
         </is>
       </c>
-      <c r="C37" s="2" t="inlineStr">
+      <c r="C38" s="4" t="inlineStr">
         <is>
           <t>A planned process that executes some study design or protocol to generate scientific data that is interpreted to test or generate a hypothesis.</t>
         </is>
       </c>
-      <c r="D37" s="2" t="n"/>
-      <c r="E37" s="2" t="n"/>
-      <c r="F37" s="2" t="inlineStr">
+      <c r="D38" s="4" t="n"/>
+      <c r="E38" s="4" t="n"/>
+      <c r="F38" s="4" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="G37" s="2" t="n"/>
-      <c r="H37" s="2" t="n"/>
-      <c r="I37" s="2" t="n"/>
-      <c r="J37" s="2" t="n"/>
-      <c r="K37" s="2" t="n"/>
-      <c r="L37" s="2" t="n"/>
-      <c r="M37" s="2" t="n"/>
-      <c r="N37" s="2" t="inlineStr">
+      <c r="G38" s="4" t="n"/>
+      <c r="H38" s="4" t="n"/>
+      <c r="I38" s="4" t="n"/>
+      <c r="J38" s="4" t="n"/>
+      <c r="K38" s="4" t="n"/>
+      <c r="L38" s="4" t="n"/>
+      <c r="M38" s="4" t="n"/>
+      <c r="N38" s="4" t="inlineStr">
         <is>
           <t>SEPIO:0000125</t>
         </is>
       </c>
-      <c r="O37" s="2" t="n"/>
-      <c r="P37" s="2" t="n"/>
-      <c r="Q37" s="2" t="n"/>
-      <c r="R37" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="S37" s="2" t="n"/>
-      <c r="T37" s="2" t="n"/>
-      <c r="U37" s="2" t="n"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="O38" s="4" t="n"/>
+      <c r="P38" s="4" t="n"/>
+      <c r="Q38" s="4" t="n"/>
+      <c r="R38" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="S38" s="4" t="n"/>
+      <c r="T38" s="4" t="n"/>
+      <c r="U38" s="4" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>BFO:0000023</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>role</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>A realizable entity the manifestation of which brings about some result or end that is not essential to a continuant in virtue of the kind of thing that it is but that can be served or participated in by that kind of continuant in some kinds of natural, social or institutional contexts.</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>realizable</t>
         </is>
       </c>
-      <c r="R38" t="inlineStr">
+      <c r="R39" t="inlineStr">
         <is>
           <t>External</t>
         </is>

--- a/UpperLevel/GMHO_Upper_Defs.xlsx
+++ b/UpperLevel/GMHO_Upper_Defs.xlsx
@@ -477,72 +477,72 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Synonyms</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>BFO entity</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Examples</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>REL 'has process part'</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>REL 'realises'</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>Sub-ontology</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>BFO entity</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Examples</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>REL 'has process part'</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>REL 'realises'</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Definition source</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Informal label for repository</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Curator note</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Curation status</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Informal label for repository</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>To be reviewed by</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Reviewer query</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Definition source</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
@@ -572,7 +572,7 @@
           <t>communication process attribute</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>External</t>
         </is>
@@ -608,21 +608,21 @@
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
-      <c r="O3" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
+      <c r="N3" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BCIO:005000
+</t>
+        </is>
+      </c>
+      <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
-      <c r="R3" s="2" t="n"/>
-      <c r="S3" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BCIO:005000
-</t>
-        </is>
-      </c>
+      <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="S3" s="2" t="n"/>
       <c r="T3" s="2" t="n"/>
       <c r="U3" s="2" t="n"/>
     </row>
@@ -647,7 +647,7 @@
           <t>material entity</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>External</t>
         </is>
@@ -674,7 +674,7 @@
           <t>process</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>External</t>
         </is>
@@ -683,25 +683,35 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MF:0000016</t>
+          <t>BCIO:041000</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>human being</t>
+          <t>human population</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>An extended organism that is a member of the species Homo sapiens.</t>
+          <t>An object aggregate that consists of two or more people.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>extended organism</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
+          <t>object aggregate</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>target population</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>This entity represents any group consisting of two or more individuals. It could range for example from small groups, neighbourhoods, and organisations to entire national populations.</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
         <is>
           <t>External</t>
         </is>
@@ -710,35 +720,25 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:041000</t>
+          <t>BCIO:040000</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>human population</t>
+          <t>individual human activity</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>An object aggregate that consists of two or more people.</t>
+          <t>A process that is produced by a person.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>object aggregate</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>target population</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>This entity represents any group consisting of two or more individuals. It could range for example from small groups, neighbourhoods, and organisations to entire national populations.</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+          <t>process</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
         <is>
           <t>External</t>
         </is>
@@ -747,274 +747,298 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:040000</t>
+          <t>BCIO:037000</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>individual human activity</t>
+          <t>intervention</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A process that is produced by a person.</t>
+          <t>A planned process that has the aim of influencing an outcome.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
+          <t>planned process</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Examples of interventions are putting health warnings on cigarette packets, providing free stop smoking services and banning smoking in public places.</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>BCIO:037000</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>intervention</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>A planned process that has the aim of influencing an outcome.</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000003</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>intervention attribute</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>A process attribute whose bearer is an intervention.</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n"/>
+      <c r="E9" s="2" t="n"/>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>process attribute</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="n"/>
+      <c r="H9" s="2" t="n"/>
+      <c r="I9" s="2" t="n"/>
+      <c r="J9" s="2" t="n"/>
+      <c r="K9" s="2" t="n"/>
+      <c r="L9" s="2" t="n"/>
+      <c r="M9" s="2" t="n"/>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050315</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="n"/>
+      <c r="P9" s="2" t="n"/>
+      <c r="Q9" s="2" t="n"/>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="n"/>
+      <c r="T9" s="2" t="n"/>
+      <c r="U9" s="2" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>BCIO:046000</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>intervention content</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A planned process that is part of an intervention and is intended to be causally active in influencing the intervention outcome.</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Examples of interventions are putting health warnings on cigarette packets, providing free stop smoking services and banning smoking in public places.</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000003</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>intervention attribute</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>A process attribute whose bearer is an intervention.</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="n"/>
-      <c r="E10" s="2" t="n"/>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>process attribute</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="n"/>
-      <c r="H10" s="2" t="n"/>
-      <c r="I10" s="2" t="n"/>
-      <c r="J10" s="2" t="n"/>
-      <c r="K10" s="2" t="n"/>
-      <c r="L10" s="2" t="n"/>
-      <c r="M10" s="2" t="n"/>
-      <c r="N10" s="2" t="n"/>
-      <c r="O10" s="2" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000253</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">intervention context
+</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>An object aggregate of entities that are not dependent on the intervention but may influence the effect of an intervention on its outcome.</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n"/>
+      <c r="E11" s="2" t="n"/>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>object aggregate</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="n"/>
+      <c r="H11" s="2" t="n"/>
+      <c r="I11" s="2" t="n"/>
+      <c r="J11" s="2" t="n"/>
+      <c r="K11" s="2" t="n"/>
+      <c r="L11" s="2" t="n"/>
+      <c r="M11" s="2" t="n"/>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BCIO:005000
+</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="n"/>
+      <c r="P11" s="2" t="n"/>
+      <c r="Q11" s="2" t="n"/>
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="P10" s="2" t="n"/>
-      <c r="Q10" s="2" t="n"/>
-      <c r="R10" s="2" t="n"/>
-      <c r="S10" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050315</t>
-        </is>
-      </c>
-      <c r="T10" s="2" t="n"/>
-      <c r="U10" s="2" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>BCIO:046000</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>intervention content</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>A planned process that is part of an intervention and is intended to be causally active in influencing the intervention outcome.</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="S11" s="2" t="n"/>
+      <c r="T11" s="2" t="n"/>
+      <c r="U11" s="2" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>BCIO:045000</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>intervention delivery</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A planned process by which intervention content is delivered.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>The planned process for delivering an intervention to its participants.</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000253</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">intervention context
-</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>An object aggregate of entities that are not dependent on the intervention but may influence the effect of an intervention on its outcome.</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="n"/>
-      <c r="E12" s="2" t="n"/>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>object aggregate</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="n"/>
-      <c r="H12" s="2" t="n"/>
-      <c r="I12" s="2" t="n"/>
-      <c r="J12" s="2" t="n"/>
-      <c r="K12" s="2" t="n"/>
-      <c r="L12" s="2" t="n"/>
-      <c r="M12" s="2" t="n"/>
-      <c r="N12" s="2" t="n"/>
-      <c r="O12" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P12" s="2" t="n"/>
-      <c r="Q12" s="2" t="n"/>
-      <c r="R12" s="2" t="n"/>
-      <c r="S12" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BCIO:005000
-</t>
-        </is>
-      </c>
-      <c r="T12" s="2" t="n"/>
-      <c r="U12" s="2" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>BCIO:045000</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>intervention delivery</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>A planned process by which intervention content is delivered.</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>The planned process for delivering an intervention to its participants.</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>planned process</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>This class intends to represent the actual delivery of an intervention, whereas the class "mental health intervention scenario plan" refers to the planned intervention, including the planned delivery of an intervention. Distinguishing between these two classes allows for the assessment of intervention fidelity. To capture planned delivery, researchers could annotate both the class "intervention delivery" and "mental health intervention scenario plan".
 The definition of "intervention delivery" states that it is "a planned process by which intervention content is delivered," which refers to the actual execution of the intervention. This phrasing reflects that the intervention was designed and planned in advance before being implemented, thereby making it a "planned process".</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000242</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">intervention dose
+</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>An intervention attribute that is its amount.</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n"/>
+      <c r="E13" s="2" t="n"/>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>intervention attribute</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="n"/>
+      <c r="H13" s="2" t="n"/>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">drug dose and number of intervention techniques (e.g., action plans, social support)
+</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="n"/>
+      <c r="K13" s="2" t="n"/>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Intervention dose can capture the intensity of any intervention, including social, physical, psychological and pharmacological interventions.
+Intervention dose refers to the intensity or amount of an intervention, which is about the content of an intervention. In contrast, an intervention's schedule of delivery is about the temporal aspects of the intervention. There is some overlap between the entities "intervention dose" and "intervention schedule of delivery". For example, a more frequent intervention schedule with specific doses would suggest a higher overall dose of the intervention. However, "intervention dose" can capture concepts that are not directly relevant to the temporal organisation of the intervention, such as overall number of intervention strategies and drug dose. This class intends to represent the actual dose delivered as part of an intervention, whereas the class "mental health intervention scenario plan" refers to the planned intervention, including the planned dose of an intervention. Distinguishing between these two classes allows for the assessment of intervention fidelity. To capture planned dose, researchers could annotate both the class "intervention dose" and "mental health intervention scenario plan".
+</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="n"/>
+      <c r="N13" s="2" t="n"/>
+      <c r="O13" s="2" t="n"/>
+      <c r="P13" s="2" t="n"/>
+      <c r="Q13" s="2" t="n"/>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="n"/>
+      <c r="T13" s="2" t="n"/>
+      <c r="U13" s="2" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000242</t>
+          <t>GMHO:0000199</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">intervention dose
-</t>
+          <t>intervention mechanism of action</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>An intervention attribute that is its amount.</t>
+          <t>A process that is causally active in the relationship between an intervention scenario and its intervention outcome.</t>
         </is>
       </c>
       <c r="D14" s="2" t="n"/>
       <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>intervention attribute</t>
+          <t>process</t>
         </is>
       </c>
       <c r="G14" s="2" t="n"/>
       <c r="H14" s="2" t="n"/>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">drug dose and number of intervention techniques (e.g., action plans, social support)
-</t>
-        </is>
-      </c>
+      <c r="I14" s="2" t="n"/>
       <c r="J14" s="2" t="n"/>
       <c r="K14" s="2" t="n"/>
-      <c r="L14" s="2" t="n"/>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">For a construct to be a mechanism of action, it must be causally active in bringing about the intervention’s effect on its outcome. However, interventions are typically designed based on hypothesised mechanisms of action, which may or may not hold true depending on factors such as behaviour type, population, and setting. 
+The ontology provides a structured framework for organising mechanisms of action but does not replace the need for empirical validation. The ontology does not specify the level of evidence required to confirm that a hypothesised mechanism has been realised. In other words, the ontology itself does not make causal inferences about specific mechanisms. 
+When using the ontology, researchers can code hypothesised mechanisms within the subclasses of “intervention mechanism of action”. The assessment of whether sufficient evidence supports a causal relationship occurs at the annotation level, where empirical data validate the connections between constructs. 
+The relationship between intervention techniques, mechanisms, and outcomes is often complex and non-linear. Multiple mechanisms of action may interact in various ways, including combinations, sequences, or feedback loops.
+</t>
+        </is>
+      </c>
       <c r="M14" s="2" t="n"/>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Intervention dose can capture the intensity of any intervention, including social, physical, psychological and pharmacological interventions.
-Intervention dose refers to the intensity or amount of an intervention, which is about the content of an intervention. In contrast, an intervention's schedule of delivery is about the temporal aspects of the intervention. There is some overlap between the entities "intervention dose" and "intervention schedule of delivery". For example, a more frequent intervention schedule with specific doses would suggest a higher overall dose of the intervention. However, "intervention dose" can capture concepts that are not directly relevant to the temporal organisation of the intervention, such as overall number of intervention strategies and drug dose. This class intends to represent the actual dose delivered as part of an intervention, whereas the class "mental health intervention scenario plan" refers to the planned intervention, including the planned dose of an intervention. Distinguishing between these two classes allows for the assessment of intervention fidelity. To capture planned dose, researchers could annotate both the class "intervention dose" and "mental health intervention scenario plan".
-</t>
-        </is>
-      </c>
-      <c r="O14" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
+      <c r="N14" s="2" t="n"/>
+      <c r="O14" s="2" t="n"/>
       <c r="P14" s="2" t="n"/>
       <c r="Q14" s="2" t="n"/>
-      <c r="R14" s="2" t="n"/>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="S14" s="2" t="n"/>
       <c r="T14" s="2" t="n"/>
       <c r="U14" s="2" t="n"/>
@@ -1022,24 +1046,26 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000199</t>
+          <t>GMHO:0000244</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>intervention mechanism of action</t>
+          <t xml:space="preserve">intervention mode of delivery
+</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>A process that is causally active in the relationship between an intervention scenario and its intervention outcome.</t>
+          <t xml:space="preserve">An intervention attribute that is the physical or informational medium through which an intervention is provided.
+</t>
         </is>
       </c>
       <c r="D15" s="2" t="n"/>
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>intervention attribute</t>
         </is>
       </c>
       <c r="G15" s="2" t="n"/>
@@ -1049,154 +1075,151 @@
       <c r="K15" s="2" t="n"/>
       <c r="L15" s="2" t="n"/>
       <c r="M15" s="2" t="n"/>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">For a construct to be a mechanism of action, it must be causally active in bringing about the intervention’s effect on its outcome. However, interventions are typically designed based on hypothesised mechanisms of action, which may or may not hold true depending on factors such as behaviour type, population, and setting. 
-The ontology provides a structured framework for organising mechanisms of action but does not replace the need for empirical validation. The ontology does not specify the level of evidence required to confirm that a hypothesised mechanism has been realised. In other words, the ontology itself does not make causal inferences about specific mechanisms. 
-When using the ontology, researchers can code hypothesised mechanisms within the subclasses of “intervention mechanism of action”. The assessment of whether sufficient evidence supports a causal relationship occurs at the annotation level, where empirical data validate the connections between constructs. 
-The relationship between intervention techniques, mechanisms, and outcomes is often complex and non-linear. Multiple mechanisms of action may interact in various ways, including combinations, sequences, or feedback loops.
-</t>
-        </is>
-      </c>
-      <c r="O15" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
+      <c r="N15" s="2" t="n"/>
+      <c r="O15" s="2" t="n"/>
       <c r="P15" s="2" t="n"/>
       <c r="Q15" s="2" t="n"/>
-      <c r="R15" s="2" t="n"/>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="S15" s="2" t="n"/>
       <c r="T15" s="2" t="n"/>
       <c r="U15" s="2" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000244</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">intervention mode of delivery
-</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">An intervention attribute that is the physical or informational medium through which an intervention is provided.
-</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>intervention attribute</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="n"/>
-      <c r="H16" s="2" t="n"/>
-      <c r="I16" s="2" t="n"/>
-      <c r="J16" s="2" t="n"/>
-      <c r="K16" s="2" t="n"/>
-      <c r="L16" s="2" t="n"/>
-      <c r="M16" s="2" t="n"/>
-      <c r="N16" s="2" t="n"/>
-      <c r="O16" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P16" s="2" t="n"/>
-      <c r="Q16" s="2" t="n"/>
-      <c r="R16" s="2" t="n"/>
-      <c r="S16" s="2" t="n"/>
-      <c r="T16" s="2" t="n"/>
-      <c r="U16" s="2" t="n"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>BCIO:039000</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>intervention outcome</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A process that is influenced by an intervention.</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:039000</t>
+          <t>BCIO:015095</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>intervention outcome</t>
+          <t>intervention population</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>A process that is influenced by an intervention.</t>
+          <t>A human population who are exposed to an intervention.</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
+          <t>human population</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>The definition of intervention population (A human population who are exposed to an intervention) does not imply an explicit assignment to an intervention arm. While some interventions will have study designs in which researchers explicitly assign participants to intervention and control groups, this is not the case for all interventions (e.g., policy changes or public health campaigns).</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>BCIO:015095</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>intervention population</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>A human population who are exposed to an intervention.</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>human population</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>The definition of intervention population (A human population who are exposed to an intervention) does not imply an explicit assignment to an intervention arm. While some interventions will have study designs in which researchers explicitly assign participants to intervention and control groups, this is not the case for all interventions (e.g., policy changes or public health campaigns).</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000245</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">intervention schedule of delivery
+</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">An intervention attribute that involves its temporal organisation.
+</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n"/>
+      <c r="E18" s="2" t="n"/>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>intervention attribute</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="n"/>
+      <c r="H18" s="2" t="n"/>
+      <c r="I18" s="2" t="n"/>
+      <c r="J18" s="2" t="n"/>
+      <c r="K18" s="2" t="n"/>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Temporal organisation includes different temporal dimensions, such as timing, frequency, duration and the sequence of activities.
+Intervention dose refers to the intensity or amount of an intervention, which is about the content of an intervention. In contrast, an intervention's schedule of delivery is about the temporal aspects of the intervention. There is some overlap between the entities "intervention dose" and "intervention schedule of delivery". For example, a more frequent intervention schedule with specific doses would suggest a higher overall dose of the intervention. However, "intervention dose" can capture concepts that are not directly relevant to the temporal organisation of the intervention, such as overall number of intervention strategies and drug dose.
+</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="n"/>
+      <c r="N18" s="2" t="n"/>
+      <c r="O18" s="2" t="n"/>
+      <c r="P18" s="2" t="n"/>
+      <c r="Q18" s="2" t="n"/>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="n"/>
+      <c r="T18" s="2" t="n"/>
+      <c r="U18" s="2" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000245</t>
+          <t>GMHO:0000169</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">intervention schedule of delivery
+          <t xml:space="preserve">intervention setting
 </t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An intervention attribute that involves its temporal organisation.
-</t>
+          <t>An aggregate of entities that form the environment in which an intervention is provided.</t>
         </is>
       </c>
       <c r="D19" s="2" t="n"/>
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>intervention attribute</t>
+          <t>object aggregate</t>
         </is>
       </c>
       <c r="G19" s="2" t="n"/>
@@ -1208,19 +1231,18 @@
       <c r="M19" s="2" t="n"/>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Temporal organisation includes different temporal dimensions, such as timing, frequency, duration and the sequence of activities.
-Intervention dose refers to the intensity or amount of an intervention, which is about the content of an intervention. In contrast, an intervention's schedule of delivery is about the temporal aspects of the intervention. There is some overlap between the entities "intervention dose" and "intervention schedule of delivery". For example, a more frequent intervention schedule with specific doses would suggest a higher overall dose of the intervention. However, "intervention dose" can capture concepts that are not directly relevant to the temporal organisation of the intervention, such as overall number of intervention strategies and drug dose.
-</t>
-        </is>
-      </c>
-      <c r="O19" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
+          <t xml:space="preserve">BCIO:005000
+</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="n"/>
       <c r="P19" s="2" t="n"/>
       <c r="Q19" s="2" t="n"/>
-      <c r="R19" s="2" t="n"/>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="S19" s="2" t="n"/>
       <c r="T19" s="2" t="n"/>
       <c r="U19" s="2" t="n"/>
@@ -1228,129 +1250,80 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000169</t>
+          <t>GMHO:0000246</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">intervention setting
+          <t xml:space="preserve">intervention source
 </t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>An aggregate of entities that form the environment in which an intervention is provided.</t>
+          <t xml:space="preserve">A role played by a person, population or organisation that provides an intervention.
+</t>
         </is>
       </c>
       <c r="D20" s="2" t="n"/>
       <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>object aggregate</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="n"/>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">intervention provider
+</t>
+        </is>
+      </c>
       <c r="H20" s="2" t="n"/>
       <c r="I20" s="2" t="n"/>
       <c r="J20" s="2" t="n"/>
       <c r="K20" s="2" t="n"/>
-      <c r="L20" s="2" t="n"/>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The entity “intervention source” has been defined to include a person, population or organisation, as these sources can be legally accountable for an intervention. A computer program or machine cannot be held accountable in the same way. Therefore, the organisation or people that provide the computer program or machine would be considered the intervention source, where relevant. When an intervention is delivered via a computer program (e.g., an app), this can be captured in the ontology through the relevant subclasses of "intervention mode of delivery".
+</t>
+        </is>
+      </c>
       <c r="M20" s="2" t="n"/>
       <c r="N20" s="2" t="n"/>
-      <c r="O20" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
+      <c r="O20" s="2" t="n"/>
       <c r="P20" s="2" t="n"/>
       <c r="Q20" s="2" t="n"/>
-      <c r="R20" s="2" t="n"/>
-      <c r="S20" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BCIO:005000
-</t>
-        </is>
-      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="n"/>
       <c r="T20" s="2" t="n"/>
       <c r="U20" s="2" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000246</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">intervention source
-</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A role played by a person, population or organisation that provides an intervention.
-</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="n"/>
-      <c r="E21" s="2" t="n"/>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>role</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="n"/>
-      <c r="H21" s="2" t="n"/>
-      <c r="I21" s="2" t="n"/>
-      <c r="J21" s="2" t="n"/>
-      <c r="K21" s="2" t="n"/>
-      <c r="L21" s="2" t="n"/>
-      <c r="M21" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">intervention provider
-</t>
-        </is>
-      </c>
-      <c r="N21" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The entity “intervention source” has been defined to include a person, population or organisation, as these sources can be legally accountable for an intervention. A computer program or machine cannot be held accountable in the same way. Therefore, the organisation or people that provide the computer program or machine would be considered the intervention source, where relevant. When an intervention is delivered via a computer program (e.g., an app), this can be captured in the ontology through the relevant subclasses of "intervention mode of delivery".
-</t>
-        </is>
-      </c>
-      <c r="O21" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P21" s="2" t="n"/>
-      <c r="Q21" s="2" t="n"/>
-      <c r="R21" s="2" t="n"/>
-      <c r="S21" s="2" t="n"/>
-      <c r="T21" s="2" t="n"/>
-      <c r="U21" s="2" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A21" t="inlineStr">
         <is>
           <t>BCIO:044005</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>intervention style of delivery</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>A communication style that is an attribute of an intervention content communication process.</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>communication style</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>An intervention can include various different styles of delivery for different parts of the intervention.
 The definition of "intervention style of delivery" is based on two other entities, namely "communication style" and "intervention content communication process". Their definitions are presented below.
@@ -1358,33 +1331,76 @@
 intervention content communication process (BCIO:044001): A communication that transmits the content of an intervention Note that an intervention is a planned process with the aim of influencing some outcome whereas a behaviour change intervention is an intervention that aims to influence human behaviour as an outcome.</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="R21" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000247</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>intervention technique</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>A planned process that is the smallest part of an intervention that is observable, replicable and on its own has the potential to influence an intervention outcome.</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n"/>
+      <c r="E22" s="2" t="n"/>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>planned process</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="n"/>
+      <c r="H22" s="2" t="n"/>
+      <c r="I22" s="2" t="n"/>
+      <c r="J22" s="2" t="n"/>
+      <c r="K22" s="2" t="n"/>
+      <c r="L22" s="2" t="n"/>
+      <c r="M22" s="2" t="n"/>
+      <c r="N22" s="2" t="n"/>
+      <c r="O22" s="2" t="n"/>
+      <c r="P22" s="2" t="n"/>
+      <c r="Q22" s="2" t="n"/>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="n"/>
+      <c r="T22" s="2" t="n"/>
+      <c r="U22" s="2" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000247</t>
+          <t>GMHO:0000254</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>intervention technique</t>
+          <t>intervention temporal context</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>A planned process that is the smallest part of an intervention that is observable, replicable and on its own has the potential to influence an intervention outcome.</t>
+          <t>The aggregate of processes taking place at the same time as an intervention.</t>
         </is>
       </c>
       <c r="D23" s="2" t="n"/>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>process</t>
         </is>
       </c>
       <c r="G23" s="2" t="n"/>
@@ -1394,15 +1410,20 @@
       <c r="K23" s="2" t="n"/>
       <c r="L23" s="2" t="n"/>
       <c r="M23" s="2" t="n"/>
-      <c r="N23" s="2" t="n"/>
-      <c r="O23" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BCIO:047000
+</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="n"/>
       <c r="P23" s="2" t="n"/>
       <c r="Q23" s="2" t="n"/>
-      <c r="R23" s="2" t="n"/>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="S23" s="2" t="n"/>
       <c r="T23" s="2" t="n"/>
       <c r="U23" s="2" t="n"/>
@@ -1410,24 +1431,25 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000254</t>
+          <t>GMHO:0000248</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>intervention temporal context</t>
+          <t xml:space="preserve">mental health intervention
+</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of processes taking place at the same time as an intervention.</t>
+          <t>An intervention that has the aim of influencing some aspect of mental health.</t>
         </is>
       </c>
       <c r="D24" s="2" t="n"/>
       <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>intervention</t>
         </is>
       </c>
       <c r="G24" s="2" t="n"/>
@@ -1435,48 +1457,52 @@
       <c r="I24" s="2" t="n"/>
       <c r="J24" s="2" t="n"/>
       <c r="K24" s="2" t="n"/>
-      <c r="L24" s="2" t="n"/>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The "mental health intervention scenario" entity captures a "mental health intervention" within a specific context, level of engagement and outcomes. Mental health interventions (represented as "mental health intervention") could be delivered in different contexts and/or have different outcomes at different times. For example, we could deliver the same intervention ("mental health intervention") two years after its previous delivery or in a different context ("mental health intervention scenario"), and this could lead to different outcomes. 
+</t>
+        </is>
+      </c>
       <c r="M24" s="2" t="n"/>
       <c r="N24" s="2" t="n"/>
-      <c r="O24" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
+      <c r="O24" s="2" t="n"/>
       <c r="P24" s="2" t="n"/>
       <c r="Q24" s="2" t="n"/>
-      <c r="R24" s="2" t="n"/>
-      <c r="S24" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BCIO:047000
-</t>
-        </is>
-      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="n"/>
       <c r="T24" s="2" t="n"/>
       <c r="U24" s="2" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000248</t>
+          <t>GMHO:0000241</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">mental health intervention
+          <t xml:space="preserve">mental health intervention content
 </t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>An intervention that has the aim of influencing some aspect of mental health.</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="n"/>
+          <t>An intervention content that is part of a mental health intervention.</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>Any intervention content delivered in the context of a mental health intervention.</t>
+        </is>
+      </c>
       <c r="E25" s="2" t="n"/>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>intervention</t>
+          <t>intervention content</t>
         </is>
       </c>
       <c r="G25" s="2" t="n"/>
@@ -1486,20 +1512,15 @@
       <c r="K25" s="2" t="n"/>
       <c r="L25" s="2" t="n"/>
       <c r="M25" s="2" t="n"/>
-      <c r="N25" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The "mental health intervention scenario" entity captures a "mental health intervention" within a specific context, level of engagement and outcomes. Mental health interventions (represented as "mental health intervention") could be delivered in different contexts and/or have different outcomes at different times. For example, we could deliver the same intervention ("mental health intervention") two years after its previous delivery or in a different context ("mental health intervention scenario"), and this could lead to different outcomes. 
-</t>
-        </is>
-      </c>
-      <c r="O25" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
+      <c r="N25" s="2" t="n"/>
+      <c r="O25" s="2" t="n"/>
       <c r="P25" s="2" t="n"/>
       <c r="Q25" s="2" t="n"/>
-      <c r="R25" s="2" t="n"/>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="S25" s="2" t="n"/>
       <c r="T25" s="2" t="n"/>
       <c r="U25" s="2" t="n"/>
@@ -1507,29 +1528,24 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000241</t>
+          <t>GMHO:0000250</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">mental health intervention content
-</t>
+          <t>mental health intervention scenario</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>An intervention content that is part of a mental health intervention.</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>Any intervention content delivered in the context of a mental health intervention.</t>
-        </is>
-      </c>
+          <t>A planned process in which a mental health intervention is applied in a given context, including intervention engagement and outcome.</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="n"/>
       <c r="E26" s="2" t="n"/>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>intervention content</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="G26" s="2" t="n"/>
@@ -1537,17 +1553,25 @@
       <c r="I26" s="2" t="n"/>
       <c r="J26" s="2" t="n"/>
       <c r="K26" s="2" t="n"/>
-      <c r="L26" s="2" t="n"/>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The "mental health intervention scenario" entity captures a "mental health intervention" within a specific context, level of engagement and outcomes. Mental health interventions (represented as "mental health intervention") could be delivered in different contexts and/or have different outcomes at different times. For example, we could deliver the same intervention ("mental health intervention") two years after its previous delivery or in a different context ("mental health intervention scenario"), and this could lead to different outcomes. </t>
+        </is>
+      </c>
       <c r="M26" s="2" t="n"/>
       <c r="N26" s="2" t="n"/>
-      <c r="O26" s="2" t="inlineStr">
+      <c r="O26" s="2" t="n"/>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="n"/>
+      <c r="R26" s="2" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="P26" s="2" t="n"/>
-      <c r="Q26" s="2" t="n"/>
-      <c r="R26" s="2" t="n"/>
       <c r="S26" s="2" t="n"/>
       <c r="T26" s="2" t="n"/>
       <c r="U26" s="2" t="n"/>
@@ -1555,24 +1579,24 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000250</t>
+          <t>GMHO:0000260</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>mental health intervention scenario</t>
+          <t>mental health intervention scenario plan</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>A planned process in which a mental health intervention is applied in a given context, including intervention engagement and outcome.</t>
+          <t>A plan that is realized in a mental health intervention scenario process.</t>
         </is>
       </c>
       <c r="D27" s="2" t="n"/>
       <c r="E27" s="2" t="n"/>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>plan</t>
         </is>
       </c>
       <c r="G27" s="2" t="n"/>
@@ -1580,173 +1604,149 @@
       <c r="I27" s="2" t="n"/>
       <c r="J27" s="2" t="n"/>
       <c r="K27" s="2" t="n"/>
-      <c r="L27" s="2" t="n"/>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>This entity is intended to represent the planned content or delivery of an intervention, whereas the entity "mental health intervention scenario" refers to the intervention as it was actually implemented. Distinguishing between these two entities allows for the assessment of intervention fidelity.</t>
+        </is>
+      </c>
       <c r="M27" s="2" t="n"/>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">The "mental health intervention scenario" entity captures a "mental health intervention" within a specific context, level of engagement and outcomes. Mental health interventions (represented as "mental health intervention") could be delivered in different contexts and/or have different outcomes at different times. For example, we could deliver the same intervention ("mental health intervention") two years after its previous delivery or in a different context ("mental health intervention scenario"), and this could lead to different outcomes. </t>
-        </is>
-      </c>
-      <c r="O27" s="2" t="inlineStr">
+          <t>BCIO:028000</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="n"/>
+      <c r="P27" s="2" t="n"/>
+      <c r="Q27" s="2" t="n"/>
+      <c r="R27" s="2" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="P27" s="2" t="inlineStr">
-        <is>
-          <t>planned</t>
-        </is>
-      </c>
-      <c r="Q27" s="2" t="n"/>
-      <c r="R27" s="2" t="n"/>
       <c r="S27" s="2" t="n"/>
       <c r="T27" s="2" t="n"/>
       <c r="U27" s="2" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000260</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="inlineStr">
-        <is>
-          <t>mental health intervention scenario plan</t>
-        </is>
-      </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>A plan that is realized in a mental health intervention scenario process.</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="n"/>
-      <c r="E28" s="2" t="n"/>
-      <c r="F28" s="2" t="inlineStr">
-        <is>
-          <t>plan</t>
-        </is>
-      </c>
-      <c r="G28" s="2" t="n"/>
-      <c r="H28" s="2" t="n"/>
-      <c r="I28" s="2" t="n"/>
-      <c r="J28" s="2" t="n"/>
-      <c r="K28" s="2" t="n"/>
-      <c r="L28" s="2" t="n"/>
-      <c r="M28" s="2" t="n"/>
-      <c r="N28" s="2" t="inlineStr">
-        <is>
-          <t>This entity is intended to represent the planned content or delivery of an intervention, whereas the entity "mental health intervention scenario" refers to the intervention as it was actually implemented. Distinguishing between these two entities allows for the assessment of intervention fidelity.</t>
-        </is>
-      </c>
-      <c r="O28" s="2" t="inlineStr">
+      <c r="A28" s="3" t="inlineStr">
+        <is>
+          <t>BFO:0000027</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>object aggregate</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>b is an object aggregate means: b is a material entity consisting exactly of a plurality of objects as member_parts at all times at which b exists. (axiom label in BFO2 Reference: [025-004])</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="n"/>
+      <c r="E28" s="3" t="n"/>
+      <c r="F28" s="3" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="G28" s="3" t="n"/>
+      <c r="H28" s="3" t="n"/>
+      <c r="I28" s="3" t="n"/>
+      <c r="J28" s="3" t="n"/>
+      <c r="K28" s="3" t="n"/>
+      <c r="L28" s="3" t="n"/>
+      <c r="M28" s="3" t="n"/>
+      <c r="N28" s="3" t="n"/>
+      <c r="O28" s="3" t="n"/>
+      <c r="P28" s="3" t="n"/>
+      <c r="Q28" s="3" t="n"/>
+      <c r="R28" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S28" s="3" t="n"/>
+      <c r="T28" s="3" t="n"/>
+      <c r="U28" s="3" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050916</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>participant engagement with intervention</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>An individual human activity of an intervention participant within one or more parts of the intervention.</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>The extent to which someone interacts with an intervention, including their cognitive, emotional and behavioural response (e.g., attending intervention session) to the intervention itself.</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="n"/>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>individual human activity</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="n"/>
+      <c r="H29" s="2" t="n"/>
+      <c r="I29" s="2" t="n"/>
+      <c r="J29" s="2" t="n"/>
+      <c r="K29" s="2" t="n"/>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>Engagement can involve cognitive, emotional and behavioural engagement with an intervention.</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="n"/>
+      <c r="N29" s="2" t="n"/>
+      <c r="O29" s="2" t="n"/>
+      <c r="P29" s="2" t="n"/>
+      <c r="Q29" s="2" t="n"/>
+      <c r="R29" s="2" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="P28" s="2" t="n"/>
-      <c r="Q28" s="2" t="n"/>
-      <c r="R28" s="2" t="n"/>
-      <c r="S28" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:028000</t>
-        </is>
-      </c>
-      <c r="T28" s="2" t="n"/>
-      <c r="U28" s="2" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="inlineStr">
-        <is>
-          <t>BFO:0000027</t>
-        </is>
-      </c>
-      <c r="B29" s="3" t="inlineStr">
-        <is>
-          <t>object aggregate</t>
-        </is>
-      </c>
-      <c r="C29" s="3" t="inlineStr">
-        <is>
-          <t>b is an object aggregate means: b is a material entity consisting exactly of a plurality of objects as member_parts at all times at which b exists. (axiom label in BFO2 Reference: [025-004])</t>
-        </is>
-      </c>
-      <c r="D29" s="3" t="n"/>
-      <c r="E29" s="3" t="n"/>
-      <c r="F29" s="3" t="inlineStr">
-        <is>
-          <t>material entity</t>
-        </is>
-      </c>
-      <c r="G29" s="3" t="n"/>
-      <c r="H29" s="3" t="n"/>
-      <c r="I29" s="3" t="n"/>
-      <c r="J29" s="3" t="n"/>
-      <c r="K29" s="3" t="n"/>
-      <c r="L29" s="3" t="n"/>
-      <c r="M29" s="3" t="n"/>
-      <c r="N29" s="3" t="n"/>
-      <c r="O29" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="P29" s="3" t="n"/>
-      <c r="Q29" s="3" t="n"/>
-      <c r="R29" s="3" t="n"/>
-      <c r="S29" s="3" t="n"/>
-      <c r="T29" s="3" t="n"/>
-      <c r="U29" s="3" t="n"/>
+      <c r="S29" s="2" t="n"/>
+      <c r="T29" s="2" t="n"/>
+      <c r="U29" s="2" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050916</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="inlineStr">
-        <is>
-          <t>participant engagement with intervention</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>An individual human activity of an intervention participant within one or more parts of the intervention.</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>The extent to which someone interacts with an intervention, including their cognitive, emotional and behavioural response (e.g., attending intervention session) to the intervention itself.</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="n"/>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>individual human activity</t>
-        </is>
-      </c>
-      <c r="G30" s="2" t="n"/>
-      <c r="H30" s="2" t="n"/>
-      <c r="I30" s="2" t="n"/>
-      <c r="J30" s="2" t="n"/>
-      <c r="K30" s="2" t="n"/>
-      <c r="L30" s="2" t="n"/>
-      <c r="M30" s="2" t="n"/>
-      <c r="N30" s="2" t="inlineStr">
-        <is>
-          <t>Engagement can involve cognitive, emotional and behavioural engagement with an intervention.</t>
-        </is>
-      </c>
-      <c r="O30" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P30" s="2" t="n"/>
-      <c r="Q30" s="2" t="n"/>
-      <c r="R30" s="2" t="n"/>
-      <c r="S30" s="2" t="n"/>
-      <c r="T30" s="2" t="n"/>
-      <c r="U30" s="2" t="n"/>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>MF:0000016</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>An extended organism that is a member of the species Homo sapiens.</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>extended organism</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1774,12 +1774,12 @@
           <t>sum of multiple experienced events</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>A person's history includes the sum of their experiences, which can include experiences relating to their cultural, social and economic context.</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr">
+      <c r="R31" t="inlineStr">
         <is>
           <t>External</t>
         </is>
@@ -1811,7 +1811,7 @@
           <t>experienced event</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
+      <c r="R32" t="inlineStr">
         <is>
           <t>External</t>
         </is>
@@ -1838,7 +1838,7 @@
           <t>realizable entity</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr">
+      <c r="R33" t="inlineStr">
         <is>
           <t>External</t>
         </is>
@@ -1865,7 +1865,7 @@
           <t>process</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr">
+      <c r="R34" t="inlineStr">
         <is>
           <t>External</t>
         </is>
@@ -1899,21 +1899,21 @@
       <c r="I35" s="2" t="n"/>
       <c r="J35" s="2" t="n"/>
       <c r="K35" s="2" t="n"/>
-      <c r="L35" s="2" t="n"/>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>is an aggregate of personal history; experiences can be captured as 'personal history part'.</t>
+        </is>
+      </c>
       <c r="M35" s="2" t="n"/>
-      <c r="N35" s="2" t="inlineStr">
-        <is>
-          <t>is an aggregate of personal history; experiences can be captured as 'personal history part'.</t>
-        </is>
-      </c>
-      <c r="O35" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
+      <c r="N35" s="2" t="n"/>
+      <c r="O35" s="2" t="n"/>
       <c r="P35" s="2" t="n"/>
       <c r="Q35" s="2" t="n"/>
-      <c r="R35" s="2" t="n"/>
+      <c r="R35" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="S35" s="2" t="n"/>
       <c r="T35" s="2" t="n"/>
       <c r="U35" s="2" t="n"/>
@@ -1939,7 +1939,7 @@
           <t>occurrent</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr">
+      <c r="R36" t="inlineStr">
         <is>
           <t>External</t>
         </is>
@@ -1966,7 +1966,7 @@
           <t>planned process</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
+      <c r="R37" t="inlineStr">
         <is>
           <t>External</t>
         </is>
@@ -2002,20 +2002,20 @@
       <c r="K38" s="4" t="n"/>
       <c r="L38" s="4" t="n"/>
       <c r="M38" s="4" t="n"/>
-      <c r="N38" s="4" t="n"/>
-      <c r="O38" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
+      <c r="N38" s="4" t="inlineStr">
+        <is>
+          <t>SEPIO:0000125</t>
+        </is>
+      </c>
+      <c r="O38" s="4" t="n"/>
       <c r="P38" s="4" t="n"/>
       <c r="Q38" s="4" t="n"/>
-      <c r="R38" s="4" t="n"/>
-      <c r="S38" s="4" t="inlineStr">
-        <is>
-          <t>SEPIO:0000125</t>
-        </is>
-      </c>
+      <c r="R38" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="S38" s="4" t="n"/>
       <c r="T38" s="4" t="n"/>
       <c r="U38" s="4" t="n"/>
     </row>
@@ -2040,7 +2040,7 @@
           <t>realizable entity</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr">
+      <c r="R39" t="inlineStr">
         <is>
           <t>External</t>
         </is>

--- a/UpperLevel/GMHO_Upper_Defs.xlsx
+++ b/UpperLevel/GMHO_Upper_Defs.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -40,11 +40,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="007fffd4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ffffff"/>
       </patternFill>
     </fill>
     <fill>
@@ -65,12 +60,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1628,98 +1622,68 @@
       <c r="U27" s="2" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="inlineStr">
+      <c r="A28" t="inlineStr">
         <is>
           <t>BFO:0000027</t>
         </is>
       </c>
-      <c r="B28" s="3" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>object aggregate</t>
         </is>
       </c>
-      <c r="C28" s="3" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>b is an object aggregate means: b is a material entity consisting exactly of a plurality of objects as member_parts at all times at which b exists. (axiom label in BFO2 Reference: [025-004])</t>
         </is>
       </c>
-      <c r="D28" s="3" t="n"/>
-      <c r="E28" s="3" t="n"/>
-      <c r="F28" s="3" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="G28" s="3" t="n"/>
-      <c r="H28" s="3" t="n"/>
-      <c r="I28" s="3" t="n"/>
-      <c r="J28" s="3" t="n"/>
-      <c r="K28" s="3" t="n"/>
-      <c r="L28" s="3" t="n"/>
-      <c r="M28" s="3" t="n"/>
-      <c r="N28" s="3" t="n"/>
-      <c r="O28" s="3" t="n"/>
-      <c r="P28" s="3" t="n"/>
-      <c r="Q28" s="3" t="n"/>
-      <c r="R28" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S28" s="3" t="n"/>
-      <c r="T28" s="3" t="n"/>
-      <c r="U28" s="3" t="n"/>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="inlineStr">
+      <c r="A29" t="inlineStr">
         <is>
           <t>BCIO:050916</t>
         </is>
       </c>
-      <c r="B29" s="2" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>participant engagement with intervention</t>
         </is>
       </c>
-      <c r="C29" s="2" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>An individual human activity of an intervention participant within one or more parts of the intervention.</t>
         </is>
       </c>
-      <c r="D29" s="2" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>The extent to which someone interacts with an intervention, including their cognitive, emotional and behavioural response (e.g., attending intervention session) to the intervention itself.</t>
         </is>
       </c>
-      <c r="E29" s="2" t="n"/>
-      <c r="F29" s="2" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>individual human activity</t>
         </is>
       </c>
-      <c r="G29" s="2" t="n"/>
-      <c r="H29" s="2" t="n"/>
-      <c r="I29" s="2" t="n"/>
-      <c r="J29" s="2" t="n"/>
-      <c r="K29" s="2" t="n"/>
-      <c r="L29" s="2" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>Engagement can involve cognitive, emotional and behavioural engagement with an intervention.</t>
         </is>
       </c>
-      <c r="M29" s="2" t="n"/>
-      <c r="N29" s="2" t="n"/>
-      <c r="O29" s="2" t="n"/>
-      <c r="P29" s="2" t="n"/>
-      <c r="Q29" s="2" t="n"/>
-      <c r="R29" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="S29" s="2" t="n"/>
-      <c r="T29" s="2" t="n"/>
-      <c r="U29" s="2" t="n"/>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1973,51 +1937,51 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="inlineStr">
+      <c r="A38" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000268</t>
         </is>
       </c>
-      <c r="B38" s="4" t="inlineStr">
+      <c r="B38" s="3" t="inlineStr">
         <is>
           <t>research study</t>
         </is>
       </c>
-      <c r="C38" s="4" t="inlineStr">
+      <c r="C38" s="3" t="inlineStr">
         <is>
           <t>A planned process that executes some study design or protocol to generate scientific data that is interpreted to test or generate a hypothesis.</t>
         </is>
       </c>
-      <c r="D38" s="4" t="n"/>
-      <c r="E38" s="4" t="n"/>
-      <c r="F38" s="4" t="inlineStr">
+      <c r="D38" s="3" t="n"/>
+      <c r="E38" s="3" t="n"/>
+      <c r="F38" s="3" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="G38" s="4" t="n"/>
-      <c r="H38" s="4" t="n"/>
-      <c r="I38" s="4" t="n"/>
-      <c r="J38" s="4" t="n"/>
-      <c r="K38" s="4" t="n"/>
-      <c r="L38" s="4" t="n"/>
-      <c r="M38" s="4" t="n"/>
-      <c r="N38" s="4" t="inlineStr">
+      <c r="G38" s="3" t="n"/>
+      <c r="H38" s="3" t="n"/>
+      <c r="I38" s="3" t="n"/>
+      <c r="J38" s="3" t="n"/>
+      <c r="K38" s="3" t="n"/>
+      <c r="L38" s="3" t="n"/>
+      <c r="M38" s="3" t="n"/>
+      <c r="N38" s="3" t="inlineStr">
         <is>
           <t>SEPIO:0000125</t>
         </is>
       </c>
-      <c r="O38" s="4" t="n"/>
-      <c r="P38" s="4" t="n"/>
-      <c r="Q38" s="4" t="n"/>
-      <c r="R38" s="4" t="inlineStr">
+      <c r="O38" s="3" t="n"/>
+      <c r="P38" s="3" t="n"/>
+      <c r="Q38" s="3" t="n"/>
+      <c r="R38" s="3" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="S38" s="4" t="n"/>
-      <c r="T38" s="4" t="n"/>
-      <c r="U38" s="4" t="n"/>
+      <c r="S38" s="3" t="n"/>
+      <c r="T38" s="3" t="n"/>
+      <c r="U38" s="3" t="n"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">

--- a/UpperLevel/GMHO_Upper_Defs.xlsx
+++ b/UpperLevel/GMHO_Upper_Defs.xlsx
@@ -1634,7 +1634,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>b is an object aggregate means: b is a material entity consisting exactly of a plurality of objects as member_parts at all times at which b exists. (axiom label in BFO2 Reference: [025-004])</t>
+          <t xml:space="preserve">b is an object aggregate means: b is a material entity consisting exactly of a plurality of objects as member_parts at all times at which b exists. </t>
         </is>
       </c>
       <c r="F28" t="inlineStr">

--- a/UpperLevel/GMHO_Upper_Defs.xlsx
+++ b/UpperLevel/GMHO_Upper_Defs.xlsx
@@ -585,7 +585,7 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>An object aggregate of entities that are not dependent on the intervention but may influence the effect of an intervention on its outcome.</t>
+          <t>An aggregate of entities that are not dependent on the event but may influence the effect of the event on the person.</t>
         </is>
       </c>
       <c r="D3" s="2" t="n"/>

--- a/UpperLevel/GMHO_Upper_Defs.xlsx
+++ b/UpperLevel/GMHO_Upper_Defs.xlsx
@@ -1733,11 +1733,12 @@
           <t>history</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>sum of multiple experienced events</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
           <t>A person's history includes the sum of their experiences, which can include experiences relating to their cultural, social and economic context.</t>
@@ -1770,11 +1771,12 @@
           <t>process</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>experienced event</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
           <t>External</t>

--- a/UpperLevel/GMHO_Upper_Defs.xlsx
+++ b/UpperLevel/GMHO_Upper_Defs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micas\OneDrive\Documentos\GitHub\mental-health-ontology\UpperLevel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EA1498-70F6-4BCF-BDBD-69FB7CD99385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369A23DE-6F2B-4D69-9C6C-56CF04D75B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="181">
   <si>
     <t>ID</t>
   </si>
@@ -586,6 +586,12 @@
   </si>
   <si>
     <t>REL 'investigates'</t>
+  </si>
+  <si>
+    <t>REL 'has context'</t>
+  </si>
+  <si>
+    <t>intervention context</t>
   </si>
 </sst>
 </file>
@@ -943,10 +949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z39"/>
+  <dimension ref="A1:AA39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C15" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -954,7 +960,7 @@
     <col min="10" max="11" width="14.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1004,37 +1010,40 @@
         <v>178</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1047,11 +1056,11 @@
       <c r="F2" t="s">
         <v>24</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -1078,20 +1087,21 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
-      <c r="S3" s="2" t="s">
+      <c r="S3" s="2"/>
+      <c r="T3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
-      <c r="W3" s="2" t="s">
+      <c r="W3" s="2"/>
+      <c r="X3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA3" s="2"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -1104,11 +1114,11 @@
       <c r="F4" t="s">
         <v>35</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -1121,11 +1131,11 @@
       <c r="F5" t="s">
         <v>39</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -1147,14 +1157,14 @@
       <c r="O6" t="s">
         <v>139</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>44</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -1167,11 +1177,11 @@
       <c r="F7" t="s">
         <v>39</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -1187,11 +1197,11 @@
       <c r="I8" t="s">
         <v>52</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>53</v>
       </c>
@@ -1218,20 +1228,21 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
-      <c r="S9" s="2" t="s">
+      <c r="S9" s="2"/>
+      <c r="T9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
-      <c r="W9" s="2" t="s">
+      <c r="W9" s="2"/>
+      <c r="X9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA9" s="2"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>58</v>
       </c>
@@ -1244,11 +1255,11 @@
       <c r="F10" t="s">
         <v>51</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>61</v>
       </c>
@@ -1277,20 +1288,21 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
-      <c r="S11" s="2" t="s">
+      <c r="S11" s="2"/>
+      <c r="T11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
-      <c r="W11" s="2" t="s">
+      <c r="W11" s="2"/>
+      <c r="X11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA11" s="2"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -1309,14 +1321,14 @@
       <c r="K12" t="s">
         <v>172</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>68</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>69</v>
       </c>
@@ -1343,22 +1355,23 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
-      <c r="Q13" s="2" t="s">
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
-      <c r="W13" s="2" t="s">
+      <c r="W13" s="2"/>
+      <c r="X13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA13" s="2"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>74</v>
       </c>
@@ -1383,22 +1396,23 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="2" t="s">
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
-      <c r="W14" s="2" t="s">
+      <c r="W14" s="2"/>
+      <c r="X14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA14" s="2"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>78</v>
       </c>
@@ -1429,14 +1443,15 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
-      <c r="W15" s="2" t="s">
+      <c r="W15" s="2"/>
+      <c r="X15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA15" s="2"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>81</v>
       </c>
@@ -1449,11 +1464,11 @@
       <c r="F16" t="s">
         <v>39</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -1466,14 +1481,14 @@
       <c r="F17" t="s">
         <v>41</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>87</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>88</v>
       </c>
@@ -1498,22 +1513,23 @@
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
-      <c r="Q18" s="2" t="s">
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="R18" s="2"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
-      <c r="W18" s="2" t="s">
+      <c r="W18" s="2"/>
+      <c r="X18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA18" s="2"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>92</v>
       </c>
@@ -1540,20 +1556,21 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
-      <c r="S19" s="2" t="s">
+      <c r="S19" s="2"/>
+      <c r="T19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
-      <c r="W19" s="2" t="s">
+      <c r="W19" s="2"/>
+      <c r="X19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA19" s="2"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>95</v>
       </c>
@@ -1580,22 +1597,23 @@
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
-      <c r="Q20" s="2" t="s">
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="R20" s="2"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
-      <c r="W20" s="2" t="s">
+      <c r="W20" s="2"/>
+      <c r="X20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA20" s="2"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>101</v>
       </c>
@@ -1608,14 +1626,14 @@
       <c r="F21" t="s">
         <v>22</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>104</v>
       </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>105</v>
       </c>
@@ -1646,14 +1664,15 @@
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
-      <c r="W22" s="2" t="s">
+      <c r="W22" s="2"/>
+      <c r="X22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA22" s="2"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>108</v>
       </c>
@@ -1680,20 +1699,21 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
-      <c r="S23" s="2" t="s">
+      <c r="S23" s="2"/>
+      <c r="T23" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
-      <c r="W23" s="2" t="s">
+      <c r="W23" s="2"/>
+      <c r="X23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA23" s="2"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>112</v>
       </c>
@@ -1722,22 +1742,23 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
-      <c r="Q24" s="2" t="s">
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="R24" s="2"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
-      <c r="W24" s="2" t="s">
+      <c r="W24" s="2"/>
+      <c r="X24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA24" s="2"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>116</v>
       </c>
@@ -1774,14 +1795,15 @@
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
-      <c r="W25" s="2" t="s">
+      <c r="W25" s="2"/>
+      <c r="X25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA25" s="2"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>120</v>
       </c>
@@ -1813,23 +1835,26 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="R26" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="R26" s="2"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
-      <c r="U26" s="2" t="s">
+      <c r="U26" s="2"/>
+      <c r="V26" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="V26" s="2"/>
-      <c r="W26" s="2" t="s">
+      <c r="W26" s="2"/>
+      <c r="X26" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA26" s="2"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>125</v>
       </c>
@@ -1854,24 +1879,25 @@
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
-      <c r="Q27" s="2" t="s">
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2" t="s">
+      <c r="S27" s="2"/>
+      <c r="T27" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="T27" s="2"/>
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
-      <c r="W27" s="2" t="s">
+      <c r="W27" s="2"/>
+      <c r="X27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA27" s="2"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>131</v>
       </c>
@@ -1884,11 +1910,11 @@
       <c r="F28" t="s">
         <v>35</v>
       </c>
-      <c r="W28" t="s">
+      <c r="X28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>133</v>
       </c>
@@ -1904,14 +1930,14 @@
       <c r="F29" t="s">
         <v>46</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="R29" t="s">
         <v>137</v>
       </c>
-      <c r="W29" t="s">
+      <c r="X29" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>138</v>
       </c>
@@ -1927,11 +1953,11 @@
       <c r="N30" t="s">
         <v>142</v>
       </c>
-      <c r="W30" t="s">
+      <c r="X30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>141</v>
       </c>
@@ -1950,14 +1976,14 @@
       <c r="O31" t="s">
         <v>147</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="R31" t="s">
         <v>145</v>
       </c>
-      <c r="W31" t="s">
+      <c r="X31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>146</v>
       </c>
@@ -1973,11 +1999,14 @@
       <c r="G32" t="s">
         <v>149</v>
       </c>
-      <c r="W32" t="s">
+      <c r="Q32" t="s">
+        <v>27</v>
+      </c>
+      <c r="X32" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>150</v>
       </c>
@@ -1990,11 +2019,11 @@
       <c r="F33" t="s">
         <v>152</v>
       </c>
-      <c r="W33" t="s">
+      <c r="X33" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>153</v>
       </c>
@@ -2007,11 +2036,11 @@
       <c r="F34" t="s">
         <v>39</v>
       </c>
-      <c r="W34" t="s">
+      <c r="X34" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>155</v>
       </c>
@@ -2036,22 +2065,23 @@
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
-      <c r="Q35" s="2" t="s">
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="R35" s="2"/>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
-      <c r="W35" s="2" t="s">
+      <c r="W35" s="2"/>
+      <c r="X35" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA35" s="2"/>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>159</v>
       </c>
@@ -2064,11 +2094,11 @@
       <c r="F36" t="s">
         <v>161</v>
       </c>
-      <c r="W36" t="s">
+      <c r="X36" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>162</v>
       </c>
@@ -2084,11 +2114,11 @@
       <c r="P37" t="s">
         <v>41</v>
       </c>
-      <c r="W37" t="s">
+      <c r="X37" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>165</v>
       </c>
@@ -2115,20 +2145,21 @@
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
-      <c r="S38" s="3" t="s">
+      <c r="S38" s="3"/>
+      <c r="T38" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
-      <c r="W38" s="3" t="s">
+      <c r="W38" s="3"/>
+      <c r="X38" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA38" s="3"/>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>167</v>
       </c>
@@ -2141,7 +2172,7 @@
       <c r="F39" t="s">
         <v>152</v>
       </c>
-      <c r="W39" t="s">
+      <c r="X39" t="s">
         <v>25</v>
       </c>
     </row>

--- a/UpperLevel/GMHO_Upper_Defs.xlsx
+++ b/UpperLevel/GMHO_Upper_Defs.xlsx
@@ -1845,6 +1845,11 @@
           <t>individual human activity</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">attendance to intervention sessions, participation in intervention activities, emotionally engaging with intervention content </t>
+        </is>
+      </c>
       <c r="R29" t="inlineStr">
         <is>
           <t>Engagement can involve cognitive, emotional and behavioural engagement with an intervention.</t>

--- a/UpperLevel/GMHO_Upper_Defs.xlsx
+++ b/UpperLevel/GMHO_Upper_Defs.xlsx
@@ -615,14 +615,14 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>An aggregate of entities that are not dependent on the event but may influence the effect of the event on the person.</t>
+          <t xml:space="preserve">A process context in which the process is an experience. </t>
         </is>
       </c>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>object aggregate</t>
+          <t>process context</t>
         </is>
       </c>
       <c r="G3" s="2" t="n"/>
@@ -731,7 +731,8 @@
           <t>object aggregate</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
         <is>
           <t>target population</t>
         </is>
@@ -910,14 +911,14 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>An object aggregate of entities that are not dependent on the intervention but may influence the effect of an intervention on its outcome.</t>
+          <t>A process context in which the process is an intervention.</t>
         </is>
       </c>
       <c r="D11" s="2" t="n"/>
       <c r="E11" s="2" t="n"/>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>object aggregate</t>
+          <t>process context</t>
         </is>
       </c>
       <c r="G11" s="2" t="n"/>
@@ -1095,7 +1096,7 @@
       <c r="Q14" s="2" t="n"/>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">For a construct to be a mechanism of action, it must be causally active in bringing about the intervention’s effect on its outcome. However, interventions are typically designed based on hypothesised mechanisms of action, which may or may not hold true depending on factors such as behaviour type, population, and setting. 
+          <t xml:space="preserve">For a construct to be a mechanism of action, it must be causally active in bringing about the intervention’s effect on its outcome. However, interventions are typically designed based on hypothesised mechanisms of action, which may or may not hold true depending on factors such as population and setting. 
 The ontology provides a structured framework for organising mechanisms of action but does not replace the need for empirical validation. The ontology does not specify the level of evidence required to confirm that a hypothesised mechanism has been realised. In other words, the ontology itself does not make causal inferences about specific mechanisms. 
 When using the ontology, researchers can code hypothesised mechanisms within the subclasses of “intervention mechanism of action”. The assessment of whether sufficient evidence supports a causal relationship occurs at the annotation level, where empirical data validate the connections between constructs. 
 The relationship between intervention techniques, mechanisms, and outcomes is often complex and non-linear. Multiple mechanisms of action may interact in various ways, including combinations, sequences, or feedback loops.
@@ -1496,14 +1497,14 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of processes taking place at the same time as an intervention.</t>
+          <t xml:space="preserve">A temporal context of a process where the process is the intervention. </t>
         </is>
       </c>
       <c r="D23" s="2" t="n"/>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t xml:space="preserve">temporal context of process </t>
         </is>
       </c>
       <c r="G23" s="2" t="n"/>
@@ -1675,7 +1676,7 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>A planned process in which a mental health intervention is applied in a given context, including intervention engagement and outcome.</t>
+          <t>A planned process in which a mental health intervention is applied in a given context.</t>
         </is>
       </c>
       <c r="D26" s="2" t="n"/>

--- a/UpperLevel/GMHO_Upper_Defs.xlsx
+++ b/UpperLevel/GMHO_Upper_Defs.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -40,6 +40,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="007fffd4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffffff"/>
       </patternFill>
     </fill>
     <fill>
@@ -60,11 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -430,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA39"/>
+  <dimension ref="A1:AA42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -731,7 +737,6 @@
           <t>object aggregate</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
           <t>target population</t>
@@ -1539,94 +1544,76 @@
       <c r="AA23" s="2" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000004</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>material context of process</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A material entity that is not dependent on a process but may influence the effect of the process on its outcome. </t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr"/>
+      <c r="E24" s="3" t="inlineStr"/>
+      <c r="F24" s="3" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="G24" s="3" t="inlineStr"/>
+      <c r="H24" s="3" t="inlineStr"/>
+      <c r="I24" s="3" t="inlineStr"/>
+      <c r="J24" s="3" t="inlineStr"/>
+      <c r="K24" s="3" t="inlineStr"/>
+      <c r="L24" s="3" t="inlineStr"/>
+      <c r="M24" s="3" t="inlineStr"/>
+      <c r="N24" s="3" t="inlineStr"/>
+      <c r="O24" s="3" t="inlineStr"/>
+      <c r="P24" s="3" t="inlineStr"/>
+      <c r="Q24" s="3" t="inlineStr"/>
+      <c r="R24" s="3" t="inlineStr"/>
+      <c r="S24" s="3" t="inlineStr"/>
+      <c r="T24" s="3" t="inlineStr"/>
+      <c r="U24" s="3" t="inlineStr"/>
+      <c r="V24" s="3" t="inlineStr"/>
+      <c r="W24" s="3" t="inlineStr"/>
+      <c r="X24" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y24" s="3" t="inlineStr"/>
+      <c r="Z24" s="3" t="inlineStr"/>
+      <c r="AA24" s="3" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000248</t>
         </is>
       </c>
-      <c r="B24" s="2" t="inlineStr">
+      <c r="B25" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">mental health intervention
 </t>
         </is>
       </c>
-      <c r="C24" s="2" t="inlineStr">
+      <c r="C25" s="2" t="inlineStr">
         <is>
           <t>An intervention that has the aim of influencing some aspect of mental health.</t>
         </is>
       </c>
-      <c r="D24" s="2" t="n"/>
-      <c r="E24" s="2" t="n"/>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>intervention</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="n"/>
-      <c r="H24" s="2" t="n"/>
-      <c r="I24" s="2" t="n"/>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>intervention delivery; mental health intervention content</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="n"/>
-      <c r="L24" s="2" t="n"/>
-      <c r="M24" s="2" t="inlineStr">
-        <is>
-          <t>participant engagement with intervention</t>
-        </is>
-      </c>
-      <c r="N24" s="2" t="n"/>
-      <c r="O24" s="2" t="n"/>
-      <c r="P24" s="2" t="n"/>
-      <c r="Q24" s="2" t="n"/>
-      <c r="R24" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The "mental health intervention scenario" entity captures a "mental health intervention" within a specific context, level of engagement and outcomes. Mental health interventions (represented as "mental health intervention") could be delivered in different contexts and/or have different outcomes at different times. For example, we could deliver the same intervention ("mental health intervention") two years after its previous delivery or in a different context ("mental health intervention scenario"), and this could lead to different outcomes. 
-</t>
-        </is>
-      </c>
-      <c r="S24" s="2" t="n"/>
-      <c r="T24" s="2" t="n"/>
-      <c r="U24" s="2" t="n"/>
-      <c r="V24" s="2" t="n"/>
-      <c r="W24" s="2" t="n"/>
-      <c r="X24" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y24" s="2" t="n"/>
-      <c r="Z24" s="2" t="n"/>
-      <c r="AA24" s="2" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000241</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">mental health intervention content
-</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>An intervention content that is part of a mental health intervention.</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>Any intervention content delivered in the context of a mental health intervention.</t>
-        </is>
-      </c>
+      <c r="D25" s="2" t="n"/>
       <c r="E25" s="2" t="n"/>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>intervention content</t>
+          <t>intervention</t>
         </is>
       </c>
       <c r="G25" s="2" t="n"/>
@@ -1634,21 +1621,26 @@
       <c r="I25" s="2" t="n"/>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>intervention technique</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>intervention dose</t>
-        </is>
-      </c>
+          <t>intervention delivery; mental health intervention content</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="n"/>
       <c r="L25" s="2" t="n"/>
-      <c r="M25" s="2" t="n"/>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>participant engagement with intervention</t>
+        </is>
+      </c>
       <c r="N25" s="2" t="n"/>
       <c r="O25" s="2" t="n"/>
       <c r="P25" s="2" t="n"/>
       <c r="Q25" s="2" t="n"/>
-      <c r="R25" s="2" t="n"/>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The "mental health intervention scenario" entity captures a "mental health intervention" within a specific context, level of engagement and outcomes. Mental health interventions (represented as "mental health intervention") could be delivered in different contexts and/or have different outcomes at different times. For example, we could deliver the same intervention ("mental health intervention") two years after its previous delivery or in a different context ("mental health intervention scenario"), and this could lead to different outcomes. 
+</t>
+        </is>
+      </c>
       <c r="S25" s="2" t="n"/>
       <c r="T25" s="2" t="n"/>
       <c r="U25" s="2" t="n"/>
@@ -1666,24 +1658,29 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000250</t>
+          <t>GMHO:0000241</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>mental health intervention scenario</t>
+          <t xml:space="preserve">mental health intervention content
+</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>A planned process in which a mental health intervention is applied in a given context.</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="n"/>
+          <t>An intervention content that is part of a mental health intervention.</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>Any intervention content delivered in the context of a mental health intervention.</t>
+        </is>
+      </c>
       <c r="E26" s="2" t="n"/>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>intervention content</t>
         </is>
       </c>
       <c r="G26" s="2" t="n"/>
@@ -1691,41 +1688,25 @@
       <c r="I26" s="2" t="n"/>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>intervention mechanism of action; participant engagement with intervention; mental health intervention</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="n"/>
-      <c r="L26" s="2" t="inlineStr">
-        <is>
-          <t>mental health intervention scenario plan</t>
-        </is>
-      </c>
-      <c r="M26" s="2" t="inlineStr">
-        <is>
-          <t>intervention outcome</t>
-        </is>
-      </c>
+          <t>intervention technique</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>intervention dose</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="n"/>
+      <c r="M26" s="2" t="n"/>
       <c r="N26" s="2" t="n"/>
       <c r="O26" s="2" t="n"/>
       <c r="P26" s="2" t="n"/>
-      <c r="Q26" s="2" t="inlineStr">
-        <is>
-          <t>intervention context</t>
-        </is>
-      </c>
-      <c r="R26" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The "mental health intervention scenario" entity captures a "mental health intervention" within a specific context, level of engagement and outcomes. Mental health interventions (represented as "mental health intervention") could be delivered in different contexts and/or have different outcomes at different times. For example, we could deliver the same intervention ("mental health intervention") two years after its previous delivery or in a different context ("mental health intervention scenario"), and this could lead to different outcomes. </t>
-        </is>
-      </c>
+      <c r="Q26" s="2" t="n"/>
+      <c r="R26" s="2" t="n"/>
       <c r="S26" s="2" t="n"/>
       <c r="T26" s="2" t="n"/>
       <c r="U26" s="2" t="n"/>
-      <c r="V26" s="2" t="inlineStr">
-        <is>
-          <t>planned</t>
-        </is>
-      </c>
+      <c r="V26" s="2" t="n"/>
       <c r="W26" s="2" t="n"/>
       <c r="X26" s="2" t="inlineStr">
         <is>
@@ -1739,50 +1720,66 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000260</t>
+          <t>GMHO:0000250</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>mental health intervention scenario plan</t>
+          <t>mental health intervention scenario</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>A plan that is realized in a mental health intervention scenario process.</t>
+          <t>A planned process in which a mental health intervention is applied in a given context.</t>
         </is>
       </c>
       <c r="D27" s="2" t="n"/>
       <c r="E27" s="2" t="n"/>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>plan</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="G27" s="2" t="n"/>
       <c r="H27" s="2" t="n"/>
       <c r="I27" s="2" t="n"/>
-      <c r="J27" s="2" t="n"/>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>intervention mechanism of action; participant engagement with intervention; mental health intervention</t>
+        </is>
+      </c>
       <c r="K27" s="2" t="n"/>
-      <c r="L27" s="2" t="n"/>
-      <c r="M27" s="2" t="n"/>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>mental health intervention scenario plan</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>intervention outcome</t>
+        </is>
+      </c>
       <c r="N27" s="2" t="n"/>
       <c r="O27" s="2" t="n"/>
       <c r="P27" s="2" t="n"/>
-      <c r="Q27" s="2" t="n"/>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>intervention context</t>
+        </is>
+      </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>This entity is intended to represent the planned content or delivery of an intervention, whereas the entity "mental health intervention scenario" refers to the intervention as it was actually implemented. Distinguishing between these two entities allows for the assessment of intervention fidelity.</t>
+          <t xml:space="preserve">The "mental health intervention scenario" entity captures a "mental health intervention" within a specific context, level of engagement and outcomes. Mental health interventions (represented as "mental health intervention") could be delivered in different contexts and/or have different outcomes at different times. For example, we could deliver the same intervention ("mental health intervention") two years after its previous delivery or in a different context ("mental health intervention scenario"), and this could lead to different outcomes. </t>
         </is>
       </c>
       <c r="S27" s="2" t="n"/>
-      <c r="T27" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:028000</t>
-        </is>
-      </c>
+      <c r="T27" s="2" t="n"/>
       <c r="U27" s="2" t="n"/>
-      <c r="V27" s="2" t="n"/>
+      <c r="V27" s="2" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
       <c r="W27" s="2" t="n"/>
       <c r="X27" s="2" t="inlineStr">
         <is>
@@ -1794,66 +1791,81 @@
       <c r="AA27" s="2" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>BFO:0000027</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>object aggregate</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">b is an object aggregate means: b is a material entity consisting exactly of a plurality of objects as member_parts at all times at which b exists. </t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>material entity</t>
-        </is>
-      </c>
-      <c r="X28" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000260</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>mental health intervention scenario plan</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>A plan that is realized in a mental health intervention scenario process.</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="n"/>
+      <c r="E28" s="2" t="n"/>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="n"/>
+      <c r="H28" s="2" t="n"/>
+      <c r="I28" s="2" t="n"/>
+      <c r="J28" s="2" t="n"/>
+      <c r="K28" s="2" t="n"/>
+      <c r="L28" s="2" t="n"/>
+      <c r="M28" s="2" t="n"/>
+      <c r="N28" s="2" t="n"/>
+      <c r="O28" s="2" t="n"/>
+      <c r="P28" s="2" t="n"/>
+      <c r="Q28" s="2" t="n"/>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>This entity is intended to represent the planned content or delivery of an intervention, whereas the entity "mental health intervention scenario" refers to the intervention as it was actually implemented. Distinguishing between these two entities allows for the assessment of intervention fidelity.</t>
+        </is>
+      </c>
+      <c r="S28" s="2" t="n"/>
+      <c r="T28" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:028000</t>
+        </is>
+      </c>
+      <c r="U28" s="2" t="n"/>
+      <c r="V28" s="2" t="n"/>
+      <c r="W28" s="2" t="n"/>
+      <c r="X28" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y28" s="2" t="n"/>
+      <c r="Z28" s="2" t="n"/>
+      <c r="AA28" s="2" t="n"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:050916</t>
+          <t>BFO:0000027</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>participant engagement with intervention</t>
+          <t>object aggregate</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>An individual human activity of an intervention participant within one or more parts of the intervention.</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>The extent to which someone interacts with an intervention, including their cognitive, emotional and behavioural response (e.g., attending intervention session) to the intervention itself.</t>
+          <t xml:space="preserve">b is an object aggregate means: b is a material entity consisting exactly of a plurality of objects as member_parts at all times at which b exists. </t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>individual human activity</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">attendance to intervention sessions, participation in intervention activities, emotionally engaging with intervention content </t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>Engagement can involve cognitive, emotional and behavioural engagement with an intervention.</t>
+          <t>material entity</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
@@ -1865,27 +1877,37 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>MF:0000016</t>
+          <t>BCIO:050916</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>participant engagement with intervention</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>An extended organism that is a member of the species Homo sapiens.</t>
+          <t>An individual human activity of an intervention participant within one or more parts of the intervention.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>The extent to which someone interacts with an intervention, including their cognitive, emotional and behavioural response (e.g., attending intervention session) to the intervention itself.</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>extended organism</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>personal history</t>
+          <t>individual human activity</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">attendance to intervention sessions, participation in intervention activities, emotionally engaging with intervention content </t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Engagement can involve cognitive, emotional and behavioural engagement with an intervention.</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
@@ -1897,37 +1919,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:015161</t>
+          <t>MF:0000016</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>An extended organism that is a member of the species Homo sapiens.</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>extended organism</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
           <t>personal history</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>A history that is of a person.</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>history</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>sum of multiple experienced events</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>personal history part</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>A person's history includes the sum of their experiences, which can include experiences relating to their cultural, social and economic context.</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
@@ -1939,32 +1951,37 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:050487</t>
+          <t>BCIO:015161</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>personal history</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A history that is of a person.</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>history</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>sum of multiple experienced events</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
           <t>personal history part</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>A process that is part of a personal history.</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>experienced event</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>context of experience</t>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>A person's history includes the sum of their experiences, which can include experiences relating to their cultural, social and economic context.</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
@@ -1976,22 +1993,32 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>OBI:0000260</t>
+          <t>BCIO:050487</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>plan</t>
+          <t>personal history part</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>A plan is a realizable entity that is the inheres in a bearer who is committed to realizing it as a planned process.</t>
+          <t>A process that is part of a personal history.</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>realizable entity</t>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>experienced event</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>context of experience</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
@@ -2003,134 +2030,129 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>OBI:0000260</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A plan is a realizable entity that is the inheres in a bearer who is committed to realizing it as a planned process.</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>realizable entity</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
           <t>OBI:0000011</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>A process that realizes a plan which is the concretization of a plan specification.</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="X34" t="inlineStr">
+      <c r="X35" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="2" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000251</t>
         </is>
       </c>
-      <c r="B35" s="2" t="inlineStr">
+      <c r="B36" s="2" t="inlineStr">
         <is>
           <t>population history</t>
         </is>
       </c>
-      <c r="C35" s="2" t="inlineStr">
+      <c r="C36" s="2" t="inlineStr">
         <is>
           <t>A history that is of a population.</t>
         </is>
       </c>
-      <c r="D35" s="2" t="n"/>
-      <c r="E35" s="2" t="n"/>
-      <c r="F35" s="2" t="inlineStr">
+      <c r="D36" s="2" t="n"/>
+      <c r="E36" s="2" t="n"/>
+      <c r="F36" s="2" t="inlineStr">
         <is>
           <t>history</t>
         </is>
       </c>
-      <c r="G35" s="2" t="n"/>
-      <c r="H35" s="2" t="n"/>
-      <c r="I35" s="2" t="n"/>
-      <c r="J35" s="2" t="n"/>
-      <c r="K35" s="2" t="n"/>
-      <c r="L35" s="2" t="n"/>
-      <c r="M35" s="2" t="n"/>
-      <c r="N35" s="2" t="n"/>
-      <c r="O35" s="2" t="n"/>
-      <c r="P35" s="2" t="n"/>
-      <c r="Q35" s="2" t="n"/>
-      <c r="R35" s="2" t="inlineStr">
+      <c r="G36" s="2" t="n"/>
+      <c r="H36" s="2" t="n"/>
+      <c r="I36" s="2" t="n"/>
+      <c r="J36" s="2" t="n"/>
+      <c r="K36" s="2" t="n"/>
+      <c r="L36" s="2" t="n"/>
+      <c r="M36" s="2" t="n"/>
+      <c r="N36" s="2" t="n"/>
+      <c r="O36" s="2" t="n"/>
+      <c r="P36" s="2" t="n"/>
+      <c r="Q36" s="2" t="n"/>
+      <c r="R36" s="2" t="inlineStr">
         <is>
           <t>is an aggregate of personal history; experiences can be captured as 'personal history part'.</t>
         </is>
       </c>
-      <c r="S35" s="2" t="n"/>
-      <c r="T35" s="2" t="n"/>
-      <c r="U35" s="2" t="n"/>
-      <c r="V35" s="2" t="n"/>
-      <c r="W35" s="2" t="n"/>
-      <c r="X35" s="2" t="inlineStr">
+      <c r="S36" s="2" t="n"/>
+      <c r="T36" s="2" t="n"/>
+      <c r="U36" s="2" t="n"/>
+      <c r="V36" s="2" t="n"/>
+      <c r="W36" s="2" t="n"/>
+      <c r="X36" s="2" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="Y35" s="2" t="n"/>
-      <c r="Z35" s="2" t="n"/>
-      <c r="AA35" s="2" t="n"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>BFO:0000015</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>p is a process = Def. p is an occurrent that has temporal proper parts and for some time t, p s-depends_on some material entity at t. (axiom label in BFO2 Reference: [083-003])</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
-      <c r="X36" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Y36" s="2" t="n"/>
+      <c r="Z36" s="2" t="n"/>
+      <c r="AA36" s="2" t="n"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SEPIO:0000125</t>
+          <t>BFO:0000015</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>research study</t>
+          <t>process</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>A planned process that executes some study design or protocol to generate scientific data that is interpreted to test or generate a hypothesis.</t>
+          <t>p is a process = Def. p is an occurrent that has temporal proper parts and for some time t, p s-depends_on some material entity at t. (axiom label in BFO2 Reference: [083-003])</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>planned process</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>human population</t>
+          <t>occurrent</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
@@ -2142,82 +2164,220 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000268</t>
+          <t>GMHO:0000005</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>research study</t>
+          <t>process context</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>A planned process that executes some study design or protocol to generate scientific data that is interpreted to test or generate a hypothesis.</t>
-        </is>
-      </c>
-      <c r="D38" s="3" t="n"/>
-      <c r="E38" s="3" t="n"/>
+          <t>An entity that includes the material and temporal contexts that are not part of but may influence the outcome of a process.</t>
+        </is>
+      </c>
+      <c r="D38" s="3" t="inlineStr"/>
+      <c r="E38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'temporal context of process' OR 'material context of process' </t>
+        </is>
+      </c>
       <c r="F38" s="3" t="inlineStr">
         <is>
-          <t>planned process</t>
-        </is>
-      </c>
-      <c r="G38" s="3" t="n"/>
-      <c r="H38" s="3" t="n"/>
-      <c r="I38" s="3" t="n"/>
-      <c r="J38" s="3" t="n"/>
-      <c r="K38" s="3" t="n"/>
-      <c r="L38" s="3" t="n"/>
-      <c r="M38" s="3" t="n"/>
-      <c r="N38" s="3" t="n"/>
-      <c r="O38" s="3" t="n"/>
-      <c r="P38" s="3" t="n"/>
-      <c r="Q38" s="3" t="n"/>
-      <c r="R38" s="3" t="n"/>
-      <c r="S38" s="3" t="n"/>
-      <c r="T38" s="3" t="inlineStr">
-        <is>
-          <t>SEPIO:0000125</t>
-        </is>
-      </c>
-      <c r="U38" s="3" t="n"/>
-      <c r="V38" s="3" t="n"/>
-      <c r="W38" s="3" t="n"/>
+          <t>entity</t>
+        </is>
+      </c>
+      <c r="G38" s="3" t="inlineStr"/>
+      <c r="H38" s="3" t="inlineStr"/>
+      <c r="I38" s="3" t="inlineStr"/>
+      <c r="J38" s="3" t="inlineStr"/>
+      <c r="K38" s="3" t="inlineStr"/>
+      <c r="L38" s="3" t="inlineStr"/>
+      <c r="M38" s="3" t="inlineStr"/>
+      <c r="N38" s="3" t="inlineStr"/>
+      <c r="O38" s="3" t="inlineStr"/>
+      <c r="P38" s="3" t="inlineStr"/>
+      <c r="Q38" s="3" t="inlineStr"/>
+      <c r="R38" s="3" t="inlineStr"/>
+      <c r="S38" s="3" t="inlineStr"/>
+      <c r="T38" s="3" t="inlineStr"/>
+      <c r="U38" s="3" t="inlineStr"/>
+      <c r="V38" s="3" t="inlineStr"/>
+      <c r="W38" s="3" t="inlineStr"/>
       <c r="X38" s="3" t="inlineStr">
         <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="Y38" s="3" t="n"/>
-      <c r="Z38" s="3" t="n"/>
-      <c r="AA38" s="3" t="n"/>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y38" s="3" t="inlineStr"/>
+      <c r="Z38" s="3" t="inlineStr"/>
+      <c r="AA38" s="3" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>SEPIO:0000125</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>research study</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>A planned process that executes some study design or protocol to generate scientific data that is interpreted to test or generate a hypothesis.</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>planned process</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>human population</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="inlineStr">
+        <is>
+          <t>GMHO:0000268</t>
+        </is>
+      </c>
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>research study</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>A planned process that executes some study design or protocol to generate scientific data that is interpreted to test or generate a hypothesis.</t>
+        </is>
+      </c>
+      <c r="D40" s="4" t="n"/>
+      <c r="E40" s="4" t="n"/>
+      <c r="F40" s="4" t="inlineStr">
+        <is>
+          <t>planned process</t>
+        </is>
+      </c>
+      <c r="G40" s="4" t="n"/>
+      <c r="H40" s="4" t="n"/>
+      <c r="I40" s="4" t="n"/>
+      <c r="J40" s="4" t="n"/>
+      <c r="K40" s="4" t="n"/>
+      <c r="L40" s="4" t="n"/>
+      <c r="M40" s="4" t="n"/>
+      <c r="N40" s="4" t="n"/>
+      <c r="O40" s="4" t="n"/>
+      <c r="P40" s="4" t="n"/>
+      <c r="Q40" s="4" t="n"/>
+      <c r="R40" s="4" t="n"/>
+      <c r="S40" s="4" t="n"/>
+      <c r="T40" s="4" t="inlineStr">
+        <is>
+          <t>SEPIO:0000125</t>
+        </is>
+      </c>
+      <c r="U40" s="4" t="n"/>
+      <c r="V40" s="4" t="n"/>
+      <c r="W40" s="4" t="n"/>
+      <c r="X40" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="Y40" s="4" t="n"/>
+      <c r="Z40" s="4" t="n"/>
+      <c r="AA40" s="4" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
           <t>BFO:0000023</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>role</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>A realizable entity the manifestation of which brings about some result or end that is not essential to a continuant in virtue of the kind of thing that it is but that can be served or participated in by that kind of continuant in some kinds of natural, social or institutional contexts.</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>realizable entity</t>
         </is>
       </c>
-      <c r="X39" t="inlineStr">
+      <c r="X41" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000006</t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>temporal context of process</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">An occurrent that is not dependent on a process but may influence the effect of the process on its outcome. </t>
+        </is>
+      </c>
+      <c r="D42" s="3" t="inlineStr"/>
+      <c r="E42" s="3" t="inlineStr"/>
+      <c r="F42" s="3" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="G42" s="3" t="inlineStr"/>
+      <c r="H42" s="3" t="inlineStr"/>
+      <c r="I42" s="3" t="inlineStr"/>
+      <c r="J42" s="3" t="inlineStr"/>
+      <c r="K42" s="3" t="inlineStr"/>
+      <c r="L42" s="3" t="inlineStr"/>
+      <c r="M42" s="3" t="inlineStr"/>
+      <c r="N42" s="3" t="inlineStr"/>
+      <c r="O42" s="3" t="inlineStr"/>
+      <c r="P42" s="3" t="inlineStr"/>
+      <c r="Q42" s="3" t="inlineStr"/>
+      <c r="R42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This entity includes time periods, events, etc. </t>
+        </is>
+      </c>
+      <c r="S42" s="3" t="inlineStr"/>
+      <c r="T42" s="3" t="inlineStr"/>
+      <c r="U42" s="3" t="inlineStr"/>
+      <c r="V42" s="3" t="inlineStr"/>
+      <c r="W42" s="3" t="inlineStr"/>
+      <c r="X42" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y42" s="3" t="inlineStr"/>
+      <c r="Z42" s="3" t="inlineStr"/>
+      <c r="AA42" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/UpperLevel/GMHO_Upper_Defs.xlsx
+++ b/UpperLevel/GMHO_Upper_Defs.xlsx
@@ -1559,38 +1559,38 @@
           <t xml:space="preserve">A material entity that is not dependent on a process but may influence the effect of the process on its outcome. </t>
         </is>
       </c>
-      <c r="D24" s="3" t="inlineStr"/>
-      <c r="E24" s="3" t="inlineStr"/>
+      <c r="D24" s="3" t="n"/>
+      <c r="E24" s="3" t="n"/>
       <c r="F24" s="3" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="G24" s="3" t="inlineStr"/>
-      <c r="H24" s="3" t="inlineStr"/>
-      <c r="I24" s="3" t="inlineStr"/>
-      <c r="J24" s="3" t="inlineStr"/>
-      <c r="K24" s="3" t="inlineStr"/>
-      <c r="L24" s="3" t="inlineStr"/>
-      <c r="M24" s="3" t="inlineStr"/>
-      <c r="N24" s="3" t="inlineStr"/>
-      <c r="O24" s="3" t="inlineStr"/>
-      <c r="P24" s="3" t="inlineStr"/>
-      <c r="Q24" s="3" t="inlineStr"/>
-      <c r="R24" s="3" t="inlineStr"/>
-      <c r="S24" s="3" t="inlineStr"/>
-      <c r="T24" s="3" t="inlineStr"/>
-      <c r="U24" s="3" t="inlineStr"/>
-      <c r="V24" s="3" t="inlineStr"/>
-      <c r="W24" s="3" t="inlineStr"/>
+      <c r="G24" s="3" t="n"/>
+      <c r="H24" s="3" t="n"/>
+      <c r="I24" s="3" t="n"/>
+      <c r="J24" s="3" t="n"/>
+      <c r="K24" s="3" t="n"/>
+      <c r="L24" s="3" t="n"/>
+      <c r="M24" s="3" t="n"/>
+      <c r="N24" s="3" t="n"/>
+      <c r="O24" s="3" t="n"/>
+      <c r="P24" s="3" t="n"/>
+      <c r="Q24" s="3" t="n"/>
+      <c r="R24" s="3" t="n"/>
+      <c r="S24" s="3" t="n"/>
+      <c r="T24" s="3" t="n"/>
+      <c r="U24" s="3" t="n"/>
+      <c r="V24" s="3" t="n"/>
+      <c r="W24" s="3" t="n"/>
       <c r="X24" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="Y24" s="3" t="inlineStr"/>
-      <c r="Z24" s="3" t="inlineStr"/>
-      <c r="AA24" s="3" t="inlineStr"/>
+      <c r="Y24" s="3" t="n"/>
+      <c r="Z24" s="3" t="n"/>
+      <c r="AA24" s="3" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
@@ -2177,7 +2177,7 @@
           <t>An entity that includes the material and temporal contexts that are not part of but may influence the outcome of a process.</t>
         </is>
       </c>
-      <c r="D38" s="3" t="inlineStr"/>
+      <c r="D38" s="3" t="n"/>
       <c r="E38" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">'temporal context of process' OR 'material context of process' </t>
@@ -2188,31 +2188,31 @@
           <t>entity</t>
         </is>
       </c>
-      <c r="G38" s="3" t="inlineStr"/>
-      <c r="H38" s="3" t="inlineStr"/>
-      <c r="I38" s="3" t="inlineStr"/>
-      <c r="J38" s="3" t="inlineStr"/>
-      <c r="K38" s="3" t="inlineStr"/>
-      <c r="L38" s="3" t="inlineStr"/>
-      <c r="M38" s="3" t="inlineStr"/>
-      <c r="N38" s="3" t="inlineStr"/>
-      <c r="O38" s="3" t="inlineStr"/>
-      <c r="P38" s="3" t="inlineStr"/>
-      <c r="Q38" s="3" t="inlineStr"/>
-      <c r="R38" s="3" t="inlineStr"/>
-      <c r="S38" s="3" t="inlineStr"/>
-      <c r="T38" s="3" t="inlineStr"/>
-      <c r="U38" s="3" t="inlineStr"/>
-      <c r="V38" s="3" t="inlineStr"/>
-      <c r="W38" s="3" t="inlineStr"/>
+      <c r="G38" s="3" t="n"/>
+      <c r="H38" s="3" t="n"/>
+      <c r="I38" s="3" t="n"/>
+      <c r="J38" s="3" t="n"/>
+      <c r="K38" s="3" t="n"/>
+      <c r="L38" s="3" t="n"/>
+      <c r="M38" s="3" t="n"/>
+      <c r="N38" s="3" t="n"/>
+      <c r="O38" s="3" t="n"/>
+      <c r="P38" s="3" t="n"/>
+      <c r="Q38" s="3" t="n"/>
+      <c r="R38" s="3" t="n"/>
+      <c r="S38" s="3" t="n"/>
+      <c r="T38" s="3" t="n"/>
+      <c r="U38" s="3" t="n"/>
+      <c r="V38" s="3" t="n"/>
+      <c r="W38" s="3" t="n"/>
       <c r="X38" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="Y38" s="3" t="inlineStr"/>
-      <c r="Z38" s="3" t="inlineStr"/>
-      <c r="AA38" s="3" t="inlineStr"/>
+      <c r="Y38" s="3" t="n"/>
+      <c r="Z38" s="3" t="n"/>
+      <c r="AA38" s="3" t="n"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2342,42 +2342,42 @@
           <t xml:space="preserve">An occurrent that is not dependent on a process but may influence the effect of the process on its outcome. </t>
         </is>
       </c>
-      <c r="D42" s="3" t="inlineStr"/>
-      <c r="E42" s="3" t="inlineStr"/>
+      <c r="D42" s="3" t="n"/>
+      <c r="E42" s="3" t="n"/>
       <c r="F42" s="3" t="inlineStr">
         <is>
           <t>occurrent</t>
         </is>
       </c>
-      <c r="G42" s="3" t="inlineStr"/>
-      <c r="H42" s="3" t="inlineStr"/>
-      <c r="I42" s="3" t="inlineStr"/>
-      <c r="J42" s="3" t="inlineStr"/>
-      <c r="K42" s="3" t="inlineStr"/>
-      <c r="L42" s="3" t="inlineStr"/>
-      <c r="M42" s="3" t="inlineStr"/>
-      <c r="N42" s="3" t="inlineStr"/>
-      <c r="O42" s="3" t="inlineStr"/>
-      <c r="P42" s="3" t="inlineStr"/>
-      <c r="Q42" s="3" t="inlineStr"/>
+      <c r="G42" s="3" t="n"/>
+      <c r="H42" s="3" t="n"/>
+      <c r="I42" s="3" t="n"/>
+      <c r="J42" s="3" t="n"/>
+      <c r="K42" s="3" t="n"/>
+      <c r="L42" s="3" t="n"/>
+      <c r="M42" s="3" t="n"/>
+      <c r="N42" s="3" t="n"/>
+      <c r="O42" s="3" t="n"/>
+      <c r="P42" s="3" t="n"/>
+      <c r="Q42" s="3" t="n"/>
       <c r="R42" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">This entity includes time periods, events, etc. </t>
         </is>
       </c>
-      <c r="S42" s="3" t="inlineStr"/>
-      <c r="T42" s="3" t="inlineStr"/>
-      <c r="U42" s="3" t="inlineStr"/>
-      <c r="V42" s="3" t="inlineStr"/>
-      <c r="W42" s="3" t="inlineStr"/>
+      <c r="S42" s="3" t="n"/>
+      <c r="T42" s="3" t="n"/>
+      <c r="U42" s="3" t="n"/>
+      <c r="V42" s="3" t="n"/>
+      <c r="W42" s="3" t="n"/>
       <c r="X42" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="Y42" s="3" t="inlineStr"/>
-      <c r="Z42" s="3" t="inlineStr"/>
-      <c r="AA42" s="3" t="inlineStr"/>
+      <c r="Y42" s="3" t="n"/>
+      <c r="Z42" s="3" t="n"/>
+      <c r="AA42" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/UpperLevel/GMHO_Upper_Defs.xlsx
+++ b/UpperLevel/GMHO_Upper_Defs.xlsx
@@ -1186,12 +1186,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>A process that is influenced by an intervention.</t>
+          <t>An entity that is influenced by an intervention.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>entity</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">

--- a/UpperLevel/GMHO_Upper_Defs.xlsx
+++ b/UpperLevel/GMHO_Upper_Defs.xlsx
@@ -1769,7 +1769,7 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">The "mental health intervention scenario" entity captures a "mental health intervention" within a specific context, level of engagement and outcomes. Mental health interventions (represented as "mental health intervention") could be delivered in different contexts and/or have different outcomes at different times. For example, we could deliver the same intervention ("mental health intervention") two years after its previous delivery or in a different context ("mental health intervention scenario"), and this could lead to different outcomes. </t>
+          <t xml:space="preserve">The "mental health intervention scenario" entity captures a "mental health intervention" within a specific context. Mental health interventions (represented as "mental health intervention") could be delivered in different contexts and/or have different outcomes at different times. For example, we could deliver the same intervention ("mental health intervention") two years after its previous delivery or in a different context ("mental health intervention scenario"), and this could lead to different outcomes. </t>
         </is>
       </c>
       <c r="S27" s="2" t="n"/>

--- a/UpperLevel/GMHO_Upper_Defs.xlsx
+++ b/UpperLevel/GMHO_Upper_Defs.xlsx
@@ -1043,15 +1043,15 @@
       <c r="N13" s="2" t="n"/>
       <c r="O13" s="2" t="n"/>
       <c r="P13" s="2" t="n"/>
-      <c r="Q13" s="2" t="n"/>
+      <c r="Q13" s="2" t="inlineStr"/>
       <c r="R13" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Intervention dose can capture the intensity of any intervention, including social, physical, psychological and pharmacological interventions.
-Intervention dose refers to the intensity or amount of an intervention, which is about the content of an intervention. In contrast, an intervention's schedule of delivery is about the temporal aspects of the intervention. There is some overlap between the entities "intervention dose" and "intervention schedule of delivery". For example, a more frequent intervention schedule with specific doses would suggest a higher overall dose of the intervention. However, "intervention dose" can capture concepts that are not directly relevant to the temporal organisation of the intervention, such as overall number of intervention strategies and drug dose. This class intends to represent the actual dose delivered as part of an intervention, whereas the class "mental health intervention scenario plan" refers to the planned intervention, including the planned dose of an intervention. Distinguishing between these two classes allows for the assessment of intervention fidelity. To capture planned dose, researchers could annotate both the class "intervention dose" and "mental health intervention scenario plan".
+Intervention dose refers to the intensity or amount of an intervention, which is about the content of an intervention. In contrast, an intervention's schedule of delivery is about the temporal aspects of the intervention. There is some overlap between the classes "intervention dose" and "intervention schedule of delivery". For example, a more frequent intervention schedule with specific doses would suggest a higher overall dose of the intervention. However, "intervention dose" can capture concepts that are not directly relevant to the temporal organisation of the intervention, such as overall number of intervention strategies and drug dose. This class intends to represent the actual dose delivered as part of an intervention, whereas the class "mental health intervention scenario plan" refers to the planned intervention, including the planned dose of an intervention. Distinguishing between these two classes allows for the assessment of intervention fidelity. To capture planned dose, researchers could annotate both the class "intervention dose" and "mental health intervention scenario plan".
 </t>
         </is>
       </c>
-      <c r="S13" s="2" t="n"/>
+      <c r="S13" s="2" t="inlineStr"/>
       <c r="T13" s="2" t="n"/>
       <c r="U13" s="2" t="n"/>
       <c r="V13" s="2" t="n"/>
@@ -1387,7 +1387,7 @@
       <c r="Q20" s="2" t="n"/>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">The entity “intervention source” has been defined to include a person, population or organisation, as these sources can be legally accountable for an intervention. A computer program or machine cannot be held accountable in the same way. Therefore, the organisation or people that provide the computer program or machine would be considered the intervention source, where relevant. When an intervention is delivered via a computer program (e.g., an app), this can be captured in the ontology through the relevant subclasses of "intervention mode of delivery".
+          <t xml:space="preserve">The class “intervention source” has been defined to include a person, population or organisation, as these sources can be legally accountable for an intervention. A computer program or machine cannot be held accountable in the same way. Therefore, the organisation or people that provide the computer program or machine would be considered the intervention source, where relevant. When an intervention is delivered via a computer program (e.g., an app), this can be captured in the ontology through the relevant subclasses of "intervention mode of delivery".
 </t>
         </is>
       </c>
@@ -1637,7 +1637,7 @@
       <c r="Q25" s="2" t="n"/>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">The "mental health intervention scenario" entity captures a "mental health intervention" within a specific context, level of engagement and outcomes. Mental health interventions (represented as "mental health intervention") could be delivered in different contexts and/or have different outcomes at different times. For example, we could deliver the same intervention ("mental health intervention") two years after its previous delivery or in a different context ("mental health intervention scenario"), and this could lead to different outcomes. 
+          <t xml:space="preserve">The "mental health intervention scenario" class captures a "mental health intervention" within a specific context, level of engagement and outcomes. Mental health interventions (represented as "mental health intervention") could be delivered in different contexts and/or have different outcomes at different times. For example, we could deliver the same intervention ("mental health intervention") two years after its previous delivery or in a different context ("mental health intervention scenario"), and this could lead to different outcomes. 
 </t>
         </is>
       </c>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">The "mental health intervention scenario" entity captures a "mental health intervention" within a specific context. Mental health interventions (represented as "mental health intervention") could be delivered in different contexts and/or have different outcomes at different times. For example, we could deliver the same intervention ("mental health intervention") two years after its previous delivery or in a different context ("mental health intervention scenario"), and this could lead to different outcomes. </t>
+          <t xml:space="preserve">The "mental health intervention scenario" class captures a "mental health intervention" within a specific context. Mental health interventions (represented as "mental health intervention") could be delivered in different contexts and/or have different outcomes at different times. For example, we could deliver the same intervention ("mental health intervention") two years after its previous delivery or in a different context ("mental health intervention scenario"), and this could lead to different outcomes. </t>
         </is>
       </c>
       <c r="S27" s="2" t="n"/>
@@ -1826,7 +1826,7 @@
       <c r="Q28" s="2" t="n"/>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>This entity is intended to represent the planned content or delivery of an intervention, whereas the entity "mental health intervention scenario" refers to the intervention as it was actually implemented. Distinguishing between these two entities allows for the assessment of intervention fidelity.</t>
+          <t>This class is intended to represent the planned content or delivery of an intervention, whereas the class "mental health intervention scenario" refers to the intervention as it was actually implemented. Distinguishing between these two classes allows for the assessment of intervention fidelity.</t>
         </is>
       </c>
       <c r="S28" s="2" t="n"/>

--- a/UpperLevel/GMHO_Upper_Defs.xlsx
+++ b/UpperLevel/GMHO_Upper_Defs.xlsx
@@ -517,42 +517,42 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>REL 'investigates'</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>REL 'has context'</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Sub-ontology</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Definition source</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Informal label for repository</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
           <t>REL 'has part'</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>REL 'investigates'</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>REL 'has context'</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Sub-ontology</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Definition source</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Informal label for repository</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
@@ -643,13 +643,13 @@
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
       <c r="R3" s="2" t="n"/>
-      <c r="S3" s="2" t="n"/>
-      <c r="T3" s="2" t="inlineStr">
+      <c r="S3" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">BCIO:005000
 </t>
         </is>
       </c>
+      <c r="T3" s="2" t="n"/>
       <c r="U3" s="2" t="n"/>
       <c r="V3" s="2" t="n"/>
       <c r="W3" s="2" t="n"/>
@@ -749,12 +749,12 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
+          <t>This entity represents any group consisting of two or more people. It could range for example from small groups, neighbourhoods, and organisations to entire national populations.</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
           <t>person</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>This entity represents any group consisting of two or more people. It could range for example from small groups, neighbourhoods, and organisations to entire national populations.</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
@@ -857,12 +857,12 @@
       <c r="P9" s="2" t="n"/>
       <c r="Q9" s="2" t="n"/>
       <c r="R9" s="2" t="n"/>
-      <c r="S9" s="2" t="n"/>
-      <c r="T9" s="2" t="inlineStr">
+      <c r="S9" s="2" t="inlineStr">
         <is>
           <t>BCIO:050315</t>
         </is>
       </c>
+      <c r="T9" s="2" t="n"/>
       <c r="U9" s="2" t="n"/>
       <c r="V9" s="2" t="n"/>
       <c r="W9" s="2" t="n"/>
@@ -934,23 +934,23 @@
       <c r="L11" s="2" t="n"/>
       <c r="M11" s="2" t="n"/>
       <c r="N11" s="2" t="n"/>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>intervention setting; intervention temporal context; intervention population</t>
-        </is>
-      </c>
+      <c r="O11" s="2" t="n"/>
       <c r="P11" s="2" t="n"/>
       <c r="Q11" s="2" t="n"/>
       <c r="R11" s="2" t="n"/>
-      <c r="S11" s="2" t="n"/>
-      <c r="T11" s="2" t="inlineStr">
+      <c r="S11" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">BCIO:005000
 </t>
         </is>
       </c>
+      <c r="T11" s="2" t="n"/>
       <c r="U11" s="2" t="n"/>
-      <c r="V11" s="2" t="n"/>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>intervention setting; intervention temporal context; intervention population</t>
+        </is>
+      </c>
       <c r="W11" s="2" t="n"/>
       <c r="X11" s="2" t="inlineStr">
         <is>
@@ -992,7 +992,7 @@
           <t>intervention schedule of delivery; intervention style of delivery; intervention mode of delivery; intervention source</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>This class intends to represent the actual delivery of an intervention, whereas the class "mental health intervention scenario plan" refers to the planned intervention, including the planned delivery of an intervention. Distinguishing between these two classes allows for the assessment of intervention fidelity. To capture planned delivery, researchers could annotate both the class "intervention delivery" and "mental health intervention scenario plan".
 The definition of "intervention delivery" states that it is "a planned process by which intervention content is delivered," which refers to the actual execution of the intervention. This phrasing reflects that the intervention was designed and planned in advance before being implemented, thereby making it a "planned process".</t>
@@ -1041,17 +1041,17 @@
       <c r="L13" s="2" t="n"/>
       <c r="M13" s="2" t="n"/>
       <c r="N13" s="2" t="n"/>
-      <c r="O13" s="2" t="n"/>
-      <c r="P13" s="2" t="n"/>
-      <c r="Q13" s="2" t="inlineStr"/>
-      <c r="R13" s="2" t="inlineStr">
+      <c r="O13" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Intervention dose can capture the intensity of any intervention, including social, physical, psychological and pharmacological interventions.
 Intervention dose refers to the intensity or amount of an intervention, which is about the content of an intervention. In contrast, an intervention's schedule of delivery is about the temporal aspects of the intervention. There is some overlap between the classes "intervention dose" and "intervention schedule of delivery". For example, a more frequent intervention schedule with specific doses would suggest a higher overall dose of the intervention. However, "intervention dose" can capture concepts that are not directly relevant to the temporal organisation of the intervention, such as overall number of intervention strategies and drug dose. This class intends to represent the actual dose delivered as part of an intervention, whereas the class "mental health intervention scenario plan" refers to the planned intervention, including the planned dose of an intervention. Distinguishing between these two classes allows for the assessment of intervention fidelity. To capture planned dose, researchers could annotate both the class "intervention dose" and "mental health intervention scenario plan".
 </t>
         </is>
       </c>
-      <c r="S13" s="2" t="inlineStr"/>
+      <c r="P13" s="2" t="n"/>
+      <c r="Q13" s="2" t="n"/>
+      <c r="R13" s="2" t="n"/>
+      <c r="S13" s="2" t="n"/>
       <c r="T13" s="2" t="n"/>
       <c r="U13" s="2" t="n"/>
       <c r="V13" s="2" t="n"/>
@@ -1096,10 +1096,7 @@
       <c r="L14" s="2" t="n"/>
       <c r="M14" s="2" t="n"/>
       <c r="N14" s="2" t="n"/>
-      <c r="O14" s="2" t="n"/>
-      <c r="P14" s="2" t="n"/>
-      <c r="Q14" s="2" t="n"/>
-      <c r="R14" s="2" t="inlineStr">
+      <c r="O14" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">For a construct to be a mechanism of action, it must be causally active in bringing about the intervention’s effect on its outcome. However, interventions are typically designed based on hypothesised mechanisms of action, which may or may not hold true depending on factors such as population and setting. 
 The ontology provides a structured framework for organising mechanisms of action but does not replace the need for empirical validation. The ontology does not specify the level of evidence required to confirm that a hypothesised mechanism has been realised. In other words, the ontology itself does not make causal inferences about specific mechanisms. 
@@ -1108,6 +1105,9 @@
 </t>
         </is>
       </c>
+      <c r="P14" s="2" t="n"/>
+      <c r="Q14" s="2" t="n"/>
+      <c r="R14" s="2" t="n"/>
       <c r="S14" s="2" t="n"/>
       <c r="T14" s="2" t="n"/>
       <c r="U14" s="2" t="n"/>
@@ -1221,7 +1221,7 @@
           <t>human population</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>The definition of intervention population (A human population who are exposed to an intervention) does not imply an explicit assignment to an intervention arm. While some interventions will have study designs in which researchers explicitly assign participants to intervention and control groups, this is not the case for all interventions (e.g., policy changes or public health campaigns).</t>
         </is>
@@ -1265,16 +1265,16 @@
       <c r="L18" s="2" t="n"/>
       <c r="M18" s="2" t="n"/>
       <c r="N18" s="2" t="n"/>
-      <c r="O18" s="2" t="n"/>
-      <c r="P18" s="2" t="n"/>
-      <c r="Q18" s="2" t="n"/>
-      <c r="R18" s="2" t="inlineStr">
+      <c r="O18" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Temporal organisation includes different temporal dimensions, such as timing, frequency, duration and the sequence of activities.
 Intervention dose refers to the intensity or amount of an intervention, which is about the content of an intervention. In contrast, an intervention's schedule of delivery is about the temporal aspects of the intervention. There is some overlap between the entities "intervention dose" and "intervention schedule of delivery". For example, a more frequent intervention schedule with specific doses would suggest a higher overall dose of the intervention. However, "intervention dose" can capture concepts that are not directly relevant to the temporal organisation of the intervention, such as overall number of intervention strategies and drug dose.
 </t>
         </is>
       </c>
+      <c r="P18" s="2" t="n"/>
+      <c r="Q18" s="2" t="n"/>
+      <c r="R18" s="2" t="n"/>
       <c r="S18" s="2" t="n"/>
       <c r="T18" s="2" t="n"/>
       <c r="U18" s="2" t="n"/>
@@ -1325,13 +1325,13 @@
       <c r="P19" s="2" t="n"/>
       <c r="Q19" s="2" t="n"/>
       <c r="R19" s="2" t="n"/>
-      <c r="S19" s="2" t="n"/>
-      <c r="T19" s="2" t="inlineStr">
+      <c r="S19" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">BCIO:005000
 </t>
         </is>
       </c>
+      <c r="T19" s="2" t="n"/>
       <c r="U19" s="2" t="n"/>
       <c r="V19" s="2" t="n"/>
       <c r="W19" s="2" t="n"/>
@@ -1382,15 +1382,15 @@
       <c r="L20" s="2" t="n"/>
       <c r="M20" s="2" t="n"/>
       <c r="N20" s="2" t="n"/>
-      <c r="O20" s="2" t="n"/>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The class “intervention source” has been defined to include a person, population or organisation, as these sources can be legally accountable for an intervention. A computer program or machine cannot be held accountable in the same way. Therefore, the organisation or people that provide the computer program or machine would be considered the intervention source, where relevant. When an intervention is delivered via a computer program (e.g., an app), this can be captured in the ontology through the relevant subclasses of "intervention mode of delivery".
+</t>
+        </is>
+      </c>
       <c r="P20" s="2" t="n"/>
       <c r="Q20" s="2" t="n"/>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The class “intervention source” has been defined to include a person, population or organisation, as these sources can be legally accountable for an intervention. A computer program or machine cannot be held accountable in the same way. Therefore, the organisation or people that provide the computer program or machine would be considered the intervention source, where relevant. When an intervention is delivered via a computer program (e.g., an app), this can be captured in the ontology through the relevant subclasses of "intervention mode of delivery".
-</t>
-        </is>
-      </c>
+      <c r="R20" s="2" t="n"/>
       <c r="S20" s="2" t="n"/>
       <c r="T20" s="2" t="n"/>
       <c r="U20" s="2" t="n"/>
@@ -1426,7 +1426,7 @@
           <t>communication style</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>An intervention can include various different styles of delivery for different parts of the intervention.
 The definition of "intervention style of delivery" is based on two other entities, namely "communication style" and "intervention content communication process". Their definitions are presented below.
@@ -1524,13 +1524,13 @@
       <c r="P23" s="2" t="n"/>
       <c r="Q23" s="2" t="n"/>
       <c r="R23" s="2" t="n"/>
-      <c r="S23" s="2" t="n"/>
-      <c r="T23" s="2" t="inlineStr">
+      <c r="S23" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">BCIO:047000
 </t>
         </is>
       </c>
+      <c r="T23" s="2" t="n"/>
       <c r="U23" s="2" t="n"/>
       <c r="V23" s="2" t="n"/>
       <c r="W23" s="2" t="n"/>
@@ -1544,53 +1544,53 @@
       <c r="AA23" s="2" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="inlineStr">
+      <c r="A24" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000004</t>
         </is>
       </c>
-      <c r="B24" s="3" t="inlineStr">
+      <c r="B24" s="2" t="inlineStr">
         <is>
           <t>material context of process</t>
         </is>
       </c>
-      <c r="C24" s="3" t="inlineStr">
+      <c r="C24" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A material entity that is not dependent on a process but may influence the effect of the process on its outcome. </t>
         </is>
       </c>
-      <c r="D24" s="3" t="n"/>
-      <c r="E24" s="3" t="n"/>
-      <c r="F24" s="3" t="inlineStr">
+      <c r="D24" s="2" t="n"/>
+      <c r="E24" s="2" t="n"/>
+      <c r="F24" s="2" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="G24" s="3" t="n"/>
-      <c r="H24" s="3" t="n"/>
-      <c r="I24" s="3" t="n"/>
-      <c r="J24" s="3" t="n"/>
-      <c r="K24" s="3" t="n"/>
-      <c r="L24" s="3" t="n"/>
-      <c r="M24" s="3" t="n"/>
-      <c r="N24" s="3" t="n"/>
-      <c r="O24" s="3" t="n"/>
-      <c r="P24" s="3" t="n"/>
-      <c r="Q24" s="3" t="n"/>
-      <c r="R24" s="3" t="n"/>
-      <c r="S24" s="3" t="n"/>
-      <c r="T24" s="3" t="n"/>
-      <c r="U24" s="3" t="n"/>
-      <c r="V24" s="3" t="n"/>
-      <c r="W24" s="3" t="n"/>
-      <c r="X24" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Y24" s="3" t="n"/>
-      <c r="Z24" s="3" t="n"/>
-      <c r="AA24" s="3" t="n"/>
+      <c r="G24" s="2" t="n"/>
+      <c r="H24" s="2" t="n"/>
+      <c r="I24" s="2" t="n"/>
+      <c r="J24" s="2" t="n"/>
+      <c r="K24" s="2" t="n"/>
+      <c r="L24" s="2" t="n"/>
+      <c r="M24" s="2" t="n"/>
+      <c r="N24" s="2" t="n"/>
+      <c r="O24" s="2" t="n"/>
+      <c r="P24" s="2" t="n"/>
+      <c r="Q24" s="2" t="n"/>
+      <c r="R24" s="2" t="n"/>
+      <c r="S24" s="2" t="n"/>
+      <c r="T24" s="2" t="n"/>
+      <c r="U24" s="2" t="n"/>
+      <c r="V24" s="2" t="n"/>
+      <c r="W24" s="2" t="n"/>
+      <c r="X24" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y24" s="2" t="n"/>
+      <c r="Z24" s="2" t="n"/>
+      <c r="AA24" s="2" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
@@ -1632,15 +1632,15 @@
         </is>
       </c>
       <c r="N25" s="2" t="n"/>
-      <c r="O25" s="2" t="n"/>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The "mental health intervention scenario" class captures a "mental health intervention" within a specific context, level of engagement and outcomes. Mental health interventions (represented as "mental health intervention") could be delivered in different contexts and/or have different outcomes at different times. For example, we could deliver the same intervention ("mental health intervention") two years after its previous delivery or in a different context ("mental health intervention scenario"), and this could lead to different outcomes. 
+</t>
+        </is>
+      </c>
       <c r="P25" s="2" t="n"/>
       <c r="Q25" s="2" t="n"/>
-      <c r="R25" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The "mental health intervention scenario" class captures a "mental health intervention" within a specific context, level of engagement and outcomes. Mental health interventions (represented as "mental health intervention") could be delivered in different contexts and/or have different outcomes at different times. For example, we could deliver the same intervention ("mental health intervention") two years after its previous delivery or in a different context ("mental health intervention scenario"), and this could lead to different outcomes. 
-</t>
-        </is>
-      </c>
+      <c r="R25" s="2" t="n"/>
       <c r="S25" s="2" t="n"/>
       <c r="T25" s="2" t="n"/>
       <c r="U25" s="2" t="n"/>
@@ -1760,26 +1760,26 @@
         </is>
       </c>
       <c r="N27" s="2" t="n"/>
-      <c r="O27" s="2" t="n"/>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The "mental health intervention scenario" class captures a "mental health intervention" within a specific context. Mental health interventions (represented as "mental health intervention") could be delivered in different contexts and/or have different outcomes at different times. For example, we could deliver the same intervention ("mental health intervention") two years after its previous delivery or in a different context ("mental health intervention scenario"), and this could lead to different outcomes. </t>
+        </is>
+      </c>
       <c r="P27" s="2" t="n"/>
       <c r="Q27" s="2" t="inlineStr">
         <is>
           <t>intervention context</t>
         </is>
       </c>
-      <c r="R27" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The "mental health intervention scenario" class captures a "mental health intervention" within a specific context. Mental health interventions (represented as "mental health intervention") could be delivered in different contexts and/or have different outcomes at different times. For example, we could deliver the same intervention ("mental health intervention") two years after its previous delivery or in a different context ("mental health intervention scenario"), and this could lead to different outcomes. </t>
-        </is>
-      </c>
+      <c r="R27" s="2" t="n"/>
       <c r="S27" s="2" t="n"/>
       <c r="T27" s="2" t="n"/>
-      <c r="U27" s="2" t="n"/>
-      <c r="V27" s="2" t="inlineStr">
+      <c r="U27" s="2" t="inlineStr">
         <is>
           <t>planned</t>
         </is>
       </c>
+      <c r="V27" s="2" t="n"/>
       <c r="W27" s="2" t="n"/>
       <c r="X27" s="2" t="inlineStr">
         <is>
@@ -1821,20 +1821,20 @@
       <c r="L28" s="2" t="n"/>
       <c r="M28" s="2" t="n"/>
       <c r="N28" s="2" t="n"/>
-      <c r="O28" s="2" t="n"/>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>This class is intended to represent the planned content or delivery of an intervention, whereas the class "mental health intervention scenario" refers to the intervention as it was actually implemented. Distinguishing between these two classes allows for the assessment of intervention fidelity.</t>
+        </is>
+      </c>
       <c r="P28" s="2" t="n"/>
       <c r="Q28" s="2" t="n"/>
-      <c r="R28" s="2" t="inlineStr">
-        <is>
-          <t>This class is intended to represent the planned content or delivery of an intervention, whereas the class "mental health intervention scenario" refers to the intervention as it was actually implemented. Distinguishing between these two classes allows for the assessment of intervention fidelity.</t>
-        </is>
-      </c>
-      <c r="S28" s="2" t="n"/>
-      <c r="T28" s="2" t="inlineStr">
+      <c r="R28" s="2" t="n"/>
+      <c r="S28" s="2" t="inlineStr">
         <is>
           <t>BCIO:028000</t>
         </is>
       </c>
+      <c r="T28" s="2" t="n"/>
       <c r="U28" s="2" t="n"/>
       <c r="V28" s="2" t="n"/>
       <c r="W28" s="2" t="n"/>
@@ -1905,7 +1905,7 @@
           <t xml:space="preserve">attendance to intervention sessions, participation in intervention activities, emotionally engaging with intervention content </t>
         </is>
       </c>
-      <c r="R30" t="inlineStr">
+      <c r="O30" t="inlineStr">
         <is>
           <t>Engagement can involve cognitive, emotional and behavioural engagement with an intervention.</t>
         </is>
@@ -1976,12 +1976,12 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
+          <t>A person's history includes the sum of their experiences, which can include experiences relating to their cultural, social and economic context.</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
           <t>personal history part</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>A person's history includes the sum of their experiences, which can include experiences relating to their cultural, social and economic context.</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
@@ -2112,14 +2112,14 @@
       <c r="L36" s="2" t="n"/>
       <c r="M36" s="2" t="n"/>
       <c r="N36" s="2" t="n"/>
-      <c r="O36" s="2" t="n"/>
+      <c r="O36" s="2" t="inlineStr">
+        <is>
+          <t>is an aggregate of personal history; experiences can be captured as 'personal history part'.</t>
+        </is>
+      </c>
       <c r="P36" s="2" t="n"/>
       <c r="Q36" s="2" t="n"/>
-      <c r="R36" s="2" t="inlineStr">
-        <is>
-          <t>is an aggregate of personal history; experiences can be captured as 'personal history part'.</t>
-        </is>
-      </c>
+      <c r="R36" s="2" t="n"/>
       <c r="S36" s="2" t="n"/>
       <c r="T36" s="2" t="n"/>
       <c r="U36" s="2" t="n"/>
@@ -2281,12 +2281,12 @@
       <c r="P40" s="4" t="n"/>
       <c r="Q40" s="4" t="n"/>
       <c r="R40" s="4" t="n"/>
-      <c r="S40" s="4" t="n"/>
-      <c r="T40" s="4" t="inlineStr">
+      <c r="S40" s="4" t="inlineStr">
         <is>
           <t>SEPIO:0000125</t>
         </is>
       </c>
+      <c r="T40" s="4" t="n"/>
       <c r="U40" s="4" t="n"/>
       <c r="V40" s="4" t="n"/>
       <c r="W40" s="4" t="n"/>
@@ -2327,57 +2327,57 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="inlineStr">
+      <c r="A42" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000006</t>
         </is>
       </c>
-      <c r="B42" s="3" t="inlineStr">
+      <c r="B42" s="2" t="inlineStr">
         <is>
           <t>temporal context of process</t>
         </is>
       </c>
-      <c r="C42" s="3" t="inlineStr">
+      <c r="C42" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">An occurrent that is not dependent on a process but may influence the effect of the process on its outcome. </t>
         </is>
       </c>
-      <c r="D42" s="3" t="n"/>
-      <c r="E42" s="3" t="n"/>
-      <c r="F42" s="3" t="inlineStr">
+      <c r="D42" s="2" t="n"/>
+      <c r="E42" s="2" t="n"/>
+      <c r="F42" s="2" t="inlineStr">
         <is>
           <t>occurrent</t>
         </is>
       </c>
-      <c r="G42" s="3" t="n"/>
-      <c r="H42" s="3" t="n"/>
-      <c r="I42" s="3" t="n"/>
-      <c r="J42" s="3" t="n"/>
-      <c r="K42" s="3" t="n"/>
-      <c r="L42" s="3" t="n"/>
-      <c r="M42" s="3" t="n"/>
-      <c r="N42" s="3" t="n"/>
-      <c r="O42" s="3" t="n"/>
-      <c r="P42" s="3" t="n"/>
-      <c r="Q42" s="3" t="n"/>
-      <c r="R42" s="3" t="inlineStr">
+      <c r="G42" s="2" t="n"/>
+      <c r="H42" s="2" t="n"/>
+      <c r="I42" s="2" t="n"/>
+      <c r="J42" s="2" t="n"/>
+      <c r="K42" s="2" t="n"/>
+      <c r="L42" s="2" t="n"/>
+      <c r="M42" s="2" t="n"/>
+      <c r="N42" s="2" t="n"/>
+      <c r="O42" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">This entity includes time periods, events, etc. </t>
         </is>
       </c>
-      <c r="S42" s="3" t="n"/>
-      <c r="T42" s="3" t="n"/>
-      <c r="U42" s="3" t="n"/>
-      <c r="V42" s="3" t="n"/>
-      <c r="W42" s="3" t="n"/>
-      <c r="X42" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Y42" s="3" t="n"/>
-      <c r="Z42" s="3" t="n"/>
-      <c r="AA42" s="3" t="n"/>
+      <c r="P42" s="2" t="n"/>
+      <c r="Q42" s="2" t="n"/>
+      <c r="R42" s="2" t="n"/>
+      <c r="S42" s="2" t="n"/>
+      <c r="T42" s="2" t="n"/>
+      <c r="U42" s="2" t="n"/>
+      <c r="V42" s="2" t="n"/>
+      <c r="W42" s="2" t="n"/>
+      <c r="X42" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y42" s="2" t="n"/>
+      <c r="Z42" s="2" t="n"/>
+      <c r="AA42" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/UpperLevel/GMHO_Upper_Defs.xlsx
+++ b/UpperLevel/GMHO_Upper_Defs.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -40,11 +40,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="007fffd4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ffffff"/>
       </patternFill>
     </fill>
     <fill>
@@ -65,12 +60,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -2207,7 +2201,7 @@
       <c r="W38" s="3" t="n"/>
       <c r="X38" s="3" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Obsolete</t>
         </is>
       </c>
       <c r="Y38" s="3" t="n"/>
@@ -2247,57 +2241,57 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="4" t="inlineStr">
+      <c r="A40" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000268</t>
         </is>
       </c>
-      <c r="B40" s="4" t="inlineStr">
+      <c r="B40" s="3" t="inlineStr">
         <is>
           <t>research study</t>
         </is>
       </c>
-      <c r="C40" s="4" t="inlineStr">
+      <c r="C40" s="3" t="inlineStr">
         <is>
           <t>A planned process that executes some study design or protocol to generate scientific data that is interpreted to test or generate a hypothesis.</t>
         </is>
       </c>
-      <c r="D40" s="4" t="n"/>
-      <c r="E40" s="4" t="n"/>
-      <c r="F40" s="4" t="inlineStr">
+      <c r="D40" s="3" t="n"/>
+      <c r="E40" s="3" t="n"/>
+      <c r="F40" s="3" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="G40" s="4" t="n"/>
-      <c r="H40" s="4" t="n"/>
-      <c r="I40" s="4" t="n"/>
-      <c r="J40" s="4" t="n"/>
-      <c r="K40" s="4" t="n"/>
-      <c r="L40" s="4" t="n"/>
-      <c r="M40" s="4" t="n"/>
-      <c r="N40" s="4" t="n"/>
-      <c r="O40" s="4" t="n"/>
-      <c r="P40" s="4" t="n"/>
-      <c r="Q40" s="4" t="n"/>
-      <c r="R40" s="4" t="n"/>
-      <c r="S40" s="4" t="inlineStr">
+      <c r="G40" s="3" t="n"/>
+      <c r="H40" s="3" t="n"/>
+      <c r="I40" s="3" t="n"/>
+      <c r="J40" s="3" t="n"/>
+      <c r="K40" s="3" t="n"/>
+      <c r="L40" s="3" t="n"/>
+      <c r="M40" s="3" t="n"/>
+      <c r="N40" s="3" t="n"/>
+      <c r="O40" s="3" t="n"/>
+      <c r="P40" s="3" t="n"/>
+      <c r="Q40" s="3" t="n"/>
+      <c r="R40" s="3" t="n"/>
+      <c r="S40" s="3" t="inlineStr">
         <is>
           <t>SEPIO:0000125</t>
         </is>
       </c>
-      <c r="T40" s="4" t="n"/>
-      <c r="U40" s="4" t="n"/>
-      <c r="V40" s="4" t="n"/>
-      <c r="W40" s="4" t="n"/>
-      <c r="X40" s="4" t="inlineStr">
+      <c r="T40" s="3" t="n"/>
+      <c r="U40" s="3" t="n"/>
+      <c r="V40" s="3" t="n"/>
+      <c r="W40" s="3" t="n"/>
+      <c r="X40" s="3" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="Y40" s="4" t="n"/>
-      <c r="Z40" s="4" t="n"/>
-      <c r="AA40" s="4" t="n"/>
+      <c r="Y40" s="3" t="n"/>
+      <c r="Z40" s="3" t="n"/>
+      <c r="AA40" s="3" t="n"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">

--- a/UpperLevel/GMHO_Upper_Defs.xlsx
+++ b/UpperLevel/GMHO_Upper_Defs.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -47,6 +47,11 @@
         <fgColor rgb="002f4f4f"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffffff"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -60,11 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -430,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2209,169 +2215,222 @@
       <c r="AA38" s="3" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="4" t="inlineStr">
+        <is>
+          <t>GMHO:0000268</t>
+        </is>
+      </c>
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>process context</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>An entity that includes the material and temporal contexts that are not part of but may influence the outcome of a process.</t>
+        </is>
+      </c>
+      <c r="D39" s="4" t="inlineStr"/>
+      <c r="E39" s="4" t="inlineStr">
+        <is>
+          <t>'temporal context of process' OR 'material context of process'</t>
+        </is>
+      </c>
+      <c r="F39" s="4" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
+      <c r="G39" s="4" t="inlineStr"/>
+      <c r="H39" s="4" t="inlineStr"/>
+      <c r="I39" s="4" t="inlineStr"/>
+      <c r="J39" s="4" t="inlineStr"/>
+      <c r="K39" s="4" t="inlineStr"/>
+      <c r="L39" s="4" t="inlineStr"/>
+      <c r="M39" s="4" t="inlineStr"/>
+      <c r="N39" s="4" t="inlineStr"/>
+      <c r="O39" s="4" t="inlineStr"/>
+      <c r="P39" s="4" t="inlineStr"/>
+      <c r="Q39" s="4" t="inlineStr"/>
+      <c r="R39" s="4" t="inlineStr"/>
+      <c r="S39" s="4" t="inlineStr"/>
+      <c r="T39" s="4" t="inlineStr"/>
+      <c r="U39" s="4" t="inlineStr"/>
+      <c r="V39" s="4" t="inlineStr"/>
+      <c r="W39" s="4" t="inlineStr"/>
+      <c r="X39" s="4" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y39" s="4" t="inlineStr"/>
+      <c r="Z39" s="4" t="inlineStr"/>
+      <c r="AA39" s="4" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>SEPIO:0000125</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>research study</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>A planned process that executes some study design or protocol to generate scientific data that is interpreted to test or generate a hypothesis.</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="P39" t="inlineStr">
+      <c r="P40" t="inlineStr">
         <is>
           <t>human population</t>
         </is>
       </c>
-      <c r="X39" t="inlineStr">
+      <c r="X40" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="3" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000268</t>
         </is>
       </c>
-      <c r="B40" s="3" t="inlineStr">
+      <c r="B41" s="3" t="inlineStr">
         <is>
           <t>research study</t>
         </is>
       </c>
-      <c r="C40" s="3" t="inlineStr">
+      <c r="C41" s="3" t="inlineStr">
         <is>
           <t>A planned process that executes some study design or protocol to generate scientific data that is interpreted to test or generate a hypothesis.</t>
         </is>
       </c>
-      <c r="D40" s="3" t="n"/>
-      <c r="E40" s="3" t="n"/>
-      <c r="F40" s="3" t="inlineStr">
+      <c r="D41" s="3" t="n"/>
+      <c r="E41" s="3" t="n"/>
+      <c r="F41" s="3" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="G40" s="3" t="n"/>
-      <c r="H40" s="3" t="n"/>
-      <c r="I40" s="3" t="n"/>
-      <c r="J40" s="3" t="n"/>
-      <c r="K40" s="3" t="n"/>
-      <c r="L40" s="3" t="n"/>
-      <c r="M40" s="3" t="n"/>
-      <c r="N40" s="3" t="n"/>
-      <c r="O40" s="3" t="n"/>
-      <c r="P40" s="3" t="n"/>
-      <c r="Q40" s="3" t="n"/>
-      <c r="R40" s="3" t="n"/>
-      <c r="S40" s="3" t="inlineStr">
+      <c r="G41" s="3" t="n"/>
+      <c r="H41" s="3" t="n"/>
+      <c r="I41" s="3" t="n"/>
+      <c r="J41" s="3" t="n"/>
+      <c r="K41" s="3" t="n"/>
+      <c r="L41" s="3" t="n"/>
+      <c r="M41" s="3" t="n"/>
+      <c r="N41" s="3" t="n"/>
+      <c r="O41" s="3" t="n"/>
+      <c r="P41" s="3" t="n"/>
+      <c r="Q41" s="3" t="n"/>
+      <c r="R41" s="3" t="n"/>
+      <c r="S41" s="3" t="inlineStr">
         <is>
           <t>SEPIO:0000125</t>
         </is>
       </c>
-      <c r="T40" s="3" t="n"/>
-      <c r="U40" s="3" t="n"/>
-      <c r="V40" s="3" t="n"/>
-      <c r="W40" s="3" t="n"/>
-      <c r="X40" s="3" t="inlineStr">
+      <c r="T41" s="3" t="n"/>
+      <c r="U41" s="3" t="n"/>
+      <c r="V41" s="3" t="n"/>
+      <c r="W41" s="3" t="n"/>
+      <c r="X41" s="3" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="Y40" s="3" t="n"/>
-      <c r="Z40" s="3" t="n"/>
-      <c r="AA40" s="3" t="n"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="Y41" s="3" t="n"/>
+      <c r="Z41" s="3" t="n"/>
+      <c r="AA41" s="3" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>BFO:0000023</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>role</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>A realizable entity the manifestation of which brings about some result or end that is not essential to a continuant in virtue of the kind of thing that it is but that can be served or participated in by that kind of continuant in some kinds of natural, social or institutional contexts.</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>realizable entity</t>
         </is>
       </c>
-      <c r="X41" t="inlineStr">
+      <c r="X42" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="2" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000006</t>
         </is>
       </c>
-      <c r="B42" s="2" t="inlineStr">
+      <c r="B43" s="2" t="inlineStr">
         <is>
           <t>temporal context of process</t>
         </is>
       </c>
-      <c r="C42" s="2" t="inlineStr">
+      <c r="C43" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">An occurrent that is not dependent on a process but may influence the effect of the process on its outcome. </t>
         </is>
       </c>
-      <c r="D42" s="2" t="n"/>
-      <c r="E42" s="2" t="n"/>
-      <c r="F42" s="2" t="inlineStr">
+      <c r="D43" s="2" t="n"/>
+      <c r="E43" s="2" t="n"/>
+      <c r="F43" s="2" t="inlineStr">
         <is>
           <t>occurrent</t>
         </is>
       </c>
-      <c r="G42" s="2" t="n"/>
-      <c r="H42" s="2" t="n"/>
-      <c r="I42" s="2" t="n"/>
-      <c r="J42" s="2" t="n"/>
-      <c r="K42" s="2" t="n"/>
-      <c r="L42" s="2" t="n"/>
-      <c r="M42" s="2" t="n"/>
-      <c r="N42" s="2" t="n"/>
-      <c r="O42" s="2" t="inlineStr">
+      <c r="G43" s="2" t="n"/>
+      <c r="H43" s="2" t="n"/>
+      <c r="I43" s="2" t="n"/>
+      <c r="J43" s="2" t="n"/>
+      <c r="K43" s="2" t="n"/>
+      <c r="L43" s="2" t="n"/>
+      <c r="M43" s="2" t="n"/>
+      <c r="N43" s="2" t="n"/>
+      <c r="O43" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">This entity includes time periods, events, etc. </t>
         </is>
       </c>
-      <c r="P42" s="2" t="n"/>
-      <c r="Q42" s="2" t="n"/>
-      <c r="R42" s="2" t="n"/>
-      <c r="S42" s="2" t="n"/>
-      <c r="T42" s="2" t="n"/>
-      <c r="U42" s="2" t="n"/>
-      <c r="V42" s="2" t="n"/>
-      <c r="W42" s="2" t="n"/>
-      <c r="X42" s="2" t="inlineStr">
+      <c r="P43" s="2" t="n"/>
+      <c r="Q43" s="2" t="n"/>
+      <c r="R43" s="2" t="n"/>
+      <c r="S43" s="2" t="n"/>
+      <c r="T43" s="2" t="n"/>
+      <c r="U43" s="2" t="n"/>
+      <c r="V43" s="2" t="n"/>
+      <c r="W43" s="2" t="n"/>
+      <c r="X43" s="2" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="Y42" s="2" t="n"/>
-      <c r="Z42" s="2" t="n"/>
-      <c r="AA42" s="2" t="n"/>
+      <c r="Y43" s="2" t="n"/>
+      <c r="Z43" s="2" t="n"/>
+      <c r="AA43" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
